--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI25"/>
+  <dimension ref="A1:EJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,6 +1131,11 @@
           <t>30-oct.</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>31-oct.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1570,6 +1575,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2009,6 +2019,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2448,6 +2463,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2887,6 +2907,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3326,6 +3351,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3765,6 +3795,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4204,6 +4239,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4643,6 +4683,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5082,6 +5127,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5521,6 +5571,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5960,6 +6015,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6399,6 +6459,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6838,6 +6903,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7277,6 +7347,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -7716,6 +7791,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -8155,6 +8235,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -8594,6 +8679,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -9033,6 +9123,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -9472,6 +9567,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -9911,6 +10011,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -10350,6 +10455,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -10789,6 +10899,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -11228,6 +11343,11 @@
           <t>-</t>
         </is>
       </c>
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -11663,6 +11783,11 @@
         <v>76.01000000000001</v>
       </c>
       <c r="EI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11679,7 +11804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13047,6 +13172,16 @@
       </c>
       <c r="B136" t="n">
         <v>30.5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>30.6</v>
       </c>
     </row>
   </sheetData>
@@ -13060,7 +13195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14414,6 +14549,16 @@
         <v>78.06</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>78.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ25"/>
+  <dimension ref="A1:EK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,155 +983,160 @@
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
+          <t>01-nov</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1467,71 +1472,71 @@
       <c r="DE2" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DH2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DI2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DJ2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>87.22</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>20</v>
       </c>
-      <c r="DZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1567,15 +1572,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH2" t="n">
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1911,71 +1921,71 @@
       <c r="DE3" t="n">
         <v>64.7</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DH3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DI3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DJ3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>76.81</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>68.39</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>74.13</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>91.59</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>71.36</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>11.59</v>
       </c>
-      <c r="DZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2011,15 +2021,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH3" t="n">
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2355,71 +2370,71 @@
       <c r="DE4" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DH4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DI4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DJ4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>72.61</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>90.23</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>56.27</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>14.17</v>
       </c>
-      <c r="DZ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2455,15 +2470,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH4" t="n">
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EI4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2799,71 +2819,71 @@
       <c r="DE5" t="n">
         <v>43.63</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DH5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DI5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DJ5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DM5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>30</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>60.65</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>80.75</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>82.64</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>34.13</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>8.43</v>
       </c>
-      <c r="DZ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA5" t="inlineStr">
         <is>
           <t>-</t>
@@ -2899,15 +2919,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH5" t="n">
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EI5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3243,71 +3268,71 @@
       <c r="DE6" t="n">
         <v>38</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DH6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DI6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DJ6" t="n">
         <v>0</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>64.86</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>55.2</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>75.38</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>74.88</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>30.47</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="DZ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3343,15 +3368,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH6" t="n">
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EI6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3687,71 +3717,71 @@
       <c r="DE7" t="n">
         <v>30.23</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DH7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DI7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DJ7" t="n">
         <v>0</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>78</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>23.79</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>11.89</v>
       </c>
-      <c r="DZ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3787,15 +3817,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH7" t="n">
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EI7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4131,71 +4166,71 @@
       <c r="DE8" t="n">
         <v>56</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DH8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DI8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DJ8" t="n">
         <v>0</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DK8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DL8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>86.61</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>91.91</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>80.84</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>27.92</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>51.1</v>
       </c>
-      <c r="DZ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4231,15 +4266,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH8" t="n">
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EI8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4575,71 +4615,71 @@
       <c r="DE9" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DH9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DI9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DJ9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DK9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DL9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DM9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DN9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>109.77</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>107.23</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>117.17</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>98.08</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>29.71</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="DZ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4675,15 +4715,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH9" t="n">
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EI9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5019,71 +5064,71 @@
       <c r="DE10" t="n">
         <v>120</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DH10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DI10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DJ10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DK10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DL10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DM10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DN10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>143.1</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>133.02</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>140.25</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>112.47</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>31.35</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="DZ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5119,15 +5164,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH10" t="n">
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EI10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5463,71 +5513,71 @@
       <c r="DE11" t="n">
         <v>93.97</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DH11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DI11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DJ11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DK11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DL11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DM11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DN11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>120.53</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>112.33</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>129.02</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>99.89</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>24.8</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>84.16</v>
       </c>
-      <c r="DZ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5563,15 +5613,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH11" t="n">
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EI11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5907,71 +5962,71 @@
       <c r="DE12" t="n">
         <v>60.1</v>
       </c>
-      <c r="DF12" t="n">
+      <c r="DF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DG12" t="n">
+      <c r="DH12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DI12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="DJ12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DK12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DL12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DM12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DN12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>103</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>99.66</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>99.38</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>75.37</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>38.46</v>
       </c>
-      <c r="DZ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6007,15 +6062,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH12" t="n">
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EI12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6351,71 +6411,71 @@
       <c r="DE13" t="n">
         <v>31</v>
       </c>
-      <c r="DF13" t="n">
+      <c r="DF13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="DH13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="DI13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DI13" t="n">
+      <c r="DJ13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DJ13" t="n">
+      <c r="DK13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="DL13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DM13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DN13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>84.62</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>80.31</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>84.42</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>39.52</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>12.06</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>16.68</v>
       </c>
-      <c r="DZ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6451,15 +6511,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH13" t="n">
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EI13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6795,71 +6860,71 @@
       <c r="DE14" t="n">
         <v>24.47</v>
       </c>
-      <c r="DF14" t="n">
+      <c r="DF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="DH14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="DI14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DI14" t="n">
+      <c r="DJ14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DK14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DL14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DM14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DN14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>73.02</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>69.84</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>76.58</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>39.27</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>26.6</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>20.75</v>
       </c>
-      <c r="DZ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA14" t="inlineStr">
         <is>
           <t>-</t>
@@ -6895,15 +6960,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH14" t="n">
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EI14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7239,71 +7309,71 @@
       <c r="DE15" t="n">
         <v>21.9</v>
       </c>
-      <c r="DF15" t="n">
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="DH15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="DI15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DJ15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DK15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DL15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DM15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DN15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>61.75</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>56.4</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>59.14</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>24.24</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>12.04</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>7.88</v>
       </c>
-      <c r="DZ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7339,15 +7409,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH15" t="n">
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EI15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7683,71 +7758,71 @@
       <c r="DE16" t="n">
         <v>7.43</v>
       </c>
-      <c r="DF16" t="n">
+      <c r="DF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DG16" t="n">
+      <c r="DH16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DH16" t="n">
+      <c r="DI16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DI16" t="n">
+      <c r="DJ16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DJ16" t="n">
+      <c r="DK16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DK16" t="n">
+      <c r="DL16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DL16" t="n">
+      <c r="DM16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DN16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>17</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>45.72</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>63.8</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>48.39</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>20</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>13.34</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>1.34</v>
       </c>
-      <c r="DZ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA16" t="inlineStr">
         <is>
           <t>-</t>
@@ -7783,15 +7858,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH16" t="n">
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EI16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8127,71 +8207,71 @@
       <c r="DE17" t="n">
         <v>22.89</v>
       </c>
-      <c r="DF17" t="n">
+      <c r="DF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DG17" t="n">
+      <c r="DH17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DH17" t="n">
+      <c r="DI17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DI17" t="n">
+      <c r="DJ17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DJ17" t="n">
+      <c r="DK17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DK17" t="n">
+      <c r="DL17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DL17" t="n">
+      <c r="DM17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>59.64</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>45</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>20.62</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>7.67</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>0.28</v>
       </c>
-      <c r="DZ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8227,15 +8307,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH17" t="n">
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EI17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8571,71 +8656,71 @@
       <c r="DE18" t="n">
         <v>25.26</v>
       </c>
-      <c r="DF18" t="n">
+      <c r="DF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DG18" t="n">
+      <c r="DH18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DH18" t="n">
+      <c r="DI18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DI18" t="n">
+      <c r="DJ18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DJ18" t="n">
+      <c r="DK18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DK18" t="n">
+      <c r="DL18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DL18" t="n">
+      <c r="DM18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>73.42</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>73.69</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>57.8</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>30.05</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>10.64</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>6.06</v>
       </c>
-      <c r="DZ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA18" t="inlineStr">
         <is>
           <t>-</t>
@@ -8671,15 +8756,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH18" t="n">
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EI18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9015,71 +9105,71 @@
       <c r="DE19" t="n">
         <v>36.01</v>
       </c>
-      <c r="DF19" t="n">
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DG19" t="n">
+      <c r="DH19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DH19" t="n">
+      <c r="DI19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DI19" t="n">
+      <c r="DJ19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DJ19" t="n">
+      <c r="DK19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DK19" t="n">
+      <c r="DL19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DL19" t="n">
+      <c r="DM19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DN19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>84.5</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>68.13</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>12.85</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>11.77</v>
       </c>
-      <c r="DZ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9115,15 +9205,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH19" t="n">
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EI19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9459,71 +9554,71 @@
       <c r="DE20" t="n">
         <v>82.98999999999999</v>
       </c>
-      <c r="DF20" t="n">
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DG20" t="n">
+      <c r="DH20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DH20" t="n">
+      <c r="DI20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DI20" t="n">
+      <c r="DJ20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DJ20" t="n">
+      <c r="DK20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DK20" t="n">
+      <c r="DL20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DL20" t="n">
+      <c r="DM20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>116.88</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>116.71</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>120.75</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>38.52</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>40.14</v>
       </c>
-      <c r="DZ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA20" t="inlineStr">
         <is>
           <t>-</t>
@@ -9559,15 +9654,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH20" t="n">
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EI20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9903,71 +10003,71 @@
       <c r="DE21" t="n">
         <v>117</v>
       </c>
-      <c r="DF21" t="n">
+      <c r="DF21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DG21" t="n">
+      <c r="DH21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DH21" t="n">
+      <c r="DI21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DI21" t="n">
+      <c r="DJ21" t="n">
         <v>0</v>
       </c>
-      <c r="DJ21" t="n">
+      <c r="DK21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DK21" t="n">
+      <c r="DL21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DL21" t="n">
+      <c r="DM21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>156.52</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>142.33</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>133.47</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>117.97</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>79.05</v>
       </c>
-      <c r="DZ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10003,15 +10103,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH21" t="n">
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EI21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10347,71 +10452,71 @@
       <c r="DE22" t="n">
         <v>106.18</v>
       </c>
-      <c r="DF22" t="n">
+      <c r="DF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DG22" t="n">
+      <c r="DH22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DH22" t="n">
+      <c r="DI22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DI22" t="n">
+      <c r="DJ22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DJ22" t="n">
+      <c r="DK22" t="n">
         <v>0</v>
       </c>
-      <c r="DK22" t="n">
+      <c r="DL22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DL22" t="n">
+      <c r="DM22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>127.41</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>117.2</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>116.57</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>102.6</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>72.14</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>64.13</v>
       </c>
-      <c r="DZ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA22" t="inlineStr">
         <is>
           <t>-</t>
@@ -10447,15 +10552,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH22" t="n">
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EI22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10791,71 +10901,71 @@
       <c r="DE23" t="n">
         <v>83.23</v>
       </c>
-      <c r="DF23" t="n">
+      <c r="DF23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DG23" t="n">
+      <c r="DH23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DI23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DI23" t="n">
+      <c r="DJ23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DJ23" t="n">
+      <c r="DK23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DK23" t="n">
+      <c r="DL23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DM23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>95</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>96.52</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>105.43</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>93.59</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>49</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>28.75</v>
       </c>
-      <c r="DZ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA23" t="inlineStr">
         <is>
           <t>-</t>
@@ -10891,15 +11001,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH23" t="n">
+      <c r="EH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EI23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11235,71 +11350,71 @@
       <c r="DE24" t="n">
         <v>73</v>
       </c>
-      <c r="DF24" t="n">
+      <c r="DF24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DG24" t="n">
+      <c r="DH24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DH24" t="n">
+      <c r="DI24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DI24" t="n">
+      <c r="DJ24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DJ24" t="n">
+      <c r="DK24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DK24" t="n">
+      <c r="DL24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DM24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>93.13</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>103.33</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>95.98</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>43.88</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>46.08</v>
       </c>
-      <c r="DZ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA24" t="inlineStr">
         <is>
           <t>-</t>
@@ -11335,15 +11450,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH24" t="n">
+      <c r="EH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EI24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11679,71 +11799,71 @@
       <c r="DE25" t="n">
         <v>75.73</v>
       </c>
-      <c r="DF25" t="n">
+      <c r="DF25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DG25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DG25" t="n">
+      <c r="DH25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DH25" t="n">
+      <c r="DI25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DI25" t="n">
+      <c r="DJ25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DJ25" t="n">
+      <c r="DK25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DK25" t="n">
+      <c r="DL25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DL25" t="n">
+      <c r="DM25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DN25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>88.28</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>94.38</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>32.41</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>46.64</v>
       </c>
-      <c r="DZ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EA25" t="inlineStr">
         <is>
           <t>-</t>
@@ -11779,15 +11899,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH25" t="n">
+      <c r="EH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EI25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11804,7 +11929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13182,6 +13307,16 @@
       </c>
       <c r="B137" t="n">
         <v>30.6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>29.8</v>
       </c>
     </row>
   </sheetData>
@@ -13195,7 +13330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14559,6 +14694,16 @@
         <v>78.56</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>78.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK25"/>
+  <dimension ref="A1:EM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,155 +988,165 @@
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
+          <t>02-nov</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>03-nov</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1477,76 +1487,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DJ2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DK2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DL2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DM2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DN2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DO2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DP2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DQ2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DR2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DS2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DT2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DV2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DW2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DX2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DY2" t="n">
         <v>87.22</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DZ2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EA2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EB2" t="n">
         <v>20</v>
       </c>
-      <c r="EA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1577,15 +1587,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI2" t="n">
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1926,76 +1946,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DJ3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DK3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DL3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DM3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DN3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DO3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DP3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DQ3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DR3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DS3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DT3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DU3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DV3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DW3" t="n">
         <v>76.81</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DX3" t="n">
         <v>68.39</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DY3" t="n">
         <v>74.13</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DZ3" t="n">
         <v>91.59</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EA3" t="n">
         <v>71.36</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EB3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2026,15 +2046,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI3" t="n">
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2375,76 +2405,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DJ4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DK4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DL4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DM4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DN4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DO4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DP4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DQ4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DR4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DS4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DT4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DU4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DV4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DW4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DX4" t="n">
         <v>72.61</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DY4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DZ4" t="n">
         <v>90.23</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EA4" t="n">
         <v>56.27</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EB4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2475,15 +2505,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI4" t="n">
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EJ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK4" t="inlineStr">
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2824,76 +2864,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DJ5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DK5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DL5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DM5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DN5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DO5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DP5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DQ5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DR5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DS5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DT5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DU5" t="n">
         <v>30</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DV5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DW5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DX5" t="n">
         <v>60.65</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DY5" t="n">
         <v>80.75</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DZ5" t="n">
         <v>82.64</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EA5" t="n">
         <v>34.13</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EB5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC5" t="inlineStr">
         <is>
           <t>-</t>
@@ -2924,15 +2964,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI5" t="n">
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK5" t="inlineStr">
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3273,76 +3323,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG6" t="n">
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DJ6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DK6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DL6" t="n">
         <v>0</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DM6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DN6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DO6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DP6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DQ6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DR6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DS6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DT6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DU6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DV6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DW6" t="n">
         <v>64.86</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DX6" t="n">
         <v>55.2</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DY6" t="n">
         <v>75.38</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DZ6" t="n">
         <v>74.88</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EA6" t="n">
         <v>30.47</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EB6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EA6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3373,15 +3423,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI6" t="n">
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EJ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK6" t="inlineStr">
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3722,76 +3782,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG7" t="n">
+      <c r="DG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DJ7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DK7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DL7" t="n">
         <v>0</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DM7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DN7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DO7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DP7" t="n">
         <v>78</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DQ7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DR7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DS7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DT7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DU7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DV7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DW7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DX7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DY7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DZ7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EA7" t="n">
         <v>23.79</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EB7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EA7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3822,15 +3882,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI7" t="n">
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EJ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK7" t="inlineStr">
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4171,76 +4241,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG8" t="n">
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DJ8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DK8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DL8" t="n">
         <v>0</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DM8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DN8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DO8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DP8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DQ8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DR8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DS8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DT8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DU8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DV8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DW8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DX8" t="n">
         <v>86.61</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DY8" t="n">
         <v>91.91</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DZ8" t="n">
         <v>80.84</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EA8" t="n">
         <v>27.92</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EB8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EA8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4271,15 +4341,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI8" t="n">
+      <c r="EI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EJ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK8" t="inlineStr">
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4620,76 +4700,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG9" t="n">
+      <c r="DG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DJ9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DK9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DL9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DM9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DN9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DO9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DP9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DQ9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DR9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DS9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DT9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DU9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DV9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DW9" t="n">
         <v>109.77</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DX9" t="n">
         <v>107.23</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DY9" t="n">
         <v>117.17</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DZ9" t="n">
         <v>98.08</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EA9" t="n">
         <v>29.71</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EB9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EA9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4720,15 +4800,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI9" t="n">
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EJ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK9" t="inlineStr">
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5069,76 +5159,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG10" t="n">
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DJ10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DK10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DL10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DM10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DN10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DO10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DP10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DQ10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DR10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DS10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DT10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DU10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DV10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DW10" t="n">
         <v>143.1</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DX10" t="n">
         <v>133.02</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DY10" t="n">
         <v>140.25</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DZ10" t="n">
         <v>112.47</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EA10" t="n">
         <v>31.35</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EB10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EA10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5169,15 +5259,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI10" t="n">
+      <c r="EI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EJ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK10" t="inlineStr">
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5518,76 +5618,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG11" t="n">
+      <c r="DG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DJ11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DK11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DL11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DM11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DN11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DO11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DP11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DQ11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DR11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DS11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DT11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DU11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DV11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DW11" t="n">
         <v>120.53</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DX11" t="n">
         <v>112.33</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DY11" t="n">
         <v>129.02</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DZ11" t="n">
         <v>99.89</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EA11" t="n">
         <v>24.8</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EB11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EA11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5618,15 +5718,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI11" t="n">
+      <c r="EI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EJ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK11" t="inlineStr">
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5967,76 +6077,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG12" t="n">
+      <c r="DG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DH12" t="n">
+      <c r="DJ12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DI12" t="n">
+      <c r="DK12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DL12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DM12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DN12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DO12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DP12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DQ12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DR12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DS12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DT12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DU12" t="n">
         <v>103</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DV12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DW12" t="n">
         <v>99.66</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DX12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DY12" t="n">
         <v>99.38</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DZ12" t="n">
         <v>75.37</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="EA12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EB12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EA12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6067,15 +6177,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI12" t="n">
+      <c r="EI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EJ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK12" t="inlineStr">
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6416,76 +6536,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG13" t="n">
+      <c r="DG13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DH13" t="n">
+      <c r="DJ13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DI13" t="n">
+      <c r="DK13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DJ13" t="n">
+      <c r="DL13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="DM13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DN13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DO13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DP13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DQ13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DR13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DS13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DT13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DU13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DV13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DW13" t="n">
         <v>84.62</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DX13" t="n">
         <v>80.31</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DY13" t="n">
         <v>84.42</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DZ13" t="n">
         <v>39.52</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="EA13" t="n">
         <v>12.06</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EB13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EA13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6516,15 +6636,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI13" t="n">
+      <c r="EI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EJ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK13" t="inlineStr">
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6865,76 +6995,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG14" t="n">
+      <c r="DG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DH14" t="n">
+      <c r="DJ14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DI14" t="n">
+      <c r="DK14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DL14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DM14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DN14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DO14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DP14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DQ14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DR14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DS14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DT14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DU14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DV14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DW14" t="n">
         <v>73.02</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DX14" t="n">
         <v>69.84</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DY14" t="n">
         <v>76.58</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DZ14" t="n">
         <v>39.27</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="EA14" t="n">
         <v>26.6</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EB14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EA14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC14" t="inlineStr">
         <is>
           <t>-</t>
@@ -6965,15 +7095,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI14" t="n">
+      <c r="EI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EJ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK14" t="inlineStr">
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7314,76 +7454,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG15" t="n">
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DH15" t="n">
+      <c r="DJ15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DI15" t="n">
+      <c r="DK15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DL15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DM15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DN15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DO15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DP15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DQ15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DR15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DS15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DT15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DU15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DV15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DW15" t="n">
         <v>61.75</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DX15" t="n">
         <v>56.4</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DY15" t="n">
         <v>59.14</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DZ15" t="n">
         <v>24.24</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="EA15" t="n">
         <v>12.04</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EB15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7414,15 +7554,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI15" t="n">
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EJ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK15" t="inlineStr">
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7763,76 +7913,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG16" t="n">
+      <c r="DG16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DH16" t="n">
+      <c r="DJ16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DI16" t="n">
+      <c r="DK16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DJ16" t="n">
+      <c r="DL16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DK16" t="n">
+      <c r="DM16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DL16" t="n">
+      <c r="DN16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DO16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DP16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DQ16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DR16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DS16" t="n">
         <v>17</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DT16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DU16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DV16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DW16" t="n">
         <v>45.72</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DX16" t="n">
         <v>63.8</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DY16" t="n">
         <v>48.39</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DZ16" t="n">
         <v>20</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="EA16" t="n">
         <v>13.34</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EB16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EA16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC16" t="inlineStr">
         <is>
           <t>-</t>
@@ -7863,15 +8013,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI16" t="n">
+      <c r="EI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EJ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK16" t="inlineStr">
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8212,76 +8372,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG17" t="n">
+      <c r="DG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DH17" t="n">
+      <c r="DJ17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DI17" t="n">
+      <c r="DK17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DJ17" t="n">
+      <c r="DL17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK17" t="n">
+      <c r="DM17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DL17" t="n">
+      <c r="DN17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DO17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DP17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DQ17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DR17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DS17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DT17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DU17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DV17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DW17" t="n">
         <v>59.64</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DX17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DY17" t="n">
         <v>45</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DZ17" t="n">
         <v>20.62</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="EA17" t="n">
         <v>7.67</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EB17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EA17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8312,15 +8472,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI17" t="n">
+      <c r="EI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK17" t="inlineStr">
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8661,76 +8831,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG18" t="n">
+      <c r="DG18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DH18" t="n">
+      <c r="DJ18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DI18" t="n">
+      <c r="DK18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DJ18" t="n">
+      <c r="DL18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK18" t="n">
+      <c r="DM18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DL18" t="n">
+      <c r="DN18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DO18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DP18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DQ18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DR18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DS18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DT18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DU18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DV18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DW18" t="n">
         <v>73.42</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DX18" t="n">
         <v>73.69</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DY18" t="n">
         <v>57.8</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DZ18" t="n">
         <v>30.05</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="EA18" t="n">
         <v>10.64</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EB18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EA18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC18" t="inlineStr">
         <is>
           <t>-</t>
@@ -8761,15 +8931,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI18" t="n">
+      <c r="EI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EJ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK18" t="inlineStr">
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9110,76 +9290,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG19" t="n">
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DH19" t="n">
+      <c r="DJ19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DI19" t="n">
+      <c r="DK19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DJ19" t="n">
+      <c r="DL19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DK19" t="n">
+      <c r="DM19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DL19" t="n">
+      <c r="DN19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DO19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DP19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DQ19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DR19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DS19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DT19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DU19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DV19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DW19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DX19" t="n">
         <v>84.5</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DY19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DZ19" t="n">
         <v>68.13</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="EA19" t="n">
         <v>12.85</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EB19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EA19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9210,15 +9390,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI19" t="n">
+      <c r="EI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EJ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK19" t="inlineStr">
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9559,76 +9749,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG20" t="n">
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DH20" t="n">
+      <c r="DJ20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DI20" t="n">
+      <c r="DK20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DJ20" t="n">
+      <c r="DL20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK20" t="n">
+      <c r="DM20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DL20" t="n">
+      <c r="DN20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DO20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DP20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DQ20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DR20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DS20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DT20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DU20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DV20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DW20" t="n">
         <v>116.88</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DX20" t="n">
         <v>116.71</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DY20" t="n">
         <v>120.75</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DZ20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="EA20" t="n">
         <v>38.52</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EB20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EA20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC20" t="inlineStr">
         <is>
           <t>-</t>
@@ -9659,15 +9849,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI20" t="n">
+      <c r="EI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EJ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK20" t="inlineStr">
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10008,76 +10208,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG21" t="n">
+      <c r="DG21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DH21" t="n">
+      <c r="DJ21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DI21" t="n">
+      <c r="DK21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DJ21" t="n">
+      <c r="DL21" t="n">
         <v>0</v>
       </c>
-      <c r="DK21" t="n">
+      <c r="DM21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DL21" t="n">
+      <c r="DN21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DO21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DP21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DQ21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DR21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DS21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DT21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DU21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DV21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DW21" t="n">
         <v>156.52</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DX21" t="n">
         <v>142.33</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DY21" t="n">
         <v>133.47</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DZ21" t="n">
         <v>117.97</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="EA21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EB21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EA21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10108,15 +10308,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI21" t="n">
+      <c r="EI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EJ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK21" t="inlineStr">
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10457,76 +10667,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG22" t="n">
+      <c r="DG22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DH22" t="n">
+      <c r="DJ22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DI22" t="n">
+      <c r="DK22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DJ22" t="n">
+      <c r="DL22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DK22" t="n">
+      <c r="DM22" t="n">
         <v>0</v>
       </c>
-      <c r="DL22" t="n">
+      <c r="DN22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DO22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DP22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DQ22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DR22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DS22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DT22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DU22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DV22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DW22" t="n">
         <v>127.41</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DX22" t="n">
         <v>117.2</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DY22" t="n">
         <v>116.57</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DZ22" t="n">
         <v>102.6</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="EA22" t="n">
         <v>72.14</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EB22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EA22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC22" t="inlineStr">
         <is>
           <t>-</t>
@@ -10557,15 +10767,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI22" t="n">
+      <c r="EI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EJ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK22" t="inlineStr">
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10906,76 +11126,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG23" t="n">
+      <c r="DG23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DJ23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DI23" t="n">
+      <c r="DK23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DJ23" t="n">
+      <c r="DL23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DK23" t="n">
+      <c r="DM23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DN23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DO23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DP23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DQ23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DR23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DS23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DT23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DU23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DV23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DW23" t="n">
         <v>95</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DX23" t="n">
         <v>96.52</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DY23" t="n">
         <v>105.43</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DZ23" t="n">
         <v>93.59</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="EA23" t="n">
         <v>49</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EB23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EA23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11006,15 +11226,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI23" t="n">
+      <c r="EI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EJ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK23" t="inlineStr">
+      <c r="EL23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11355,76 +11585,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG24" t="n">
+      <c r="DG24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DH24" t="n">
+      <c r="DJ24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DI24" t="n">
+      <c r="DK24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DJ24" t="n">
+      <c r="DL24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DK24" t="n">
+      <c r="DM24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DN24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DO24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DP24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DQ24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DR24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DS24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DT24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DU24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DV24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DW24" t="n">
         <v>93.13</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DX24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DY24" t="n">
         <v>103.33</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DZ24" t="n">
         <v>95.98</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="EA24" t="n">
         <v>43.88</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EB24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EA24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC24" t="inlineStr">
         <is>
           <t>-</t>
@@ -11455,15 +11685,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI24" t="n">
+      <c r="EI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EJ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK24" t="inlineStr">
+      <c r="EL24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11804,76 +12044,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DG25" t="n">
+      <c r="DG25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DI25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DH25" t="n">
+      <c r="DJ25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DI25" t="n">
+      <c r="DK25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DJ25" t="n">
+      <c r="DL25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DK25" t="n">
+      <c r="DM25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DL25" t="n">
+      <c r="DN25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DO25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DP25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DQ25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DR25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DS25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DT25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DU25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DV25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DW25" t="n">
         <v>88.28</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DX25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DY25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DZ25" t="n">
         <v>94.38</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="EA25" t="n">
         <v>32.41</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EB25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EA25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EC25" t="inlineStr">
         <is>
           <t>-</t>
@@ -11904,15 +12144,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI25" t="n">
+      <c r="EI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EJ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK25" t="inlineStr">
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11929,7 +12179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13316,6 +13566,36 @@
         </is>
       </c>
       <c r="B138" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
         <v>29.8</v>
       </c>
     </row>
@@ -13330,7 +13610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14704,6 +14984,36 @@
         <v>78.36</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EM25"/>
+  <dimension ref="A1:EN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -998,155 +998,160 @@
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
+          <t>06-nov</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1497,71 +1502,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DK2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>87.22</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>20</v>
       </c>
-      <c r="EC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1597,15 +1602,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK2" t="n">
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1956,71 +1966,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DK3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>76.81</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>68.39</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>74.13</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2056,15 +2066,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK3" t="n">
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2415,71 +2430,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DK4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>72.61</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2515,15 +2530,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK4" t="n">
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EL4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2874,71 +2894,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DK5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DM5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>30</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>60.65</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>80.75</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED5" t="inlineStr">
         <is>
           <t>-</t>
@@ -2974,15 +2994,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK5" t="n">
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EL5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3333,71 +3358,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI6" t="n">
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DK6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>0</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>64.86</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>55.2</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>75.38</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EC6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3433,15 +3458,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK6" t="n">
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EL6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3792,71 +3822,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI7" t="n">
+      <c r="DI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DK7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>0</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>78</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EC7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3892,15 +3922,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK7" t="n">
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EL7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4251,71 +4286,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI8" t="n">
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DK8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DL8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>0</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>86.61</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>91.91</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EC8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4351,15 +4386,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK8" t="n">
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EL8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4710,71 +4750,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI9" t="n">
+      <c r="DI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DK9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DL9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DM9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DN9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>109.77</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>107.23</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>117.17</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EC9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4810,15 +4850,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK9" t="n">
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EL9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5169,71 +5214,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI10" t="n">
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DK10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DL10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DM10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DN10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>143.1</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>133.02</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>140.25</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5269,15 +5314,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK10" t="n">
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EL10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5628,71 +5678,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI11" t="n">
+      <c r="DI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DK11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DL11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DM11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DN11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>120.53</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>112.33</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>129.02</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EC11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5728,15 +5778,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK11" t="n">
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EL11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6087,71 +6142,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI12" t="n">
+      <c r="DI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DK12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DL12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DM12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DN12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>103</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>99.66</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>99.38</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6187,15 +6242,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK12" t="n">
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EL12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6546,71 +6606,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI13" t="n">
+      <c r="DI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DJ13" t="n">
+      <c r="DK13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="DL13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DM13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DN13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>84.62</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>80.31</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>84.42</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6646,15 +6706,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK13" t="n">
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EL13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7005,71 +7070,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI14" t="n">
+      <c r="DI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DK14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DL14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DM14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DN14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>73.02</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>69.84</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>76.58</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7105,15 +7170,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK14" t="n">
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EL14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7464,71 +7534,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI15" t="n">
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DK15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DL15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DM15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DN15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>61.75</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>56.4</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>59.14</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EC15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7564,15 +7634,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK15" t="n">
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EL15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7923,71 +7998,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI16" t="n">
+      <c r="DI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DJ16" t="n">
+      <c r="DK16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DK16" t="n">
+      <c r="DL16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DL16" t="n">
+      <c r="DM16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DN16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>17</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>45.72</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>63.8</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>48.39</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>20</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EC16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8023,15 +8098,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK16" t="n">
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EL16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8382,71 +8462,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI17" t="n">
+      <c r="DI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DJ17" t="n">
+      <c r="DK17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DK17" t="n">
+      <c r="DL17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DL17" t="n">
+      <c r="DM17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>59.64</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>45</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EC17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8482,15 +8562,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK17" t="n">
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EL17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8841,71 +8926,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI18" t="n">
+      <c r="DI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DJ18" t="n">
+      <c r="DK18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DK18" t="n">
+      <c r="DL18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DL18" t="n">
+      <c r="DM18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>73.42</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>73.69</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>57.8</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EC18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED18" t="inlineStr">
         <is>
           <t>-</t>
@@ -8941,15 +9026,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK18" t="n">
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EL18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9300,71 +9390,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI19" t="n">
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DJ19" t="n">
+      <c r="DK19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DK19" t="n">
+      <c r="DL19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DL19" t="n">
+      <c r="DM19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DN19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>84.5</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EC19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9400,15 +9490,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK19" t="n">
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EL19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9759,71 +9854,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI20" t="n">
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DJ20" t="n">
+      <c r="DK20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DK20" t="n">
+      <c r="DL20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DL20" t="n">
+      <c r="DM20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>116.88</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>116.71</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>120.75</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EC20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED20" t="inlineStr">
         <is>
           <t>-</t>
@@ -9859,15 +9954,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK20" t="n">
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EL20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10218,71 +10318,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI21" t="n">
+      <c r="DI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DJ21" t="n">
+      <c r="DK21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DK21" t="n">
+      <c r="DL21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DL21" t="n">
+      <c r="DM21" t="n">
         <v>0</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>156.52</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>142.33</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>133.47</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EC21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10318,15 +10418,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK21" t="n">
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EL21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10677,71 +10782,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI22" t="n">
+      <c r="DI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DJ22" t="n">
+      <c r="DK22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DK22" t="n">
+      <c r="DL22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DL22" t="n">
+      <c r="DM22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
         <v>0</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>127.41</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>117.2</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>116.57</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EC22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED22" t="inlineStr">
         <is>
           <t>-</t>
@@ -10777,15 +10882,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK22" t="n">
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EL22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11136,71 +11246,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI23" t="n">
+      <c r="DI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DJ23" t="n">
+      <c r="DK23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DK23" t="n">
+      <c r="DL23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DM23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>95</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>96.52</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>105.43</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>49</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EC23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11236,15 +11346,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK23" t="n">
+      <c r="EK23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EL23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11595,71 +11710,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI24" t="n">
+      <c r="DI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DJ24" t="n">
+      <c r="DK24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DK24" t="n">
+      <c r="DL24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DM24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>93.13</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>103.33</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EC24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED24" t="inlineStr">
         <is>
           <t>-</t>
@@ -11695,15 +11810,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK24" t="n">
+      <c r="EK24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EL24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12054,71 +12174,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DI25" t="n">
+      <c r="DI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DJ25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DJ25" t="n">
+      <c r="DK25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DK25" t="n">
+      <c r="DL25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DL25" t="n">
+      <c r="DM25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DN25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>88.28</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EC25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ED25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12154,15 +12274,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK25" t="n">
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EL25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EM25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12179,7 +12304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13597,6 +13722,16 @@
       </c>
       <c r="B141" t="n">
         <v>29.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>31.17</v>
       </c>
     </row>
   </sheetData>
@@ -13610,7 +13745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15014,6 +15149,16 @@
         <v>78</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN25"/>
+  <dimension ref="A1:EO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,155 +1003,160 @@
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
+          <t>07-nov</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1507,71 +1512,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DL2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>20</v>
       </c>
-      <c r="ED2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1607,15 +1612,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL2" t="n">
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1971,71 +1981,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DL3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>76.81</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>68.39</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>11.59</v>
       </c>
-      <c r="ED3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2071,15 +2081,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL3" t="n">
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2435,71 +2450,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DL4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>72.61</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>14.17</v>
       </c>
-      <c r="ED4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2535,15 +2550,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL4" t="n">
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EM4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2899,71 +2919,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DL5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DM5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>30</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>60.65</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>8.43</v>
       </c>
-      <c r="ED5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE5" t="inlineStr">
         <is>
           <t>-</t>
@@ -2999,15 +3019,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL5" t="n">
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EM5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3363,71 +3388,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DL6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>0</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>64.86</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>55.2</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="ED6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3463,15 +3488,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL6" t="n">
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EM6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3827,71 +3857,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DL7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>0</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>78</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>11.89</v>
       </c>
-      <c r="ED7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3927,15 +3957,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL7" t="n">
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EM7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4291,71 +4326,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DL8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>0</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>86.61</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>51.1</v>
       </c>
-      <c r="ED8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4391,15 +4426,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL8" t="n">
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EM8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4755,71 +4795,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DL9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DM9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DN9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>109.77</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>107.23</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="ED9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4855,15 +4895,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL9" t="n">
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EM9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5219,71 +5264,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DL10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DM10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DN10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>143.1</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>133.02</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="ED10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5319,15 +5364,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL10" t="n">
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EM10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5683,71 +5733,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DL11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DM11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DN11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>120.53</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>112.33</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>84.16</v>
       </c>
-      <c r="ED11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5783,15 +5833,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL11" t="n">
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EM11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6147,71 +6202,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ12" t="n">
+      <c r="DJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DK12" t="n">
+      <c r="DL12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DM12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DN12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>103</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>99.66</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>38.46</v>
       </c>
-      <c r="ED12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6247,15 +6302,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL12" t="n">
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EM12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6611,71 +6671,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ13" t="n">
+      <c r="DJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DK13" t="n">
+      <c r="DL13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DM13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DN13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>84.62</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>80.31</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>16.68</v>
       </c>
-      <c r="ED13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6711,15 +6771,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL13" t="n">
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EM13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7075,71 +7140,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ14" t="n">
+      <c r="DJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DK14" t="n">
+      <c r="DL14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DM14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DN14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>73.02</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>69.84</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>20.75</v>
       </c>
-      <c r="ED14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7175,15 +7240,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL14" t="n">
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EM14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7539,71 +7609,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ15" t="n">
+      <c r="DJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DK15" t="n">
+      <c r="DL15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DM15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DN15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>61.75</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>56.4</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>7.88</v>
       </c>
-      <c r="ED15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7639,15 +7709,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL15" t="n">
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EM15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8003,71 +8078,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ16" t="n">
+      <c r="DJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DK16" t="n">
+      <c r="DL16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DL16" t="n">
+      <c r="DM16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DN16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>17</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>45.72</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>63.8</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>20</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>1.34</v>
       </c>
-      <c r="ED16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8103,15 +8178,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL16" t="n">
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EM16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8467,71 +8547,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ17" t="n">
+      <c r="DJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DK17" t="n">
+      <c r="DL17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DL17" t="n">
+      <c r="DM17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>59.64</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>45</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>0.28</v>
       </c>
-      <c r="ED17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8567,15 +8647,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL17" t="n">
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EM17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8931,71 +9016,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ18" t="n">
+      <c r="DJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DK18" t="n">
+      <c r="DL18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DL18" t="n">
+      <c r="DM18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>73.42</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>73.69</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>6.06</v>
       </c>
-      <c r="ED18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9031,15 +9116,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL18" t="n">
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EM18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9395,71 +9485,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ19" t="n">
+      <c r="DJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DK19" t="n">
+      <c r="DL19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DL19" t="n">
+      <c r="DM19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DN19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>84.5</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>11.77</v>
       </c>
-      <c r="ED19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9495,15 +9585,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL19" t="n">
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EM19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9859,71 +9954,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ20" t="n">
+      <c r="DJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DK20" t="n">
+      <c r="DL20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DL20" t="n">
+      <c r="DM20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>116.88</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>116.71</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>40.14</v>
       </c>
-      <c r="ED20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE20" t="inlineStr">
         <is>
           <t>-</t>
@@ -9959,15 +10054,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL20" t="n">
+      <c r="EL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EM20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10323,71 +10423,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ21" t="n">
+      <c r="DJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DK21" t="n">
+      <c r="DL21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DL21" t="n">
+      <c r="DM21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
         <v>0</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>156.52</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>142.33</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>79.05</v>
       </c>
-      <c r="ED21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10423,15 +10523,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL21" t="n">
+      <c r="EL21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EM21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10787,71 +10892,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ22" t="n">
+      <c r="DJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DK22" t="n">
+      <c r="DL22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DL22" t="n">
+      <c r="DM22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>0</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>127.41</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>117.2</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>64.13</v>
       </c>
-      <c r="ED22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE22" t="inlineStr">
         <is>
           <t>-</t>
@@ -10887,15 +10992,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL22" t="n">
+      <c r="EL22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EM22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11251,71 +11361,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ23" t="n">
+      <c r="DJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DK23" t="n">
+      <c r="DL23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DM23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>95</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>96.52</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>49</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>28.75</v>
       </c>
-      <c r="ED23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11351,15 +11461,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL23" t="n">
+      <c r="EL23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EM23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11715,71 +11830,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ24" t="n">
+      <c r="DJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DK24" t="n">
+      <c r="DL24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DM24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>93.13</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>46.08</v>
       </c>
-      <c r="ED24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE24" t="inlineStr">
         <is>
           <t>-</t>
@@ -11815,15 +11930,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL24" t="n">
+      <c r="EL24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EM24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12179,71 +12299,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DJ25" t="n">
+      <c r="DJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DK25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DK25" t="n">
+      <c r="DL25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DL25" t="n">
+      <c r="DM25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DN25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>88.28</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>46.64</v>
       </c>
-      <c r="ED25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EE25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12279,15 +12399,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL25" t="n">
+      <c r="EL25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EM25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12304,7 +12429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13732,6 +13857,16 @@
       </c>
       <c r="B142" t="n">
         <v>31.17</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>30.425</v>
       </c>
     </row>
   </sheetData>
@@ -13745,7 +13880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15159,6 +15294,16 @@
         <v>81.90000000000001</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>81.18000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO25"/>
+  <dimension ref="A1:EP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,155 +1008,160 @@
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
+          <t>08-nov</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1517,71 +1522,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK2" t="n">
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DM2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>20</v>
       </c>
-      <c r="EE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1617,15 +1622,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM2" t="n">
+      <c r="EM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1986,71 +1996,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK3" t="n">
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DM3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>76.81</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>71.36</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2086,15 +2096,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM3" t="n">
+      <c r="EM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2455,71 +2470,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK4" t="n">
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DM4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>56.27</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EE4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2555,15 +2570,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM4" t="n">
+      <c r="EM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EN4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2924,71 +2944,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK5" t="n">
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DM5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>30</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>34.13</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3024,15 +3044,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM5" t="n">
+      <c r="EM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3393,71 +3418,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK6" t="n">
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DM6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>0</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>64.86</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>30.47</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EE6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3493,15 +3518,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM6" t="n">
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EN6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3862,71 +3892,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK7" t="n">
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DM7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>0</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>78</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>23.79</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EE7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3962,15 +3992,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM7" t="n">
+      <c r="EM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EN7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4331,71 +4366,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK8" t="n">
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DM8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>0</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>27.92</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EE8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4431,15 +4466,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM8" t="n">
+      <c r="EM8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EN8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4800,71 +4840,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK9" t="n">
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DM9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DN9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>109.77</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>29.71</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EE9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4900,15 +4940,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM9" t="n">
+      <c r="EM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EN9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5269,71 +5314,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK10" t="n">
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DM10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DN10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>143.1</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>31.35</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EE10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5369,15 +5414,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM10" t="n">
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EN10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5738,71 +5788,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK11" t="n">
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DM11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DN11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>120.53</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>24.8</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EE11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5838,15 +5888,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM11" t="n">
+      <c r="EM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EN11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6207,71 +6262,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK12" t="n">
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DL12" t="n">
+      <c r="DM12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DN12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>103</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>99.66</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EE12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6307,15 +6362,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM12" t="n">
+      <c r="EM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EN12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6676,71 +6736,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK13" t="n">
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DL13" t="n">
+      <c r="DM13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DN13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>84.62</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>12.06</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EE13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6776,15 +6836,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM13" t="n">
+      <c r="EM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EN13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7145,71 +7210,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK14" t="n">
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DL14" t="n">
+      <c r="DM14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DN14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>73.02</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>26.6</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EE14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7245,15 +7310,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM14" t="n">
+      <c r="EM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EN14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7614,71 +7684,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK15" t="n">
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DL15" t="n">
+      <c r="DM15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DN15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>61.75</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>12.04</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EE15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7714,15 +7784,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM15" t="n">
+      <c r="EM15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EN15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8083,71 +8158,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK16" t="n">
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DL16" t="n">
+      <c r="DM16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DN16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>17</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>45.72</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>20</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>13.34</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EE16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8183,15 +8258,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM16" t="n">
+      <c r="EM16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EN16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8552,71 +8632,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK17" t="n">
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DL17" t="n">
+      <c r="DM17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>59.64</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>45</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>7.67</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EE17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8652,15 +8732,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM17" t="n">
+      <c r="EM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9021,71 +9106,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK18" t="n">
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DL18" t="n">
+      <c r="DM18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>73.42</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>10.64</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EE18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9121,15 +9206,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM18" t="n">
+      <c r="EM18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EN18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9490,71 +9580,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK19" t="n">
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DL19" t="n">
+      <c r="DM19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DN19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>12.85</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EE19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9590,15 +9680,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM19" t="n">
+      <c r="EM19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EN19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9959,71 +10054,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK20" t="n">
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DL20" t="n">
+      <c r="DM20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>116.88</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>38.52</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EE20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10059,15 +10154,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM20" t="n">
+      <c r="EM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EN20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10428,71 +10528,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK21" t="n">
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DL21" t="n">
+      <c r="DM21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>0</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>156.52</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EE21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10528,15 +10628,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM21" t="n">
+      <c r="EM21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EN21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10897,71 +11002,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK22" t="n">
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DL22" t="n">
+      <c r="DM22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>0</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>127.41</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>72.14</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EE22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF22" t="inlineStr">
         <is>
           <t>-</t>
@@ -10997,15 +11102,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM22" t="n">
+      <c r="EM22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EN22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11366,71 +11476,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK23" t="n">
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DL23" t="n">
+      <c r="DM23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>95</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>49</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EE23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11466,15 +11576,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM23" t="n">
+      <c r="EM23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EN23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11835,71 +11950,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK24" t="n">
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DL24" t="n">
+      <c r="DM24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>93.13</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>43.88</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EE24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF24" t="inlineStr">
         <is>
           <t>-</t>
@@ -11935,15 +12050,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM24" t="n">
+      <c r="EM24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EN24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12304,71 +12424,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DK25" t="n">
+      <c r="DK25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DL25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DL25" t="n">
+      <c r="DM25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DN25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>88.28</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>32.41</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EE25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EF25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12404,15 +12524,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EM25" t="n">
+      <c r="EM25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EN25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EN25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12429,7 +12554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13867,6 +13992,16 @@
       </c>
       <c r="B143" t="n">
         <v>30.425</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>30.35</v>
       </c>
     </row>
   </sheetData>
@@ -13880,7 +14015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15304,6 +15439,16 @@
         <v>81.18000000000001</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>79.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP25"/>
+  <dimension ref="A1:EQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1013,155 +1013,160 @@
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
+          <t>09-nov</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1527,71 +1532,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL2" t="n">
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DN2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>97.44</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>20</v>
       </c>
-      <c r="EF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1627,15 +1632,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN2" t="n">
+      <c r="EN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2001,71 +2011,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL3" t="n">
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DN3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>89.62</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>91.59</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2101,15 +2111,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN3" t="n">
+      <c r="EN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2475,71 +2490,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL4" t="n">
+      <c r="DL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DN4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>84.27</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>90.23</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EF4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2575,15 +2590,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN4" t="n">
+      <c r="EN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EO4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2949,71 +2969,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL5" t="n">
+      <c r="DL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DN5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>30</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>73.38</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>82.64</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EF5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3049,15 +3069,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN5" t="n">
+      <c r="EN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EO5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3423,71 +3448,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL6" t="n">
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DN6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>0</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>69.58</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>74.88</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EF6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3523,15 +3548,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN6" t="n">
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EO6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3897,71 +3927,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL7" t="n">
+      <c r="DL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DN7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>0</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>78</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>75.73</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EF7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG7" t="inlineStr">
         <is>
           <t>-</t>
@@ -3997,15 +4027,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN7" t="n">
+      <c r="EN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EO7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4371,71 +4406,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL8" t="n">
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DN8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>0</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>80.84</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EF8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4471,15 +4506,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN8" t="n">
+      <c r="EN8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EO8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4845,71 +4885,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL9" t="n">
+      <c r="DL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DN9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>114.95</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>98.08</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EF9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4945,15 +4985,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN9" t="n">
+      <c r="EN9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EO9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5319,71 +5364,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL10" t="n">
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DN10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>141.93</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>112.47</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EF10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5419,15 +5464,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN10" t="n">
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EO10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5793,71 +5843,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL11" t="n">
+      <c r="DL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DN11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>122.51</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>99.89</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EF11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5893,15 +5943,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN11" t="n">
+      <c r="EN11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EO11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6267,71 +6322,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL12" t="n">
+      <c r="DL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DM12" t="n">
+      <c r="DN12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>103</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>105.43</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>75.37</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EF12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6367,15 +6422,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN12" t="n">
+      <c r="EN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EO12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6741,71 +6801,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL13" t="n">
+      <c r="DL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DM13" t="n">
+      <c r="DN13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>39.52</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EF13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6841,15 +6901,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN13" t="n">
+      <c r="EN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EO13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7215,71 +7280,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL14" t="n">
+      <c r="DL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DM14" t="n">
+      <c r="DN14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>76.86</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>39.27</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EF14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7315,15 +7380,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN14" t="n">
+      <c r="EN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EO14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7689,71 +7759,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL15" t="n">
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DM15" t="n">
+      <c r="DN15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>24.24</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EF15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7789,15 +7859,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN15" t="n">
+      <c r="EN15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EO15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8163,71 +8238,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL16" t="n">
+      <c r="DL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DM16" t="n">
+      <c r="DN16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>17</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>63.5</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>20</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EF16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8263,15 +8338,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN16" t="n">
+      <c r="EN16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EO16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8637,71 +8717,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL17" t="n">
+      <c r="DL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DM17" t="n">
+      <c r="DN17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>61.72</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>45</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>20.62</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EF17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8737,15 +8817,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN17" t="n">
+      <c r="EN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EO17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9111,71 +9196,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL18" t="n">
+      <c r="DL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DM18" t="n">
+      <c r="DN18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>30.05</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EF18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9211,15 +9296,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN18" t="n">
+      <c r="EN18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EO18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9585,71 +9675,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL19" t="n">
+      <c r="DL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DM19" t="n">
+      <c r="DN19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>86.95</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>68.13</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EF19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9685,15 +9775,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN19" t="n">
+      <c r="EN19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EO19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10059,71 +10154,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL20" t="n">
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DM20" t="n">
+      <c r="DN20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>110.61</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EF20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10159,15 +10254,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN20" t="n">
+      <c r="EN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EO20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10533,71 +10633,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL21" t="n">
+      <c r="DL21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DM21" t="n">
+      <c r="DN21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>0</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>145.16</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>117.97</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EF21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10633,15 +10733,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN21" t="n">
+      <c r="EN21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EO21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11007,71 +11112,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL22" t="n">
+      <c r="DL22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DM22" t="n">
+      <c r="DN22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>0</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>116.65</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>102.6</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EF22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11107,15 +11212,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN22" t="n">
+      <c r="EN22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EO22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11481,71 +11591,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL23" t="n">
+      <c r="DL23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DM23" t="n">
+      <c r="DN23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>102.79</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>95</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>93.59</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>49</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EF23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11581,15 +11691,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN23" t="n">
+      <c r="EN23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EO23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11955,71 +12070,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL24" t="n">
+      <c r="DL24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DM24" t="n">
+      <c r="DN24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>119.59</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>95.98</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EF24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12055,15 +12170,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN24" t="n">
+      <c r="EN24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EO24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12429,71 +12549,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DL25" t="n">
+      <c r="DL25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DM25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DM25" t="n">
+      <c r="DN25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>103.18</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>94.38</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EF25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EG25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12529,15 +12649,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EN25" t="n">
+      <c r="EN25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EO25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EO25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12554,7 +12679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14002,6 +14127,16 @@
       </c>
       <c r="B144" t="n">
         <v>30.35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>29.74</v>
       </c>
     </row>
   </sheetData>
@@ -14015,7 +14150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15449,6 +15584,16 @@
         <v>79.94</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>79.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ25"/>
+  <dimension ref="A1:ER25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,155 +1018,160 @@
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
+          <t>10-nov</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1537,71 +1542,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM2" t="n">
+      <c r="DM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DO2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>72.25</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>87.22</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>20</v>
       </c>
-      <c r="EG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1637,15 +1642,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO2" t="n">
+      <c r="EO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2016,71 +2026,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM3" t="n">
+      <c r="DM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DO3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>63.56</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>74.13</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2116,15 +2126,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO3" t="n">
+      <c r="EO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2495,71 +2510,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM4" t="n">
+      <c r="DM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DO4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>60.17</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EG4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2595,15 +2610,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO4" t="n">
+      <c r="EO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EP4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2974,71 +2994,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM5" t="n">
+      <c r="DM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DO5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>30</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>80.75</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EG5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3074,15 +3094,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO5" t="n">
+      <c r="EO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EP5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3453,71 +3478,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM6" t="n">
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DO6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>0</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>23.19</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>75.38</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EG6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3553,15 +3578,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO6" t="n">
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EP6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3932,71 +3962,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM7" t="n">
+      <c r="DM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DO7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>0</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>78</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>44.47</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EG7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4032,15 +4062,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO7" t="n">
+      <c r="EO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EP7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4411,71 +4446,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM8" t="n">
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DO8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>0</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>87.55</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>91.91</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EG8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4511,15 +4546,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO8" t="n">
+      <c r="EO8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EP8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4890,71 +4930,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM9" t="n">
+      <c r="DM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DO9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>107.55</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>117.17</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EG9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH9" t="inlineStr">
         <is>
           <t>-</t>
@@ -4990,15 +5030,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO9" t="n">
+      <c r="EO9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EP9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5369,71 +5414,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM10" t="n">
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DO10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>127.41</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>140.25</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EG10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5469,15 +5514,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO10" t="n">
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EP10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5848,71 +5898,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM11" t="n">
+      <c r="DM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DO11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>111.22</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>129.02</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EG11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH11" t="inlineStr">
         <is>
           <t>-</t>
@@ -5948,15 +5998,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO11" t="n">
+      <c r="EO11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EP11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6327,71 +6382,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM12" t="n">
+      <c r="DM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DN12" t="n">
+      <c r="DO12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>103</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>99.38</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EG12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6427,15 +6482,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO12" t="n">
+      <c r="EO12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EP12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6806,71 +6866,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM13" t="n">
+      <c r="DM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DN13" t="n">
+      <c r="DO13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>88.36</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>84.42</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EG13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6906,15 +6966,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO13" t="n">
+      <c r="EO13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EP13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7285,71 +7350,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM14" t="n">
+      <c r="DM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DN14" t="n">
+      <c r="DO14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>76.58</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EG14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7385,15 +7450,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO14" t="n">
+      <c r="EO14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EP14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7764,71 +7834,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM15" t="n">
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DN15" t="n">
+      <c r="DO15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>60.03</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>59.14</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EG15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7864,15 +7934,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO15" t="n">
+      <c r="EO15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EP15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8243,71 +8318,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM16" t="n">
+      <c r="DM16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DN16" t="n">
+      <c r="DO16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>17</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>47.33</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>48.39</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>20</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EG16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8343,15 +8418,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO16" t="n">
+      <c r="EO16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EP16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8722,71 +8802,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM17" t="n">
+      <c r="DM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DN17" t="n">
+      <c r="DO17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>45.1</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>45</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EG17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8822,15 +8902,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO17" t="n">
+      <c r="EO17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EP17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9201,71 +9286,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM18" t="n">
+      <c r="DM18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DN18" t="n">
+      <c r="DO18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>45.81</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>57.8</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EG18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9301,15 +9386,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO18" t="n">
+      <c r="EO18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EP18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9680,71 +9770,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM19" t="n">
+      <c r="DM19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DN19" t="n">
+      <c r="DO19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EG19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9780,15 +9870,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO19" t="n">
+      <c r="EO19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EP19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10159,71 +10254,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM20" t="n">
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DN20" t="n">
+      <c r="DO20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>99.91</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>120.75</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EG20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10259,15 +10354,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO20" t="n">
+      <c r="EO20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EP20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10638,71 +10738,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM21" t="n">
+      <c r="DM21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DN21" t="n">
+      <c r="DO21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>0</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>132.08</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>133.47</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EG21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10738,15 +10838,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO21" t="n">
+      <c r="EO21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EP21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11117,71 +11222,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM22" t="n">
+      <c r="DM22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DN22" t="n">
+      <c r="DO22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>0</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>106.19</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>116.57</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EG22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11217,15 +11322,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO22" t="n">
+      <c r="EO22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EP22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11596,71 +11706,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM23" t="n">
+      <c r="DM23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DN23" t="n">
+      <c r="DO23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>95.19</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>95</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>105.43</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>49</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EG23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11696,15 +11806,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO23" t="n">
+      <c r="EO23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EP23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12075,71 +12190,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM24" t="n">
+      <c r="DM24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DN24" t="n">
+      <c r="DO24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>90.52</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>103.33</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EG24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12175,15 +12290,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO24" t="n">
+      <c r="EO24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EP24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12554,71 +12674,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DM25" t="n">
+      <c r="DM25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DN25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DN25" t="n">
+      <c r="DO25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>87.41</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EG25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EH25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12654,15 +12774,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EO25" t="n">
+      <c r="EO25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EP25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EP25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12679,7 +12804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14137,6 +14262,26 @@
       </c>
       <c r="B145" t="n">
         <v>29.74</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>29.755</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>29.755</v>
       </c>
     </row>
   </sheetData>
@@ -14150,7 +14295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15594,6 +15739,26 @@
         <v>79.36</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>79.36</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>79.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER25"/>
+  <dimension ref="A1:ES25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,155 +1023,160 @@
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>11-nov</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1547,71 +1552,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN2" t="n">
+      <c r="DN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DP2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>20</v>
       </c>
-      <c r="EH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1647,15 +1652,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP2" t="n">
+      <c r="EP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2031,71 +2041,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN3" t="n">
+      <c r="DN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DP3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>77.78</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>68.39</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2131,15 +2141,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP3" t="n">
+      <c r="EP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2515,71 +2530,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN4" t="n">
+      <c r="DN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DP4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>71.77</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>72.61</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EH4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2615,15 +2630,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP4" t="n">
+      <c r="EP4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EQ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2999,71 +3019,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN5" t="n">
+      <c r="DN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DP5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>59.19</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>30</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>60.65</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EH5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3099,15 +3119,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP5" t="n">
+      <c r="EP5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EQ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3483,71 +3508,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN6" t="n">
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DP6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>0</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>62.88</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>55.2</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EH6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3583,15 +3608,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP6" t="n">
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EQ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3967,71 +3997,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN7" t="n">
+      <c r="DN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DP7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>0</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>78</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>57.02</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EH7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4067,15 +4097,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP7" t="n">
+      <c r="EP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EQ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4451,71 +4486,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN8" t="n">
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DP8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>0</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>74.91</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>86.61</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EH8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4551,15 +4586,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP8" t="n">
+      <c r="EP8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EQ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4935,71 +4975,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN9" t="n">
+      <c r="DN9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DP9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>81.06</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>107.23</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EH9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5035,15 +5075,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP9" t="n">
+      <c r="EP9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EQ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5419,71 +5464,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN10" t="n">
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DP10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>133.02</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EH10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5519,15 +5564,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP10" t="n">
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EQ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5903,71 +5953,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN11" t="n">
+      <c r="DN11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DP11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>65.58</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>112.33</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EH11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6003,15 +6053,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP11" t="n">
+      <c r="EP11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EQ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6387,71 +6442,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN12" t="n">
+      <c r="DN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DP12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>29.04</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>103</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EH12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6487,15 +6542,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP12" t="n">
+      <c r="EP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EQ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6871,71 +6931,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN13" t="n">
+      <c r="DN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DP13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>20.33</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>80.31</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EH13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI13" t="inlineStr">
         <is>
           <t>-</t>
@@ -6971,15 +7031,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP13" t="n">
+      <c r="EP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EQ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7355,71 +7420,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN14" t="n">
+      <c r="DN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DP14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>24.03</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>69.84</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EH14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7455,15 +7520,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP14" t="n">
+      <c r="EP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EQ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7839,71 +7909,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN15" t="n">
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DP15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>16.5</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>56.4</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EH15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI15" t="inlineStr">
         <is>
           <t>-</t>
@@ -7939,15 +8009,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP15" t="n">
+      <c r="EP15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EQ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8323,71 +8398,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN16" t="n">
+      <c r="DN16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DP16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>17</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>6.2</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>63.8</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>20</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EH16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8423,15 +8498,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP16" t="n">
+      <c r="EP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EQ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8807,71 +8887,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN17" t="n">
+      <c r="DN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DP17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>1.72</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>45</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EH17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8907,15 +8987,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP17" t="n">
+      <c r="EP17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EQ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9291,71 +9376,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN18" t="n">
+      <c r="DN18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DP18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>7.24</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>73.69</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EH18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9391,15 +9476,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP18" t="n">
+      <c r="EP18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EQ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9775,71 +9865,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN19" t="n">
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DP19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>34.42</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>84.5</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EH19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9875,15 +9965,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP19" t="n">
+      <c r="EP19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EQ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10259,71 +10354,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN20" t="n">
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DP20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>116.71</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EH20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10359,15 +10454,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP20" t="n">
+      <c r="EP20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EQ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10743,71 +10843,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN21" t="n">
+      <c r="DN21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DP21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>0</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>109.4</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>142.33</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EH21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10843,15 +10943,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP21" t="n">
+      <c r="EP21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EQ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11227,71 +11332,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN22" t="n">
+      <c r="DN22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DP22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>0</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>110.18</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>117.2</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EH22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11327,15 +11432,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP22" t="n">
+      <c r="EP22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EQ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11711,71 +11821,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN23" t="n">
+      <c r="DN23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DP23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>102.95</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>95</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>96.52</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>49</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EH23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11811,15 +11921,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP23" t="n">
+      <c r="EP23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EQ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12195,71 +12310,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN24" t="n">
+      <c r="DN24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DP24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>84.64</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EH24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12295,15 +12410,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP24" t="n">
+      <c r="EP24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EQ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12679,71 +12799,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DN25" t="n">
+      <c r="DN25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DO25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DP25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>80.88</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EH25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EI25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12779,15 +12899,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EP25" t="n">
+      <c r="EP25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EQ25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EQ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES25" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES25"/>
+  <dimension ref="A1:ET25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,155 +1028,160 @@
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
+          <t>12-nov</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1557,71 +1562,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO2" t="n">
+      <c r="DO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DQ2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DR2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DS2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DT2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DU2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>95.12</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>20</v>
       </c>
-      <c r="EI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1657,15 +1662,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ2" t="n">
+      <c r="EQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER2" t="n">
         <v>60.08</v>
       </c>
-      <c r="ER2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2046,71 +2056,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO3" t="n">
+      <c r="DO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DQ3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DR3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DS3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DT3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DU3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>88.84</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>76.81</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2146,15 +2156,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ3" t="n">
+      <c r="EQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER3" t="n">
         <v>54.76</v>
       </c>
-      <c r="ER3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2535,71 +2550,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO4" t="n">
+      <c r="DO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DQ4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DR4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DS4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DT4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DU4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EI4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2635,15 +2650,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ4" t="n">
+      <c r="EQ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER4" t="n">
         <v>53.29</v>
       </c>
-      <c r="ER4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3024,71 +3044,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO5" t="n">
+      <c r="DO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DQ5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DR5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DS5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DT5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DU5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>72.53</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>30</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EI5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3124,15 +3144,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ5" t="n">
+      <c r="EQ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER5" t="n">
         <v>56.28</v>
       </c>
-      <c r="ER5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3513,71 +3538,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO6" t="n">
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DQ6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DR6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DS6" t="n">
         <v>0</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DT6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DU6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>64.86</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EI6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3613,15 +3638,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ6" t="n">
+      <c r="EQ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER6" t="n">
         <v>51.63</v>
       </c>
-      <c r="ER6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4002,71 +4032,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO7" t="n">
+      <c r="DO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DQ7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DR7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DS7" t="n">
         <v>0</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DT7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DU7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>78</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>76.92</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EI7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4102,15 +4132,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ7" t="n">
+      <c r="EQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER7" t="n">
         <v>57.36</v>
       </c>
-      <c r="ER7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4491,71 +4526,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO8" t="n">
+      <c r="DO8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DQ8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DR8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DS8" t="n">
         <v>0</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DT8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DU8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>90.27</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EI8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4591,15 +4626,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ8" t="n">
+      <c r="EQ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER8" t="n">
         <v>84.92</v>
       </c>
-      <c r="ER8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4980,71 +5020,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO9" t="n">
+      <c r="DO9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DQ9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DR9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DS9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DT9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DU9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>96.75</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>109.77</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EI9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5080,15 +5120,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ9" t="n">
+      <c r="EQ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER9" t="n">
         <v>103.69</v>
       </c>
-      <c r="ER9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5469,71 +5514,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO10" t="n">
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DQ10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DR10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DS10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DT10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DU10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>100.07</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>143.1</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EI10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5569,15 +5614,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ10" t="n">
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER10" t="n">
         <v>99.3</v>
       </c>
-      <c r="ER10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5958,71 +6008,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO11" t="n">
+      <c r="DO11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DQ11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DR11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DS11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DT11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DU11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>85.69</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>120.53</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EI11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6058,15 +6108,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ11" t="n">
+      <c r="EQ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="ER11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6447,71 +6502,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO12" t="n">
+      <c r="DO12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DP12" t="n">
+      <c r="DQ12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DR12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DS12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DT12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DU12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>55.75</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>103</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>99.66</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EI12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6547,15 +6602,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ12" t="n">
+      <c r="EQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER12" t="n">
         <v>74.28</v>
       </c>
-      <c r="ER12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6936,71 +6996,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO13" t="n">
+      <c r="DO13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DP13" t="n">
+      <c r="DQ13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DR13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DS13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DT13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DU13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>30.52</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>84.62</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EI13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7036,15 +7096,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ13" t="n">
+      <c r="EQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="ER13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7425,71 +7490,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO14" t="n">
+      <c r="DO14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DP14" t="n">
+      <c r="DQ14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DR14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DS14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DT14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DU14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>30.25</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>73.02</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EI14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7525,15 +7590,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ14" t="n">
+      <c r="EQ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER14" t="n">
         <v>75.78</v>
       </c>
-      <c r="ER14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7914,71 +7984,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO15" t="n">
+      <c r="DO15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DP15" t="n">
+      <c r="DQ15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DR15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DS15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DT15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DU15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>17.08</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>61.75</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EI15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8014,15 +8084,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ15" t="n">
+      <c r="EQ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER15" t="n">
         <v>78.55</v>
       </c>
-      <c r="ER15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8403,71 +8478,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO16" t="n">
+      <c r="DO16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DP16" t="n">
+      <c r="DQ16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DR16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DS16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DT16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DU16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>17</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>45.72</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>20</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EI16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8503,15 +8578,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ16" t="n">
+      <c r="EQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER16" t="n">
         <v>86.59</v>
       </c>
-      <c r="ER16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8892,71 +8972,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO17" t="n">
+      <c r="DO17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DP17" t="n">
+      <c r="DQ17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DR17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DS17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DT17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DU17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>15.49</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>59.64</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>45</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EI17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ17" t="inlineStr">
         <is>
           <t>-</t>
@@ -8992,15 +9072,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ17" t="n">
+      <c r="EQ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER17" t="n">
         <v>103.02</v>
       </c>
-      <c r="ER17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9381,71 +9466,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO18" t="n">
+      <c r="DO18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DP18" t="n">
+      <c r="DQ18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DR18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DS18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DT18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DU18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>73.42</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EI18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9481,15 +9566,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ18" t="n">
+      <c r="EQ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER18" t="n">
         <v>101.8</v>
       </c>
-      <c r="ER18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9870,71 +9960,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO19" t="n">
+      <c r="DO19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DP19" t="n">
+      <c r="DQ19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DR19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DS19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DT19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DU19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>42.56</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EI19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ19" t="inlineStr">
         <is>
           <t>-</t>
@@ -9970,15 +10060,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ19" t="n">
+      <c r="EQ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER19" t="n">
         <v>111.12</v>
       </c>
-      <c r="ER19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10359,71 +10454,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO20" t="n">
+      <c r="DO20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DP20" t="n">
+      <c r="DQ20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DR20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DS20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DT20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DU20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>83.06</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>116.88</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EI20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10459,15 +10554,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ20" t="n">
+      <c r="EQ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER20" t="n">
         <v>129.93</v>
       </c>
-      <c r="ER20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10848,71 +10948,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO21" t="n">
+      <c r="DO21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DP21" t="n">
+      <c r="DQ21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DR21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DS21" t="n">
         <v>0</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DT21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DU21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>106.6</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>156.52</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EI21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ21" t="inlineStr">
         <is>
           <t>-</t>
@@ -10948,15 +11048,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ21" t="n">
+      <c r="EQ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER21" t="n">
         <v>115.82</v>
       </c>
-      <c r="ER21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11337,71 +11442,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO22" t="n">
+      <c r="DO22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DP22" t="n">
+      <c r="DQ22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DR22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DS22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DT22" t="n">
         <v>0</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DU22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>105.62</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>127.41</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EI22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11437,15 +11542,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ22" t="n">
+      <c r="EQ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER22" t="n">
         <v>99.05</v>
       </c>
-      <c r="ER22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11826,71 +11936,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO23" t="n">
+      <c r="DO23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DP23" t="n">
+      <c r="DQ23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DR23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DS23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DT23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DU23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>91.72</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>95</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>49</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EI23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ23" t="inlineStr">
         <is>
           <t>-</t>
@@ -11926,15 +12036,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ23" t="n">
+      <c r="EQ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER23" t="n">
         <v>86.53</v>
       </c>
-      <c r="ER23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12315,71 +12430,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO24" t="n">
+      <c r="DO24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DP24" t="n">
+      <c r="DQ24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DR24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DS24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DT24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DU24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>89.77</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>93.13</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EI24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12415,15 +12530,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ24" t="n">
+      <c r="EQ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER24" t="n">
         <v>82.34</v>
       </c>
-      <c r="ER24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12804,71 +12924,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DO25" t="n">
+      <c r="DO25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DP25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DP25" t="n">
+      <c r="DQ25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DR25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DS25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DT25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DU25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>93.5</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>88.28</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EI25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EJ25" t="inlineStr">
         <is>
           <t>-</t>
@@ -12904,15 +13024,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EQ25" t="n">
+      <c r="EQ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ER25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="ER25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12929,7 +13054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14407,6 +14532,16 @@
       </c>
       <c r="B147" t="n">
         <v>29.755</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>28.925</v>
       </c>
     </row>
   </sheetData>
@@ -14420,7 +14555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15884,6 +16019,16 @@
         <v>79.36</v>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>79.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET25"/>
+  <dimension ref="A1:EV25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,155 +1033,165 @@
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
+          <t>15-nov</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>16-nov</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1567,76 +1577,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP2" t="n">
+      <c r="DP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DS2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DT2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DV2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DW2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DX2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DY2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DZ2" t="n">
         <v>92.37</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EA2" t="n">
         <v>89.02</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EB2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EC2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="ED2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EE2" t="n">
         <v>97.44</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EF2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EG2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EH2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EI2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EJ2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EK2" t="n">
         <v>20</v>
       </c>
-      <c r="EJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1667,15 +1677,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER2" t="n">
+      <c r="ER2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET2" t="n">
         <v>60.08</v>
       </c>
-      <c r="ES2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET2" t="inlineStr">
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2061,76 +2081,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP3" t="n">
+      <c r="DP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DS3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DT3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DU3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DV3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DW3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DX3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DY3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DZ3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EA3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EB3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EC3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="ED3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EE3" t="n">
         <v>89.62</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EF3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EG3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EH3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EI3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EJ3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EK3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2161,15 +2181,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER3" t="n">
+      <c r="ER3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET3" t="n">
         <v>54.76</v>
       </c>
-      <c r="ES3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET3" t="inlineStr">
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2555,76 +2585,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP4" t="n">
+      <c r="DP4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DS4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DT4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DU4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DV4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DW4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DX4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DY4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DZ4" t="n">
         <v>78.95</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EA4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EB4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EC4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="ED4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EE4" t="n">
         <v>84.27</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EF4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EG4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EH4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EI4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EJ4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EK4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EJ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2655,15 +2685,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER4" t="n">
+      <c r="ER4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET4" t="n">
         <v>53.29</v>
       </c>
-      <c r="ES4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET4" t="inlineStr">
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3049,76 +3089,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP5" t="n">
+      <c r="DP5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DS5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DT5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DU5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DV5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DW5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DX5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DY5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DZ5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EA5" t="n">
         <v>72.95</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EB5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EC5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="ED5" t="n">
         <v>30</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EE5" t="n">
         <v>73.38</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EF5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EG5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EH5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EI5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EJ5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EK5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EJ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3149,15 +3189,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER5" t="n">
+      <c r="ER5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET5" t="n">
         <v>56.28</v>
       </c>
-      <c r="ES5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET5" t="inlineStr">
+      <c r="EU5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3543,76 +3593,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP6" t="n">
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DS6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DT6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DU6" t="n">
         <v>0</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DV6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DW6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DX6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DY6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DZ6" t="n">
         <v>65.58</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EA6" t="n">
         <v>69.75</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EB6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EC6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="ED6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EE6" t="n">
         <v>69.58</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EF6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EG6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EH6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EI6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EJ6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EK6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EJ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3643,15 +3693,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER6" t="n">
+      <c r="ER6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET6" t="n">
         <v>51.63</v>
       </c>
-      <c r="ES6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET6" t="inlineStr">
+      <c r="EU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4037,76 +4097,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP7" t="n">
+      <c r="DP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DS7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DT7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DU7" t="n">
         <v>0</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DV7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DW7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DX7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DY7" t="n">
         <v>78</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DZ7" t="n">
         <v>68.47</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EA7" t="n">
         <v>78.87</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EB7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EC7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="ED7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EE7" t="n">
         <v>75.73</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EF7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EG7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EH7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EI7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EJ7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EK7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EJ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4137,15 +4197,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER7" t="n">
+      <c r="ER7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET7" t="n">
         <v>57.36</v>
       </c>
-      <c r="ES7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET7" t="inlineStr">
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4531,76 +4601,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP8" t="n">
+      <c r="DP8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DS8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DT8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DU8" t="n">
         <v>0</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DV8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DW8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DX8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DY8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DZ8" t="n">
         <v>85.78</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EA8" t="n">
         <v>94.98</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EB8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EC8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="ED8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EE8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EF8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EG8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EH8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EI8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EJ8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EK8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EJ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4631,15 +4701,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER8" t="n">
+      <c r="ER8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET8" t="n">
         <v>84.92</v>
       </c>
-      <c r="ES8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET8" t="inlineStr">
+      <c r="EU8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5025,76 +5105,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP9" t="n">
+      <c r="DP9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DS9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DT9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DU9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DV9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DW9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DX9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DY9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DZ9" t="n">
         <v>101.88</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EA9" t="n">
         <v>107.06</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EB9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EC9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="ED9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EE9" t="n">
         <v>114.95</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EF9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EG9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EH9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EI9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EJ9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EK9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EJ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5125,15 +5205,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER9" t="n">
+      <c r="ER9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET9" t="n">
         <v>103.69</v>
       </c>
-      <c r="ES9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET9" t="inlineStr">
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5519,76 +5609,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP10" t="n">
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DS10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DT10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DU10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DV10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DW10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DX10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DY10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DZ10" t="n">
         <v>119.07</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EA10" t="n">
         <v>121.48</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EB10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EC10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="ED10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EE10" t="n">
         <v>141.93</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EF10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EG10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EH10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EI10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EJ10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EK10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EJ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5619,15 +5709,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER10" t="n">
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET10" t="n">
         <v>99.3</v>
       </c>
-      <c r="ES10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET10" t="inlineStr">
+      <c r="EU10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6013,76 +6113,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP11" t="n">
+      <c r="DP11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DS11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DT11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DU11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DV11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DW11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DX11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DY11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DZ11" t="n">
         <v>111.04</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EA11" t="n">
         <v>104.96</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EB11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EC11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="ED11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EE11" t="n">
         <v>122.51</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EF11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EG11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EH11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EI11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EJ11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EK11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EJ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6113,15 +6213,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER11" t="n">
+      <c r="ER11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="ES11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET11" t="inlineStr">
+      <c r="EU11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6507,76 +6617,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP12" t="n">
+      <c r="DP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DS12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DR12" t="n">
+      <c r="DT12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DU12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DV12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DW12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DX12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DY12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DZ12" t="n">
         <v>89.81</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="EA12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EB12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EC12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="ED12" t="n">
         <v>103</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="EE12" t="n">
         <v>105.43</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EF12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EG12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EH12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EI12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EJ12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EK12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EJ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6607,15 +6717,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER12" t="n">
+      <c r="ER12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET12" t="n">
         <v>74.28</v>
       </c>
-      <c r="ES12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET12" t="inlineStr">
+      <c r="EU12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7001,76 +7121,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP13" t="n">
+      <c r="DP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DQ13" t="n">
+      <c r="DS13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DR13" t="n">
+      <c r="DT13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DU13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DV13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DW13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DX13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DY13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DZ13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="EA13" t="n">
         <v>70.25</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EB13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EC13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="ED13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="EE13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EF13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EG13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EH13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EI13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EJ13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EK13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EJ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7101,15 +7221,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER13" t="n">
+      <c r="ER13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="ES13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET13" t="inlineStr">
+      <c r="EU13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7495,76 +7625,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP14" t="n">
+      <c r="DP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DS14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DR14" t="n">
+      <c r="DT14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DU14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DV14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DW14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DX14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DY14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DZ14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="EA14" t="n">
         <v>73.55</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EB14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EC14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="ED14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="EE14" t="n">
         <v>76.86</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EF14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EG14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EH14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EI14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EJ14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EK14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EJ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7595,15 +7725,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER14" t="n">
+      <c r="ER14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET14" t="n">
         <v>75.78</v>
       </c>
-      <c r="ES14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET14" t="inlineStr">
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7989,76 +8129,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP15" t="n">
+      <c r="DP15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DQ15" t="n">
+      <c r="DS15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DR15" t="n">
+      <c r="DT15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DU15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DV15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DW15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DX15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DY15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DZ15" t="n">
         <v>48.38</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="EA15" t="n">
         <v>43.57</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EB15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EC15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="ED15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="EE15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EF15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EG15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EH15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EI15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EJ15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EK15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EJ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8089,15 +8229,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER15" t="n">
+      <c r="ER15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET15" t="n">
         <v>78.55</v>
       </c>
-      <c r="ES15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET15" t="inlineStr">
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8483,76 +8633,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP16" t="n">
+      <c r="DP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DS16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DR16" t="n">
+      <c r="DT16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DU16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DV16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DW16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DX16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DY16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DZ16" t="n">
         <v>47.12</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="EA16" t="n">
         <v>33.23</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EB16" t="n">
         <v>17</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EC16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="ED16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="EE16" t="n">
         <v>63.5</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EF16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EG16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EH16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EI16" t="n">
         <v>20</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EJ16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EK16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EJ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8583,15 +8733,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER16" t="n">
+      <c r="ER16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET16" t="n">
         <v>86.59</v>
       </c>
-      <c r="ES16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET16" t="inlineStr">
+      <c r="EU16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8977,76 +9137,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP17" t="n">
+      <c r="DP17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DS17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DR17" t="n">
+      <c r="DT17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DU17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DV17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DW17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DX17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DY17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DZ17" t="n">
         <v>41.3</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="EA17" t="n">
         <v>45.71</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EB17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EC17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="ED17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="EE17" t="n">
         <v>61.72</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EF17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EG17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EH17" t="n">
         <v>45</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EI17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EJ17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EK17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EJ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9077,15 +9237,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER17" t="n">
+      <c r="ER17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET17" t="n">
         <v>103.02</v>
       </c>
-      <c r="ES17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET17" t="inlineStr">
+      <c r="EU17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9471,76 +9641,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP18" t="n">
+      <c r="DP18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DS18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DR18" t="n">
+      <c r="DT18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DU18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DV18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DW18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DX18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DY18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DZ18" t="n">
         <v>47.75</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="EA18" t="n">
         <v>52.19</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EB18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EC18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="ED18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="EE18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EF18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EG18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EH18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EI18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EJ18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EK18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EJ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9571,15 +9741,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER18" t="n">
+      <c r="ER18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET18" t="n">
         <v>101.8</v>
       </c>
-      <c r="ES18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET18" t="inlineStr">
+      <c r="EU18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9965,76 +10145,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP19" t="n">
+      <c r="DP19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DQ19" t="n">
+      <c r="DS19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DR19" t="n">
+      <c r="DT19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DU19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DV19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DW19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DX19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DY19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DZ19" t="n">
         <v>67.14</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="EA19" t="n">
         <v>79.98</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EB19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EC19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="ED19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="EE19" t="n">
         <v>86.95</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EF19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EG19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EH19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EI19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EJ19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EK19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EJ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10065,15 +10245,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER19" t="n">
+      <c r="ER19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET19" t="n">
         <v>111.12</v>
       </c>
-      <c r="ES19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET19" t="inlineStr">
+      <c r="EU19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10459,76 +10649,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP20" t="n">
+      <c r="DP20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DS20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DR20" t="n">
+      <c r="DT20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DU20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DV20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DW20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DX20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DY20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DZ20" t="n">
         <v>101.1</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="EA20" t="n">
         <v>96.13</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EB20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EC20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="ED20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="EE20" t="n">
         <v>110.61</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EF20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EG20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EH20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EI20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EJ20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EK20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EJ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10559,15 +10749,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER20" t="n">
+      <c r="ER20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET20" t="n">
         <v>129.93</v>
       </c>
-      <c r="ES20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET20" t="inlineStr">
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10953,76 +11153,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP21" t="n">
+      <c r="DP21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DS21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DR21" t="n">
+      <c r="DT21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DU21" t="n">
         <v>0</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DV21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DW21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DX21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DY21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DZ21" t="n">
         <v>124.8</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="EA21" t="n">
         <v>115.01</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EB21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EC21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="ED21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="EE21" t="n">
         <v>145.16</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EF21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EG21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EH21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EI21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EJ21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EK21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EJ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11053,15 +11253,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER21" t="n">
+      <c r="ER21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET21" t="n">
         <v>115.82</v>
       </c>
-      <c r="ES21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET21" t="inlineStr">
+      <c r="EU21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11447,76 +11657,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP22" t="n">
+      <c r="DP22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DQ22" t="n">
+      <c r="DS22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DR22" t="n">
+      <c r="DT22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DU22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DV22" t="n">
         <v>0</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DW22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DX22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DY22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DZ22" t="n">
         <v>114.46</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="EA22" t="n">
         <v>113.06</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EB22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EC22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="ED22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="EE22" t="n">
         <v>116.65</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EF22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EG22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EH22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EI22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EJ22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EK22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EJ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11547,15 +11757,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER22" t="n">
+      <c r="ER22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET22" t="n">
         <v>99.05</v>
       </c>
-      <c r="ES22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET22" t="inlineStr">
+      <c r="EU22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11941,76 +12161,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP23" t="n">
+      <c r="DP23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DQ23" t="n">
+      <c r="DS23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DR23" t="n">
+      <c r="DT23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DU23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DV23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DW23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DX23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DY23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DZ23" t="n">
         <v>101.06</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="EA23" t="n">
         <v>93.08</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EB23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EC23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="ED23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="EE23" t="n">
         <v>102.79</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EF23" t="n">
         <v>95</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EG23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EH23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EI23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EJ23" t="n">
         <v>49</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EK23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EJ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12041,15 +12261,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER23" t="n">
+      <c r="ER23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET23" t="n">
         <v>86.53</v>
       </c>
-      <c r="ES23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET23" t="inlineStr">
+      <c r="EU23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12435,76 +12665,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP24" t="n">
+      <c r="DP24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DQ24" t="n">
+      <c r="DS24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DR24" t="n">
+      <c r="DT24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DU24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DV24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DW24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DX24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DY24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DZ24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="EA24" t="n">
         <v>91.94</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EB24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EC24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="ED24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="EE24" t="n">
         <v>119.59</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EF24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EG24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EH24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EI24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EJ24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EK24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EJ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12535,15 +12765,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER24" t="n">
+      <c r="ER24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET24" t="n">
         <v>82.34</v>
       </c>
-      <c r="ES24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET24" t="inlineStr">
+      <c r="EU24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12929,76 +13169,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DP25" t="n">
+      <c r="DP25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DQ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DR25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DQ25" t="n">
+      <c r="DS25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DR25" t="n">
+      <c r="DT25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DU25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DV25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DW25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DX25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DY25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DZ25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="EA25" t="n">
         <v>93.87</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EB25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EC25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="ED25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="EE25" t="n">
         <v>103.18</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EF25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EG25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EH25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EI25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EJ25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EK25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EJ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EK25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EL25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13029,15 +13269,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ER25" t="n">
+      <c r="ER25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ES25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ET25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="ES25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="ET25" t="inlineStr">
+      <c r="EU25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13054,7 +13304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14542,6 +14792,26 @@
       </c>
       <c r="B148" t="n">
         <v>28.925</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>28.725</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>29.33</v>
       </c>
     </row>
   </sheetData>
@@ -14555,7 +14825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16029,6 +16299,26 @@
         <v>79.88</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>81.02</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>80.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EV25"/>
+  <dimension ref="A1:EX25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,155 +1043,165 @@
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
+          <t>17-nov</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>18-nov</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1587,76 +1597,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR2" t="n">
+      <c r="DR2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DV2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DW2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DX2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DY2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DZ2" t="n">
         <v>88.77</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EA2" t="n">
         <v>93.45</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EB2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EC2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="ED2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EE2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EF2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EG2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EH2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EI2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EJ2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EK2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EL2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EM2" t="n">
         <v>20</v>
       </c>
-      <c r="EL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1687,15 +1697,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET2" t="n">
+      <c r="ET2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV2" t="inlineStr">
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2091,76 +2111,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR3" t="n">
+      <c r="DR3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DU3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DV3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DW3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DX3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DY3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DZ3" t="n">
         <v>89.47</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EA3" t="n">
         <v>88.44</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EB3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EC3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="ED3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EE3" t="n">
         <v>77.78</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EF3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EG3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EH3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EI3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EJ3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EK3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EL3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EM3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2191,15 +2211,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET3" t="n">
+      <c r="ET3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV3" t="inlineStr">
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2595,76 +2625,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR4" t="n">
+      <c r="DR4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DU4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DV4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DW4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DX4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DY4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DZ4" t="n">
         <v>75.66</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EA4" t="n">
         <v>87.56</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EB4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EC4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="ED4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EE4" t="n">
         <v>71.77</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EF4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EG4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EH4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EI4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EJ4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EK4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EL4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EM4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EL4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2695,15 +2725,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET4" t="n">
+      <c r="ET4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EU4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV4" t="inlineStr">
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3099,76 +3139,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR5" t="n">
+      <c r="DR5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DU5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DV5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DW5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DX5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DY5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DZ5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EA5" t="n">
         <v>81.16</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EB5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EC5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="ED5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EE5" t="n">
         <v>59.19</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EF5" t="n">
         <v>30</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EG5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EH5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EI5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EJ5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EK5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EL5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EM5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EL5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3199,15 +3239,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET5" t="n">
+      <c r="ET5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EU5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV5" t="inlineStr">
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3603,76 +3653,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR6" t="n">
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DU6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DV6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DW6" t="n">
         <v>0</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DX6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DY6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DZ6" t="n">
         <v>74.47</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EA6" t="n">
         <v>74.89</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EB6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EC6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="ED6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EE6" t="n">
         <v>62.88</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EF6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EG6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EH6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EI6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EJ6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EK6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EL6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EM6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EL6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3703,15 +3753,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET6" t="n">
+      <c r="ET6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EU6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV6" t="inlineStr">
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4107,76 +4167,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR7" t="n">
+      <c r="DR7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DU7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DV7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DW7" t="n">
         <v>0</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DX7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DY7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DZ7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EA7" t="n">
         <v>78</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EB7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EC7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="ED7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EE7" t="n">
         <v>57.02</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EF7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EG7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EH7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EI7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EJ7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EK7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EL7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EM7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EL7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4207,15 +4267,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET7" t="n">
+      <c r="ET7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EU7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV7" t="inlineStr">
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4611,76 +4681,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR8" t="n">
+      <c r="DR8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DU8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DV8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DW8" t="n">
         <v>0</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DX8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DY8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DZ8" t="n">
         <v>98.48</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EA8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EB8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EC8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="ED8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EE8" t="n">
         <v>74.91</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EF8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EG8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EH8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EI8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EJ8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EK8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EL8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EM8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EL8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4711,15 +4781,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET8" t="n">
+      <c r="ET8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EU8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV8" t="inlineStr">
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5115,76 +5195,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR9" t="n">
+      <c r="DR9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DU9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DV9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DW9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DX9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DY9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DZ9" t="n">
         <v>121.01</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EA9" t="n">
         <v>125.5</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EB9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EC9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="ED9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EE9" t="n">
         <v>81.06</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EF9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EG9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EH9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EI9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EJ9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EK9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EL9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EM9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EL9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5215,15 +5295,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET9" t="n">
+      <c r="ET9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EU9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV9" t="inlineStr">
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5619,76 +5709,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR10" t="n">
+      <c r="DR10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DU10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DV10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DW10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DX10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DY10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DZ10" t="n">
         <v>132.31</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EA10" t="n">
         <v>154.27</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EB10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EC10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="ED10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EE10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EF10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EG10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EH10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EI10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EJ10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EK10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EL10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EM10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EL10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5719,15 +5809,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET10" t="n">
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EU10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV10" t="inlineStr">
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6123,76 +6223,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR11" t="n">
+      <c r="DR11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DU11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DV11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DW11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DX11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DY11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DZ11" t="n">
         <v>118.1</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EA11" t="n">
         <v>109.85</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EB11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EC11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="ED11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EE11" t="n">
         <v>65.58</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EF11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EG11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EH11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EI11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EJ11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EK11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EL11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EM11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EL11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6223,15 +6323,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET11" t="n">
+      <c r="ET11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EU11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV11" t="inlineStr">
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6627,76 +6737,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR12" t="n">
+      <c r="DR12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DS12" t="n">
+      <c r="DU12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DT12" t="n">
+      <c r="DV12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DW12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DX12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DY12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DZ12" t="n">
         <v>75.89</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="EA12" t="n">
         <v>98.03</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EB12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EC12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="ED12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="EE12" t="n">
         <v>29.04</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EF12" t="n">
         <v>103</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EG12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EH12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EI12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EJ12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EK12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EL12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EM12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EL12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6727,15 +6837,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET12" t="n">
+      <c r="ET12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EU12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV12" t="inlineStr">
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7131,76 +7251,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR13" t="n">
+      <c r="DR13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DS13" t="n">
+      <c r="DU13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DT13" t="n">
+      <c r="DV13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DW13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DX13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DY13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DZ13" t="n">
         <v>51.76</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="EA13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EB13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EC13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="ED13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="EE13" t="n">
         <v>20.33</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EF13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EG13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EH13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EI13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EJ13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EK13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EL13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EM13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EL13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7231,15 +7351,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET13" t="n">
+      <c r="ET13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EU13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV13" t="inlineStr">
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7635,76 +7765,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR14" t="n">
+      <c r="DR14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DS14" t="n">
+      <c r="DU14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DT14" t="n">
+      <c r="DV14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DW14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DX14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DY14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DZ14" t="n">
         <v>50.88</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="EA14" t="n">
         <v>76.19</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EB14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EC14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="ED14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="EE14" t="n">
         <v>24.03</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EF14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EG14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EH14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EI14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EJ14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EK14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EL14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EM14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EL14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7735,15 +7865,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET14" t="n">
+      <c r="ET14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EU14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV14" t="inlineStr">
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8139,76 +8279,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR15" t="n">
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DS15" t="n">
+      <c r="DU15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DT15" t="n">
+      <c r="DV15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DW15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DX15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DY15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DZ15" t="n">
         <v>41.4</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="EA15" t="n">
         <v>68.2</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EB15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EC15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="ED15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="EE15" t="n">
         <v>16.5</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EF15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EG15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EH15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EI15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EJ15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EK15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EL15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EM15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EL15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8239,15 +8379,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET15" t="n">
+      <c r="ET15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EU15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV15" t="inlineStr">
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8643,76 +8793,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR16" t="n">
+      <c r="DR16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DS16" t="n">
+      <c r="DU16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DT16" t="n">
+      <c r="DV16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DW16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DX16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DY16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DZ16" t="n">
         <v>37.34</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="EA16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EB16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EC16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="ED16" t="n">
         <v>17</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="EE16" t="n">
         <v>6.2</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EF16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EG16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EH16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EI16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EJ16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EK16" t="n">
         <v>20</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EL16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EM16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EL16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8743,15 +8893,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET16" t="n">
+      <c r="ET16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EU16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV16" t="inlineStr">
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9147,76 +9307,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR17" t="n">
+      <c r="DR17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DS17" t="n">
+      <c r="DU17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DT17" t="n">
+      <c r="DV17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DW17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DX17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DY17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DZ17" t="n">
         <v>42.81</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="EA17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EB17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EC17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="ED17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="EE17" t="n">
         <v>1.72</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EF17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EG17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EH17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EI17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EJ17" t="n">
         <v>45</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EK17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EL17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EM17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EL17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9247,15 +9407,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET17" t="n">
+      <c r="ET17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EU17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV17" t="inlineStr">
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9651,76 +9821,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR18" t="n">
+      <c r="DR18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DS18" t="n">
+      <c r="DU18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DT18" t="n">
+      <c r="DV18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DW18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DX18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DY18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DZ18" t="n">
         <v>54.95</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="EA18" t="n">
         <v>66.84</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EB18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EC18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="ED18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="EE18" t="n">
         <v>7.24</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EF18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EG18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EH18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EI18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EJ18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EK18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EL18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EM18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EL18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9751,15 +9921,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET18" t="n">
+      <c r="ET18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EU18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV18" t="inlineStr">
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10155,76 +10335,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR19" t="n">
+      <c r="DR19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DS19" t="n">
+      <c r="DU19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DT19" t="n">
+      <c r="DV19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DW19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DX19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DY19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DZ19" t="n">
         <v>77.72</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="EA19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EB19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EC19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="ED19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="EE19" t="n">
         <v>34.42</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EF19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EG19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EH19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EI19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EJ19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EK19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EL19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EM19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EL19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10255,15 +10435,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET19" t="n">
+      <c r="ET19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EU19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV19" t="inlineStr">
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10659,76 +10849,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR20" t="n">
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DS20" t="n">
+      <c r="DU20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DT20" t="n">
+      <c r="DV20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DW20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DX20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DY20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DZ20" t="n">
         <v>114.86</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="EA20" t="n">
         <v>105.48</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EB20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EC20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="ED20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="EE20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EF20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EG20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EH20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EI20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EJ20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EK20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EL20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EM20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EL20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10759,15 +10949,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET20" t="n">
+      <c r="ET20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EU20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV20" t="inlineStr">
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11163,76 +11363,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR21" t="n">
+      <c r="DR21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DS21" t="n">
+      <c r="DU21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DT21" t="n">
+      <c r="DV21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DW21" t="n">
         <v>0</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DX21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DY21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DZ21" t="n">
         <v>154.52</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="EA21" t="n">
         <v>155.14</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EB21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EC21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="ED21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="EE21" t="n">
         <v>109.4</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EF21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EG21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EH21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EI21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EJ21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EK21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EL21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EM21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EL21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11263,15 +11463,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET21" t="n">
+      <c r="ET21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EU21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV21" t="inlineStr">
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11667,76 +11877,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR22" t="n">
+      <c r="DR22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DS22" t="n">
+      <c r="DU22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DT22" t="n">
+      <c r="DV22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DW22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DX22" t="n">
         <v>0</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DY22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DZ22" t="n">
         <v>145.48</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="EA22" t="n">
         <v>139.05</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EB22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EC22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="ED22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="EE22" t="n">
         <v>110.18</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EF22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EG22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EH22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EI22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EJ22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EK22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EL22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EM22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EL22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11767,15 +11977,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET22" t="n">
+      <c r="ET22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EU22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV22" t="inlineStr">
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12171,76 +12391,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR23" t="n">
+      <c r="DR23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DS23" t="n">
+      <c r="DU23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DT23" t="n">
+      <c r="DV23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DW23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DX23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DY23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DZ23" t="n">
         <v>123.24</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="EA23" t="n">
         <v>103.07</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EB23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EC23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="ED23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="EE23" t="n">
         <v>102.95</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EF23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EG23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EH23" t="n">
         <v>95</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EI23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EJ23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EK23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EL23" t="n">
         <v>49</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EM23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EL23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12271,15 +12491,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET23" t="n">
+      <c r="ET23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EU23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV23" t="inlineStr">
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12675,76 +12905,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR24" t="n">
+      <c r="DR24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DS24" t="n">
+      <c r="DU24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DT24" t="n">
+      <c r="DV24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DW24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DX24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DY24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DZ24" t="n">
         <v>107.42</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="EA24" t="n">
         <v>93.7</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EB24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EC24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="ED24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="EE24" t="n">
         <v>84.64</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EF24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EG24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EH24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EI24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EJ24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EK24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EL24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EM24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EL24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN24" t="inlineStr">
         <is>
           <t>-</t>
@@ -12775,15 +13005,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET24" t="n">
+      <c r="ET24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EU24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV24" t="inlineStr">
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13179,76 +13419,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DR25" t="n">
+      <c r="DR25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DS25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DT25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DS25" t="n">
+      <c r="DU25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DT25" t="n">
+      <c r="DV25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DW25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DX25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DY25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DZ25" t="n">
         <v>97.48</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="EA25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EB25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EC25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="ED25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="EE25" t="n">
         <v>80.88</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EF25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EG25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EH25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EI25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EJ25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EK25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EL25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EM25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EL25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EM25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EN25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13279,15 +13519,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ET25" t="n">
+      <c r="ET25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EU25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EV25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EU25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EV25" t="inlineStr">
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13304,7 +13554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14812,6 +15062,26 @@
       </c>
       <c r="B150" t="n">
         <v>29.33</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>29.305</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>29.305</v>
       </c>
     </row>
   </sheetData>
@@ -14825,7 +15095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16319,6 +16589,26 @@
         <v>80.72</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>80.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EX25"/>
+  <dimension ref="A1:EY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,155 +1053,160 @@
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
+          <t>19-nov</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1607,71 +1612,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT2" t="n">
+      <c r="DT2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DV2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>26.96</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>89.02</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>20</v>
       </c>
-      <c r="EN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1707,15 +1712,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV2" t="n">
+      <c r="EV2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2121,71 +2131,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT3" t="n">
+      <c r="DT3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DV3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>21.61</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2221,15 +2231,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV3" t="n">
+      <c r="EV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2635,71 +2650,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT4" t="n">
+      <c r="DT4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DV4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>16.38</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EN4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2735,15 +2750,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV4" t="n">
+      <c r="EV4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EW4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3149,71 +3169,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT5" t="n">
+      <c r="DT5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DV5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>15.9</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>72.95</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>30</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EN5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3249,15 +3269,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV5" t="n">
+      <c r="EV5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EW5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3663,71 +3688,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT6" t="n">
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DV6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>0</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>15.92</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>69.75</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EN6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3763,15 +3788,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV6" t="n">
+      <c r="EV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EW6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4177,71 +4207,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT7" t="n">
+      <c r="DT7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DV7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>0</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>20.9</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>78</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EN7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4277,15 +4307,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV7" t="n">
+      <c r="EV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EW7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4691,71 +4726,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT8" t="n">
+      <c r="DT8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DV8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>0</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>18.28</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>94.98</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EN8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4791,15 +4826,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV8" t="n">
+      <c r="EV8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EW8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5205,71 +5245,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT9" t="n">
+      <c r="DT9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DV9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>46.92</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>107.06</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EN9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5305,15 +5345,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV9" t="n">
+      <c r="EV9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EW9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5719,71 +5764,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT10" t="n">
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DV10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>91.58</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>121.48</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EN10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5819,15 +5864,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV10" t="n">
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EW10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6233,71 +6283,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT11" t="n">
+      <c r="DT11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DV11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>115.81</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>104.96</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EN11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6333,15 +6383,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV11" t="n">
+      <c r="EV11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EW11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6747,71 +6802,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT12" t="n">
+      <c r="DT12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DU12" t="n">
+      <c r="DV12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>124.76</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>103</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EN12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6847,15 +6902,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV12" t="n">
+      <c r="EV12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EW12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7261,71 +7321,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT13" t="n">
+      <c r="DT13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DU13" t="n">
+      <c r="DV13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>118.02</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>70.25</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EN13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7361,15 +7421,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV13" t="n">
+      <c r="EV13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EW13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7775,71 +7840,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT14" t="n">
+      <c r="DT14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DU14" t="n">
+      <c r="DV14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>97.73</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>73.55</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EN14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7875,15 +7940,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV14" t="n">
+      <c r="EV14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EW14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8289,71 +8359,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT15" t="n">
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DU15" t="n">
+      <c r="DV15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>62.72</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>43.57</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EN15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8389,15 +8459,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV15" t="n">
+      <c r="EV15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EW15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8803,71 +8878,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT16" t="n">
+      <c r="DT16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DU16" t="n">
+      <c r="DV16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>59.93</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>33.23</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>17</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>20</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EN16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8903,15 +8978,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV16" t="n">
+      <c r="EV16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EW16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9317,71 +9397,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT17" t="n">
+      <c r="DT17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DU17" t="n">
+      <c r="DV17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>58.24</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>45.71</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>45</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EN17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9417,15 +9497,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV17" t="n">
+      <c r="EV17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EW17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9831,71 +9916,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT18" t="n">
+      <c r="DT18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DU18" t="n">
+      <c r="DV18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>46.95</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>52.19</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EN18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO18" t="inlineStr">
         <is>
           <t>-</t>
@@ -9931,15 +10016,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV18" t="n">
+      <c r="EV18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EW18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10345,71 +10435,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT19" t="n">
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DU19" t="n">
+      <c r="DV19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>37.62</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>79.98</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EN19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10445,15 +10535,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV19" t="n">
+      <c r="EV19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EW19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10859,71 +10954,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT20" t="n">
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DU20" t="n">
+      <c r="DV20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>36.23</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>96.13</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EN20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO20" t="inlineStr">
         <is>
           <t>-</t>
@@ -10959,15 +11054,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV20" t="n">
+      <c r="EV20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EW20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11373,71 +11473,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT21" t="n">
+      <c r="DT21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DU21" t="n">
+      <c r="DV21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>0</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>41.36</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>115.01</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EN21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11473,15 +11573,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV21" t="n">
+      <c r="EV21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EW21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11887,71 +11992,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT22" t="n">
+      <c r="DT22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DU22" t="n">
+      <c r="DV22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>0</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>49.19</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>113.06</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EN22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO22" t="inlineStr">
         <is>
           <t>-</t>
@@ -11987,15 +12092,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV22" t="n">
+      <c r="EV22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EW22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12401,71 +12511,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT23" t="n">
+      <c r="DT23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DU23" t="n">
+      <c r="DV23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>63.01</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>93.08</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>95</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>49</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EN23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12501,15 +12611,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV23" t="n">
+      <c r="EV23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EW23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12915,71 +13030,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT24" t="n">
+      <c r="DT24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DU24" t="n">
+      <c r="DV24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>82.58</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>91.94</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EN24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13015,15 +13130,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV24" t="n">
+      <c r="EV24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EW24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13429,71 +13549,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DT25" t="n">
+      <c r="DT25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DU25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DU25" t="n">
+      <c r="DV25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>117.46</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>93.87</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EN25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EO25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13529,15 +13649,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EV25" t="n">
+      <c r="EV25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EW25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EW25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13554,7 +13679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15082,6 +15207,16 @@
       </c>
       <c r="B152" t="n">
         <v>29.305</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>30.395</v>
       </c>
     </row>
   </sheetData>
@@ -15095,7 +15230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16609,6 +16744,16 @@
         <v>80.72</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>79.68000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EY25"/>
+  <dimension ref="A1:EZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,155 +1058,160 @@
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
+          <t>20-nov</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1617,71 +1622,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU2" t="n">
+      <c r="DU2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DW2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>4.31</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>92.37</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>20</v>
       </c>
-      <c r="EO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1717,15 +1722,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW2" t="n">
+      <c r="EW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2136,71 +2146,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU3" t="n">
+      <c r="DU3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DW3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>1.63</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2236,15 +2246,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW3" t="n">
+      <c r="EW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2655,71 +2670,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU4" t="n">
+      <c r="DU4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DW4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>0.58</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>78.95</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EO4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2755,15 +2770,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW4" t="n">
+      <c r="EW4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EX4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3174,71 +3194,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU5" t="n">
+      <c r="DU5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DW5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>0.11</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>30</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EO5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3274,15 +3294,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW5" t="n">
+      <c r="EW5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EX5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3693,71 +3718,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU6" t="n">
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DW6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>0</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>65.58</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EO6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3793,15 +3818,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW6" t="n">
+      <c r="EW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EX6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4212,71 +4242,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU7" t="n">
+      <c r="DU7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DW7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>0</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>78</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>68.47</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EO7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4312,15 +4342,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW7" t="n">
+      <c r="EW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EX7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4731,71 +4766,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU8" t="n">
+      <c r="DU8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DW8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>0</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>85.78</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EO8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4831,15 +4866,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW8" t="n">
+      <c r="EW8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EX8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5250,71 +5290,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU9" t="n">
+      <c r="DU9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DW9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>101.88</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EO9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5350,15 +5390,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW9" t="n">
+      <c r="EW9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EX9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5769,71 +5814,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU10" t="n">
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DW10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>1.36</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>119.07</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EO10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5869,15 +5914,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW10" t="n">
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EX10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6288,71 +6338,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU11" t="n">
+      <c r="DU11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DW11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>3.78</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>111.04</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EO11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6388,15 +6438,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW11" t="n">
+      <c r="EW11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EX11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6807,71 +6862,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU12" t="n">
+      <c r="DU12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DV12" t="n">
+      <c r="DW12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>2.22</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>89.81</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>103</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EO12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6907,15 +6962,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW12" t="n">
+      <c r="EW12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EX12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7326,71 +7386,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU13" t="n">
+      <c r="DU13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DV13" t="n">
+      <c r="DW13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>3.14</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EO13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7426,15 +7486,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW13" t="n">
+      <c r="EW13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EX13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7845,71 +7910,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU14" t="n">
+      <c r="DU14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DV14" t="n">
+      <c r="DW14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>0.67</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EO14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP14" t="inlineStr">
         <is>
           <t>-</t>
@@ -7945,15 +8010,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW14" t="n">
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EX14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8364,71 +8434,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU15" t="n">
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DV15" t="n">
+      <c r="DW15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>48.38</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EO15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8464,15 +8534,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW15" t="n">
+      <c r="EW15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EX15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8883,71 +8958,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU16" t="n">
+      <c r="DU16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DV16" t="n">
+      <c r="DW16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>47.12</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>17</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>20</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EO16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP16" t="inlineStr">
         <is>
           <t>-</t>
@@ -8983,15 +9058,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW16" t="n">
+      <c r="EW16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EX16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9402,71 +9482,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU17" t="n">
+      <c r="DU17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DV17" t="n">
+      <c r="DW17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>41.3</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>45</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EO17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9502,15 +9582,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW17" t="n">
+      <c r="EW17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EX17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9921,71 +10006,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU18" t="n">
+      <c r="DU18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DV18" t="n">
+      <c r="DW18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>47.75</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EO18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10021,15 +10106,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW18" t="n">
+      <c r="EW18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EX18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10440,71 +10530,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU19" t="n">
+      <c r="DU19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DV19" t="n">
+      <c r="DW19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>67.14</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EO19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10540,15 +10630,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW19" t="n">
+      <c r="EW19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EX19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10959,71 +11054,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU20" t="n">
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DV20" t="n">
+      <c r="DW20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>101.1</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EO20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11059,15 +11154,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW20" t="n">
+      <c r="EW20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EX20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11478,71 +11578,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU21" t="n">
+      <c r="DU21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DV21" t="n">
+      <c r="DW21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>0</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>124.8</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EO21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11578,15 +11678,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW21" t="n">
+      <c r="EW21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EX21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11997,71 +12102,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU22" t="n">
+      <c r="DU22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DV22" t="n">
+      <c r="DW22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>0</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>114.46</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EO22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12097,15 +12202,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW22" t="n">
+      <c r="EW22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EX22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12516,71 +12626,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU23" t="n">
+      <c r="DU23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DV23" t="n">
+      <c r="DW23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>3.03</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>101.06</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>95</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>49</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EO23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12616,15 +12726,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW23" t="n">
+      <c r="EW23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EX23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13035,71 +13150,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU24" t="n">
+      <c r="DU24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DV24" t="n">
+      <c r="DW24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>16.58</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EO24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13135,15 +13250,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW24" t="n">
+      <c r="EW24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EX24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13554,71 +13674,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DU25" t="n">
+      <c r="DU25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DV25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DV25" t="n">
+      <c r="DW25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>34.34</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EO25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EP25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13654,15 +13774,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EW25" t="n">
+      <c r="EW25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EX25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EX25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13679,7 +13804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15217,6 +15342,16 @@
       </c>
       <c r="B153" t="n">
         <v>30.395</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>30.615</v>
       </c>
     </row>
   </sheetData>
@@ -15230,7 +15365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16754,6 +16889,16 @@
         <v>79.68000000000001</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>80.93000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ25"/>
+  <dimension ref="A1:FA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,155 +1063,160 @@
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
+          <t>21-nov</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1627,71 +1632,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV2" t="n">
+      <c r="DV2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DX2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>9.85</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>93.45</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>20</v>
       </c>
-      <c r="EP2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1727,15 +1732,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX2" t="n">
+      <c r="EX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2151,71 +2161,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV3" t="n">
+      <c r="DV3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DX3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>7.23</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>88.44</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EP3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2251,15 +2261,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX3" t="n">
+      <c r="EX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2675,71 +2690,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV4" t="n">
+      <c r="DV4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DX4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>2.9</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>87.56</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EP4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2775,15 +2790,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX4" t="n">
+      <c r="EX4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EY4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3199,71 +3219,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV5" t="n">
+      <c r="DV5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DX5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>0.79</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>81.16</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>30</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EP5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3299,15 +3319,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX5" t="n">
+      <c r="EX5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EY5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3723,71 +3748,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV6" t="n">
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DX6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>0</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>74.89</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EP6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3823,15 +3848,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX6" t="n">
+      <c r="EX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EY6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4247,71 +4277,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV7" t="n">
+      <c r="DV7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DX7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>0</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>78</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EP7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4347,15 +4377,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX7" t="n">
+      <c r="EX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EY7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4771,71 +4806,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV8" t="n">
+      <c r="DV8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DX8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>0</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EP8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4871,15 +4906,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX8" t="n">
+      <c r="EX8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EY8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5295,71 +5335,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV9" t="n">
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DX9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>125.5</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EP9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5395,15 +5435,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX9" t="n">
+      <c r="EX9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EY9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5819,71 +5864,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV10" t="n">
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DX10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>0.14</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>154.27</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EP10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5919,15 +5964,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX10" t="n">
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EY10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6343,71 +6393,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV11" t="n">
+      <c r="DV11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DX11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>1.85</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>109.85</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EP11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6443,15 +6493,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX11" t="n">
+      <c r="EX11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EY11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6867,71 +6922,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV12" t="n">
+      <c r="DV12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DW12" t="n">
+      <c r="DX12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>6.6</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>98.03</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>103</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EP12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ12" t="inlineStr">
         <is>
           <t>-</t>
@@ -6967,15 +7022,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX12" t="n">
+      <c r="EX12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EY12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7391,71 +7451,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV13" t="n">
+      <c r="DV13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DW13" t="n">
+      <c r="DX13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>11.46</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EP13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7491,15 +7551,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX13" t="n">
+      <c r="EX13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EY13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7915,71 +7980,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV14" t="n">
+      <c r="DV14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DW14" t="n">
+      <c r="DX14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>76.19</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EP14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8015,15 +8080,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX14" t="n">
+      <c r="EX14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EY14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8439,71 +8509,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV15" t="n">
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DW15" t="n">
+      <c r="DX15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>2.21</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>68.2</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EP15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8539,15 +8609,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX15" t="n">
+      <c r="EX15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EY15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8963,71 +9038,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV16" t="n">
+      <c r="DV16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DW16" t="n">
+      <c r="DX16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>0.04</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>17</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>20</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EP16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9063,15 +9138,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX16" t="n">
+      <c r="EX16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EY16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9487,71 +9567,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV17" t="n">
+      <c r="DV17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DW17" t="n">
+      <c r="DX17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>45</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EP17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9587,15 +9667,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX17" t="n">
+      <c r="EX17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EY17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10011,71 +10096,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV18" t="n">
+      <c r="DV18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DW18" t="n">
+      <c r="DX18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>66.84</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EP18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10111,15 +10196,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX18" t="n">
+      <c r="EX18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EY18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10535,71 +10625,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV19" t="n">
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DW19" t="n">
+      <c r="DX19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EP19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10635,15 +10725,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX19" t="n">
+      <c r="EX19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EY19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11059,71 +11154,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV20" t="n">
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DW20" t="n">
+      <c r="DX20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>105.48</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EP20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11159,15 +11254,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX20" t="n">
+      <c r="EX20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EY20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11583,71 +11683,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV21" t="n">
+      <c r="DV21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DW21" t="n">
+      <c r="DX21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>0</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>155.14</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EP21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11683,15 +11783,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX21" t="n">
+      <c r="EX21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EY21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12107,71 +12212,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV22" t="n">
+      <c r="DV22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DW22" t="n">
+      <c r="DX22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>0</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>139.05</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EP22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12207,15 +12312,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX22" t="n">
+      <c r="EX22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EY22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12631,71 +12741,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV23" t="n">
+      <c r="DV23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DW23" t="n">
+      <c r="DX23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>103.07</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>95</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>49</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EP23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12731,15 +12841,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX23" t="n">
+      <c r="EX23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EY23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13155,71 +13270,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV24" t="n">
+      <c r="DV24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DW24" t="n">
+      <c r="DX24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>1.64</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>93.7</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EP24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13255,15 +13370,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX24" t="n">
+      <c r="EX24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EY24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13679,71 +13799,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DV25" t="n">
+      <c r="DV25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DW25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DW25" t="n">
+      <c r="DX25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>16.57</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EP25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EQ25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13779,15 +13899,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EX25" t="n">
+      <c r="EX25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EY25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EY25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13804,7 +13929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15352,6 +15477,16 @@
       </c>
       <c r="B154" t="n">
         <v>30.615</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>29.925</v>
       </c>
     </row>
   </sheetData>
@@ -15365,7 +15500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16899,6 +17034,16 @@
         <v>80.93000000000001</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>80.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA25"/>
+  <dimension ref="A1:FB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1068,155 +1068,160 @@
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
+          <t>22-nov</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1637,71 +1642,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW2" t="n">
+      <c r="DW2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DY2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>32.65</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>88.77</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>20</v>
       </c>
-      <c r="EQ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1737,15 +1742,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY2" t="n">
+      <c r="EY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ2" t="n">
         <v>60.08</v>
       </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2166,71 +2176,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW3" t="n">
+      <c r="DW3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DY3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>36.09</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>89.47</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EQ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2266,15 +2276,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY3" t="n">
+      <c r="EY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ3" t="n">
         <v>54.76</v>
       </c>
-      <c r="EZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2695,71 +2710,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW4" t="n">
+      <c r="DW4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DY4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>34.49</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>75.66</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EQ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2795,15 +2810,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY4" t="n">
+      <c r="EY4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ4" t="n">
         <v>53.29</v>
       </c>
-      <c r="EZ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3224,71 +3244,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW5" t="n">
+      <c r="DW5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DY5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>25.68</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>30</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EQ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3324,15 +3344,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY5" t="n">
+      <c r="EY5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ5" t="n">
         <v>56.28</v>
       </c>
-      <c r="EZ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3753,71 +3778,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW6" t="n">
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DY6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>21.94</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>0</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>74.47</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EQ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3853,15 +3878,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY6" t="n">
+      <c r="EY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ6" t="n">
         <v>51.63</v>
       </c>
-      <c r="EZ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4282,71 +4312,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW7" t="n">
+      <c r="DW7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DY7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>19.01</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>0</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>78</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EQ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4382,15 +4412,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY7" t="n">
+      <c r="EY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ7" t="n">
         <v>57.36</v>
       </c>
-      <c r="EZ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4811,71 +4846,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW8" t="n">
+      <c r="DW8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DY8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>28.41</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>0</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>98.48</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EQ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4911,15 +4946,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY8" t="n">
+      <c r="EY8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ8" t="n">
         <v>84.92</v>
       </c>
-      <c r="EZ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5340,71 +5380,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW9" t="n">
+      <c r="DW9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DY9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>28.13</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>121.01</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EQ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5440,15 +5480,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY9" t="n">
+      <c r="EY9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ9" t="n">
         <v>103.69</v>
       </c>
-      <c r="EZ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5869,71 +5914,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW10" t="n">
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DY10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>65.41</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>132.31</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EQ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER10" t="inlineStr">
         <is>
           <t>-</t>
@@ -5969,15 +6014,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY10" t="n">
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ10" t="n">
         <v>99.3</v>
       </c>
-      <c r="EZ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6398,71 +6448,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW11" t="n">
+      <c r="DW11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DY11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>90.14</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>118.1</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EQ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6498,15 +6548,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY11" t="n">
+      <c r="EY11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="EZ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6927,71 +6982,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW12" t="n">
+      <c r="DW12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DX12" t="n">
+      <c r="DY12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>103.28</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>75.89</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>103</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EQ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7027,15 +7082,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY12" t="n">
+      <c r="EY12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ12" t="n">
         <v>74.28</v>
       </c>
-      <c r="EZ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7456,71 +7516,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW13" t="n">
+      <c r="DW13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DX13" t="n">
+      <c r="DY13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>99.3</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>51.76</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EQ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7556,15 +7616,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY13" t="n">
+      <c r="EY13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="EZ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7985,71 +8050,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW14" t="n">
+      <c r="DW14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DX14" t="n">
+      <c r="DY14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>76.89</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>50.88</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EQ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8085,15 +8150,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY14" t="n">
+      <c r="EY14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ14" t="n">
         <v>75.78</v>
       </c>
-      <c r="EZ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8514,71 +8584,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW15" t="n">
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DX15" t="n">
+      <c r="DY15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>58.94</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>41.4</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EQ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8614,15 +8684,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY15" t="n">
+      <c r="EY15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ15" t="n">
         <v>78.55</v>
       </c>
-      <c r="EZ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9043,71 +9118,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW16" t="n">
+      <c r="DW16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DX16" t="n">
+      <c r="DY16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>47.38</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>37.34</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>17</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>20</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EQ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9143,15 +9218,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY16" t="n">
+      <c r="EY16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ16" t="n">
         <v>86.59</v>
       </c>
-      <c r="EZ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9572,71 +9652,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW17" t="n">
+      <c r="DW17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DX17" t="n">
+      <c r="DY17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>41.79</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>42.81</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>45</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EQ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9672,15 +9752,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY17" t="n">
+      <c r="EY17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ17" t="n">
         <v>103.02</v>
       </c>
-      <c r="EZ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10101,71 +10186,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW18" t="n">
+      <c r="DW18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DX18" t="n">
+      <c r="DY18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>41.44</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>54.95</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EQ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10201,15 +10286,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY18" t="n">
+      <c r="EY18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ18" t="n">
         <v>101.8</v>
       </c>
-      <c r="EZ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10630,71 +10720,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW19" t="n">
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DX19" t="n">
+      <c r="DY19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>36.8</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>77.72</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EQ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10730,15 +10820,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY19" t="n">
+      <c r="EY19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ19" t="n">
         <v>111.12</v>
       </c>
-      <c r="EZ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11159,71 +11254,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW20" t="n">
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DX20" t="n">
+      <c r="DY20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>38.24</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>114.86</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EQ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11259,15 +11354,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY20" t="n">
+      <c r="EY20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ20" t="n">
         <v>129.93</v>
       </c>
-      <c r="EZ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11688,71 +11788,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW21" t="n">
+      <c r="DW21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DX21" t="n">
+      <c r="DY21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>39.56</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>0</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>154.52</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EQ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11788,15 +11888,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY21" t="n">
+      <c r="EY21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ21" t="n">
         <v>115.82</v>
       </c>
-      <c r="EZ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12217,71 +12322,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW22" t="n">
+      <c r="DW22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DX22" t="n">
+      <c r="DY22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>44.1</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>0</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>145.48</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EQ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12317,15 +12422,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY22" t="n">
+      <c r="EY22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ22" t="n">
         <v>99.05</v>
       </c>
-      <c r="EZ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12746,71 +12856,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW23" t="n">
+      <c r="DW23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DX23" t="n">
+      <c r="DY23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>49.54</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>123.24</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>95</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>49</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EQ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12846,15 +12956,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY23" t="n">
+      <c r="EY23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ23" t="n">
         <v>86.53</v>
       </c>
-      <c r="EZ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13275,71 +13390,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW24" t="n">
+      <c r="DW24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DX24" t="n">
+      <c r="DY24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>52.51</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>107.42</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EQ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13375,15 +13490,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY24" t="n">
+      <c r="EY24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ24" t="n">
         <v>82.34</v>
       </c>
-      <c r="EZ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13804,71 +13924,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DW25" t="n">
+      <c r="DW25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DX25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DX25" t="n">
+      <c r="DY25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>57.36</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>97.48</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EQ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ER25" t="inlineStr">
         <is>
           <t>-</t>
@@ -13904,15 +14024,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EY25" t="n">
+      <c r="EY25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EZ25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="EZ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13929,7 +14054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15487,6 +15612,16 @@
       </c>
       <c r="B155" t="n">
         <v>29.925</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>30.04</v>
       </c>
     </row>
   </sheetData>
@@ -15500,7 +15635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B155"/>
+  <dimension ref="A1:B156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17044,6 +17179,16 @@
         <v>80.34</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>80.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB25"/>
+  <dimension ref="A1:FC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,155 +1073,160 @@
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
+          <t>23-nov</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1647,71 +1652,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX2" t="n">
+      <c r="DX2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DZ2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>26.96</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>20</v>
       </c>
-      <c r="ER2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1747,15 +1752,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ2" t="n">
+      <c r="EZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2181,71 +2191,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX3" t="n">
+      <c r="DX3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DZ3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>21.61</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>11.59</v>
       </c>
-      <c r="ER3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2281,15 +2291,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ3" t="n">
+      <c r="EZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2715,71 +2730,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX4" t="n">
+      <c r="DX4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DZ4" t="n">
         <v>68.91</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>16.38</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>14.17</v>
       </c>
-      <c r="ER4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2815,15 +2830,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ4" t="n">
+      <c r="EZ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3249,71 +3269,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX5" t="n">
+      <c r="DX5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DZ5" t="n">
         <v>42.07</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>15.9</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>30</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>8.43</v>
       </c>
-      <c r="ER5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3349,15 +3369,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ5" t="n">
+      <c r="EZ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3783,71 +3808,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX6" t="n">
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DZ6" t="n">
         <v>25.05</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>0</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>15.92</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="ER6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3883,15 +3908,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ6" t="n">
+      <c r="EZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FA6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4317,71 +4347,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX7" t="n">
+      <c r="DX7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DZ7" t="n">
         <v>39.44</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>0</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>20.9</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>78</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>11.89</v>
       </c>
-      <c r="ER7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4417,15 +4447,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ7" t="n">
+      <c r="EZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FA7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4851,71 +4886,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX8" t="n">
+      <c r="DX8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DZ8" t="n">
         <v>55.25</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>0</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>18.28</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>51.1</v>
       </c>
-      <c r="ER8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4951,15 +4986,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ8" t="n">
+      <c r="EZ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FA8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5385,71 +5425,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX9" t="n">
+      <c r="DX9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DZ9" t="n">
         <v>70.3</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>46.92</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="ER9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5485,15 +5525,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ9" t="n">
+      <c r="EZ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FA9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5919,71 +5964,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX10" t="n">
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DZ10" t="n">
         <v>75.23</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>91.58</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="ER10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6019,15 +6064,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ10" t="n">
+      <c r="EZ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FA10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6453,71 +6503,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX11" t="n">
+      <c r="DX11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DZ11" t="n">
         <v>110.24</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>115.81</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>84.16</v>
       </c>
-      <c r="ER11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6553,15 +6603,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ11" t="n">
+      <c r="EZ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FA11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6987,71 +7042,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX12" t="n">
+      <c r="DX12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DY12" t="n">
+      <c r="DZ12" t="n">
         <v>122.97</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>124.76</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>103</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>38.46</v>
       </c>
-      <c r="ER12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7087,15 +7142,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ12" t="n">
+      <c r="EZ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FA12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7521,71 +7581,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX13" t="n">
+      <c r="DX13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DY13" t="n">
+      <c r="DZ13" t="n">
         <v>109.62</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>118.02</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>16.68</v>
       </c>
-      <c r="ER13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7621,15 +7681,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ13" t="n">
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FA13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8055,71 +8120,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX14" t="n">
+      <c r="DX14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="DZ14" t="n">
         <v>73.89</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>97.73</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>20.75</v>
       </c>
-      <c r="ER14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8155,15 +8220,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ14" t="n">
+      <c r="EZ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FA14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8589,71 +8659,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX15" t="n">
+      <c r="DX15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DY15" t="n">
+      <c r="DZ15" t="n">
         <v>48.64</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>62.72</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>7.88</v>
       </c>
-      <c r="ER15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8689,15 +8759,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ15" t="n">
+      <c r="EZ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9123,71 +9198,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX16" t="n">
+      <c r="DX16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="DZ16" t="n">
         <v>31.83</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>59.93</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>17</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>20</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>1.34</v>
       </c>
-      <c r="ER16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9223,15 +9298,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ16" t="n">
+      <c r="EZ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FA16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9657,71 +9737,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX17" t="n">
+      <c r="DX17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="DZ17" t="n">
         <v>22.1</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>58.24</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>45</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>0.28</v>
       </c>
-      <c r="ER17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9757,15 +9837,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ17" t="n">
+      <c r="EZ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FA17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10191,71 +10276,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX18" t="n">
+      <c r="DX18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="DZ18" t="n">
         <v>19.43</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>46.95</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>6.06</v>
       </c>
-      <c r="ER18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10291,15 +10376,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ18" t="n">
+      <c r="EZ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FA18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10725,71 +10815,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX19" t="n">
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="DZ19" t="n">
         <v>16.2</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>37.62</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>11.77</v>
       </c>
-      <c r="ER19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10825,15 +10915,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ19" t="n">
+      <c r="EZ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FA19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11259,71 +11354,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX20" t="n">
+      <c r="DX20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DY20" t="n">
+      <c r="DZ20" t="n">
         <v>16.25</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>36.23</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>40.14</v>
       </c>
-      <c r="ER20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11359,15 +11454,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ20" t="n">
+      <c r="EZ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FA20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11793,71 +11893,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX21" t="n">
+      <c r="DX21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="DZ21" t="n">
         <v>16.99</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>0</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>41.36</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>79.05</v>
       </c>
-      <c r="ER21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11893,15 +11993,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ21" t="n">
+      <c r="EZ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FA21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12327,71 +12432,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX22" t="n">
+      <c r="DX22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DY22" t="n">
+      <c r="DZ22" t="n">
         <v>31.89</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>0</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>49.19</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>64.13</v>
       </c>
-      <c r="ER22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12427,15 +12532,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ22" t="n">
+      <c r="EZ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FA22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12861,71 +12971,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX23" t="n">
+      <c r="DX23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DY23" t="n">
+      <c r="DZ23" t="n">
         <v>38.28</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>63.01</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>95</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>49</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>28.75</v>
       </c>
-      <c r="ER23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES23" t="inlineStr">
         <is>
           <t>-</t>
@@ -12961,15 +13071,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ23" t="n">
+      <c r="EZ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FA23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13395,71 +13510,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX24" t="n">
+      <c r="DX24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DY24" t="n">
+      <c r="DZ24" t="n">
         <v>55.38</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>82.58</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>46.08</v>
       </c>
-      <c r="ER24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13495,15 +13610,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ24" t="n">
+      <c r="EZ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FA24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13929,71 +14049,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DX25" t="n">
+      <c r="DX25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DY25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="DZ25" t="n">
         <v>94.09</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>117.46</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>46.64</v>
       </c>
-      <c r="ER25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ES25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14029,15 +14149,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EZ25" t="n">
+      <c r="EZ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FA25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FA25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14054,7 +14179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15622,6 +15747,16 @@
       </c>
       <c r="B156" t="n">
         <v>30.04</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>29.35</v>
       </c>
     </row>
   </sheetData>
@@ -15635,7 +15770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17189,6 +17324,16 @@
         <v>80.92</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>80.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC25"/>
+  <dimension ref="A1:FD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,155 +1078,160 @@
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
+          <t>24-nov</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1657,71 +1662,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY2" t="n">
+      <c r="DY2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ2" t="n">
         <v>79.53</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="EA2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EC2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>4.31</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>20</v>
       </c>
-      <c r="ES2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1757,15 +1762,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA2" t="n">
+      <c r="FA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2196,71 +2206,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY3" t="n">
+      <c r="DY3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ3" t="n">
         <v>79.98</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="EA3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EC3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>1.63</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>71.36</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>11.59</v>
       </c>
-      <c r="ES3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2296,15 +2306,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA3" t="n">
+      <c r="FA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2735,71 +2750,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY4" t="n">
+      <c r="DY4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ4" t="n">
         <v>66.95</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="EA4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EC4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>0.58</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>56.27</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>14.17</v>
       </c>
-      <c r="ES4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2835,15 +2850,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA4" t="n">
+      <c r="FA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FB4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3274,71 +3294,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY5" t="n">
+      <c r="DY5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ5" t="n">
         <v>37.05</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="EA5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EC5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>0.11</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>30</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>34.13</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>8.43</v>
       </c>
-      <c r="ES5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3374,15 +3394,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA5" t="n">
+      <c r="FA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3813,71 +3838,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY6" t="n">
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ6" t="n">
         <v>28.49</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="EA6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EC6" t="n">
         <v>0</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>30.47</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="ES6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3913,15 +3938,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA6" t="n">
+      <c r="FA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FB6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4352,71 +4382,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY7" t="n">
+      <c r="DY7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ7" t="n">
         <v>44.03</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="EA7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EC7" t="n">
         <v>0</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>78</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>23.79</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>11.89</v>
       </c>
-      <c r="ES7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4452,15 +4482,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA7" t="n">
+      <c r="FA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FB7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4891,71 +4926,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY8" t="n">
+      <c r="DY8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ8" t="n">
         <v>31.72</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="EA8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EC8" t="n">
         <v>0</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>27.92</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>51.1</v>
       </c>
-      <c r="ES8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET8" t="inlineStr">
         <is>
           <t>-</t>
@@ -4991,15 +5026,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA8" t="n">
+      <c r="FA8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5430,71 +5470,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY9" t="n">
+      <c r="DY9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ9" t="n">
         <v>40.07</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="EA9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EC9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>29.71</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="ES9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5530,15 +5570,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA9" t="n">
+      <c r="FA9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5969,71 +6014,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY10" t="n">
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ10" t="n">
         <v>73.56</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="EA10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EC10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>1.36</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>31.35</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="ES10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6069,15 +6114,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA10" t="n">
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6508,71 +6558,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY11" t="n">
+      <c r="DY11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ11" t="n">
         <v>106.73</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="EA11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EC11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>3.78</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>24.8</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>84.16</v>
       </c>
-      <c r="ES11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6608,15 +6658,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA11" t="n">
+      <c r="FA11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7047,71 +7102,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY12" t="n">
+      <c r="DY12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ12" t="n">
         <v>120.44</v>
       </c>
-      <c r="DZ12" t="n">
+      <c r="EA12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EB12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="EC12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>2.22</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>103</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>38.46</v>
       </c>
-      <c r="ES12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7147,15 +7202,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA12" t="n">
+      <c r="FA12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7586,71 +7646,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY13" t="n">
+      <c r="DY13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ13" t="n">
         <v>110.8</v>
       </c>
-      <c r="DZ13" t="n">
+      <c r="EA13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EB13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="EC13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>3.14</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>12.06</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>16.68</v>
       </c>
-      <c r="ES13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7686,15 +7746,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA13" t="n">
+      <c r="FA13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8125,71 +8190,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY14" t="n">
+      <c r="DY14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ14" t="n">
         <v>80.23</v>
       </c>
-      <c r="DZ14" t="n">
+      <c r="EA14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="EC14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>0.67</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>26.6</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>20.75</v>
       </c>
-      <c r="ES14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8225,15 +8290,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA14" t="n">
+      <c r="FA14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8664,71 +8734,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY15" t="n">
+      <c r="DY15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ15" t="n">
         <v>57.53</v>
       </c>
-      <c r="DZ15" t="n">
+      <c r="EA15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EB15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="EC15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>12.04</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>7.88</v>
       </c>
-      <c r="ES15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8764,15 +8834,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA15" t="n">
+      <c r="FA15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9203,71 +9278,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY16" t="n">
+      <c r="DY16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ16" t="n">
         <v>36.52</v>
       </c>
-      <c r="DZ16" t="n">
+      <c r="EA16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="EC16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>17</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>20</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>13.34</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>1.34</v>
       </c>
-      <c r="ES16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9303,15 +9378,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA16" t="n">
+      <c r="FA16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9742,71 +9822,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY17" t="n">
+      <c r="DY17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ17" t="n">
         <v>23.92</v>
       </c>
-      <c r="DZ17" t="n">
+      <c r="EA17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="EC17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>45</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>7.67</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>0.28</v>
       </c>
-      <c r="ES17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9842,15 +9922,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA17" t="n">
+      <c r="FA17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10281,71 +10366,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY18" t="n">
+      <c r="DY18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ18" t="n">
         <v>18.39</v>
       </c>
-      <c r="DZ18" t="n">
+      <c r="EA18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="EC18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>10.64</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>6.06</v>
       </c>
-      <c r="ES18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10381,15 +10466,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA18" t="n">
+      <c r="FA18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10820,71 +10910,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY19" t="n">
+      <c r="DY19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ19" t="n">
         <v>13.43</v>
       </c>
-      <c r="DZ19" t="n">
+      <c r="EA19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="EC19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>12.85</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>11.77</v>
       </c>
-      <c r="ES19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET19" t="inlineStr">
         <is>
           <t>-</t>
@@ -10920,15 +11010,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA19" t="n">
+      <c r="FA19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FB19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11359,71 +11454,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY20" t="n">
+      <c r="DY20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ20" t="n">
         <v>16.2</v>
       </c>
-      <c r="DZ20" t="n">
+      <c r="EA20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EB20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="EC20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>38.52</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>40.14</v>
       </c>
-      <c r="ES20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11459,15 +11554,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA20" t="n">
+      <c r="FA20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FB20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11898,71 +11998,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY21" t="n">
+      <c r="DY21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ21" t="n">
         <v>19.89</v>
       </c>
-      <c r="DZ21" t="n">
+      <c r="EA21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="EC21" t="n">
         <v>0</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>79.05</v>
       </c>
-      <c r="ES21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET21" t="inlineStr">
         <is>
           <t>-</t>
@@ -11998,15 +12098,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA21" t="n">
+      <c r="FA21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FB21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12437,71 +12542,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY22" t="n">
+      <c r="DY22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ22" t="n">
         <v>36.97</v>
       </c>
-      <c r="DZ22" t="n">
+      <c r="EA22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EB22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="EC22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>0</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>72.14</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>64.13</v>
       </c>
-      <c r="ES22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12537,15 +12642,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA22" t="n">
+      <c r="FA22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12976,71 +13086,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY23" t="n">
+      <c r="DY23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ23" t="n">
         <v>43.02</v>
       </c>
-      <c r="DZ23" t="n">
+      <c r="EA23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EB23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="EC23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>3.03</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>95</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>49</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>28.75</v>
       </c>
-      <c r="ES23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13076,15 +13186,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA23" t="n">
+      <c r="FA23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FB23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13515,71 +13630,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY24" t="n">
+      <c r="DY24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ24" t="n">
         <v>66.23</v>
       </c>
-      <c r="DZ24" t="n">
+      <c r="EA24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EB24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="EC24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>16.58</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>43.88</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>46.08</v>
       </c>
-      <c r="ES24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13615,15 +13730,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA24" t="n">
+      <c r="FA24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14054,71 +14174,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DY25" t="n">
+      <c r="DY25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="DZ25" t="n">
         <v>101.11</v>
       </c>
-      <c r="DZ25" t="n">
+      <c r="EA25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="EC25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>34.34</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>32.41</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>46.64</v>
       </c>
-      <c r="ES25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="ET25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14154,15 +14274,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FA25" t="n">
+      <c r="FA25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FB25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14179,7 +14304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15757,6 +15882,26 @@
       </c>
       <c r="B157" t="n">
         <v>29.35</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>29.2</v>
       </c>
     </row>
   </sheetData>
@@ -15770,7 +15915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17334,6 +17479,26 @@
         <v>80.28</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>80.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD25"/>
+  <dimension ref="A1:FF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,155 +1083,165 @@
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
+          <t>27-nov</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>28-nov</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1667,76 +1677,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ2" t="n">
+      <c r="DZ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EC2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="ED2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EE2" t="n">
         <v>9.85</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EF2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EG2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EH2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EI2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EJ2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EK2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EL2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EM2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EN2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EO2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EP2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EQ2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="ER2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ES2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ET2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="EU2" t="n">
         <v>20</v>
       </c>
-      <c r="ET2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1767,15 +1777,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB2" t="n">
+      <c r="FB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD2" t="inlineStr">
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2211,76 +2231,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ3" t="n">
+      <c r="DZ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EC3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="ED3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EE3" t="n">
         <v>7.23</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EF3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EG3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EH3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EI3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EJ3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EK3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EL3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EM3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EN3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EO3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EP3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EQ3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="ER3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ES3" t="n">
         <v>91.59</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ET3" t="n">
         <v>71.36</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="EU3" t="n">
         <v>11.59</v>
       </c>
-      <c r="ET3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2311,15 +2331,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB3" t="n">
+      <c r="FB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD3" t="inlineStr">
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2755,76 +2785,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ4" t="n">
+      <c r="DZ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EC4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="ED4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EE4" t="n">
         <v>2.9</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EF4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EG4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EH4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EI4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EJ4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EK4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EL4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EM4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EN4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EO4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EP4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EQ4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="ER4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ES4" t="n">
         <v>90.23</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ET4" t="n">
         <v>56.27</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="EU4" t="n">
         <v>14.17</v>
       </c>
-      <c r="ET4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2855,15 +2885,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB4" t="n">
+      <c r="FB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD4" t="inlineStr">
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3299,76 +3339,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ5" t="n">
+      <c r="DZ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EC5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="ED5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EE5" t="n">
         <v>0.79</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EF5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EG5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EH5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EI5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EJ5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EK5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EL5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EM5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EN5" t="n">
         <v>30</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EO5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EP5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EQ5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="ER5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ES5" t="n">
         <v>82.64</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ET5" t="n">
         <v>34.13</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="EU5" t="n">
         <v>8.43</v>
       </c>
-      <c r="ET5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3399,15 +3439,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB5" t="n">
+      <c r="FB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD5" t="inlineStr">
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3843,76 +3893,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ6" t="n">
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EC6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="ED6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EE6" t="n">
         <v>0</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EF6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EG6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EH6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EI6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EJ6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EK6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EL6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EM6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EN6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EO6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EP6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EQ6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="ER6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ES6" t="n">
         <v>74.88</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ET6" t="n">
         <v>30.47</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="EU6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="ET6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV6" t="inlineStr">
         <is>
           <t>-</t>
@@ -3943,15 +3993,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB6" t="n">
+      <c r="FB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FC6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD6" t="inlineStr">
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4387,76 +4447,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ7" t="n">
+      <c r="DZ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EC7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="ED7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EE7" t="n">
         <v>0</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EF7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EG7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EH7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EI7" t="n">
         <v>78</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EJ7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EK7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EL7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EM7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EN7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EO7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EP7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EQ7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="ER7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ES7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ET7" t="n">
         <v>23.79</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="EU7" t="n">
         <v>11.89</v>
       </c>
-      <c r="ET7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4487,15 +4547,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB7" t="n">
+      <c r="FB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FC7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD7" t="inlineStr">
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4931,76 +5001,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ8" t="n">
+      <c r="DZ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EC8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="ED8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EE8" t="n">
         <v>0</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EF8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EG8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EH8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EI8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EJ8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EK8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EL8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EM8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EN8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EO8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EP8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EQ8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="ER8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ES8" t="n">
         <v>80.84</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ET8" t="n">
         <v>27.92</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="EU8" t="n">
         <v>51.1</v>
       </c>
-      <c r="ET8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5031,15 +5101,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB8" t="n">
+      <c r="FB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FC8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD8" t="inlineStr">
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5475,76 +5555,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ9" t="n">
+      <c r="DZ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EC9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="ED9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EE9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EF9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EG9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EH9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EI9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EJ9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EK9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EL9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EM9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EN9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EO9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EP9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EQ9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="ER9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ES9" t="n">
         <v>98.08</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ET9" t="n">
         <v>29.71</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="EU9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="ET9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5575,15 +5655,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB9" t="n">
+      <c r="FB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FC9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD9" t="inlineStr">
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6019,76 +6109,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ10" t="n">
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EC10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="ED10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EE10" t="n">
         <v>0.14</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EF10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EG10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EH10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EI10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EJ10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EK10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EL10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EM10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EN10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EO10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EP10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EQ10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="ER10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ES10" t="n">
         <v>112.47</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ET10" t="n">
         <v>31.35</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="EU10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="ET10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6119,15 +6209,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB10" t="n">
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD10" t="inlineStr">
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6563,76 +6663,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ11" t="n">
+      <c r="DZ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EC11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="ED11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EE11" t="n">
         <v>1.85</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EF11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EG11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EH11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EI11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EJ11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EK11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EL11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EM11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EN11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EO11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EP11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EQ11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="ER11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ES11" t="n">
         <v>99.89</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ET11" t="n">
         <v>24.8</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="EU11" t="n">
         <v>84.16</v>
       </c>
-      <c r="ET11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6663,15 +6763,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB11" t="n">
+      <c r="FB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FC11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD11" t="inlineStr">
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7107,76 +7217,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ12" t="n">
+      <c r="DZ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EC12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="ED12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="EE12" t="n">
         <v>6.6</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EF12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EG12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EH12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EI12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EJ12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EK12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EL12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EM12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EN12" t="n">
         <v>103</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EO12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EP12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EQ12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="ER12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ES12" t="n">
         <v>75.37</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ET12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="EU12" t="n">
         <v>38.46</v>
       </c>
-      <c r="ET12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7207,15 +7317,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB12" t="n">
+      <c r="FB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD12" t="inlineStr">
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7651,76 +7771,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ13" t="n">
+      <c r="DZ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EC13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="ED13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="EE13" t="n">
         <v>11.46</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EF13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EG13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EH13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EI13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EJ13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EK13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EL13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EM13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EN13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EO13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EP13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EQ13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="ER13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ES13" t="n">
         <v>39.52</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ET13" t="n">
         <v>12.06</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="EU13" t="n">
         <v>16.68</v>
       </c>
-      <c r="ET13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7751,15 +7871,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB13" t="n">
+      <c r="FB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD13" t="inlineStr">
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8195,76 +8325,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ14" t="n">
+      <c r="DZ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EA14" t="n">
+      <c r="EC14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="ED14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="EE14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EF14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EG14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EH14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EI14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EJ14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EK14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EL14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EM14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EN14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EO14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EP14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EQ14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="ER14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ES14" t="n">
         <v>39.27</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ET14" t="n">
         <v>26.6</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="EU14" t="n">
         <v>20.75</v>
       </c>
-      <c r="ET14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8295,15 +8425,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB14" t="n">
+      <c r="FB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD14" t="inlineStr">
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8739,76 +8879,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ15" t="n">
+      <c r="DZ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EC15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="ED15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="EE15" t="n">
         <v>2.21</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EF15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EG15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EH15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EI15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EJ15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EK15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EL15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EM15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EN15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EO15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EP15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EQ15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="ER15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ES15" t="n">
         <v>24.24</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ET15" t="n">
         <v>12.04</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="EU15" t="n">
         <v>7.88</v>
       </c>
-      <c r="ET15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8839,15 +8979,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB15" t="n">
+      <c r="FB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FC15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD15" t="inlineStr">
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9283,76 +9433,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ16" t="n">
+      <c r="DZ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EA16" t="n">
+      <c r="EC16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="ED16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="EE16" t="n">
         <v>0.04</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EF16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EG16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EH16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EI16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EJ16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EK16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EL16" t="n">
         <v>17</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EM16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EN16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EO16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EP16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EQ16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="ER16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ES16" t="n">
         <v>20</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ET16" t="n">
         <v>13.34</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="EU16" t="n">
         <v>1.34</v>
       </c>
-      <c r="ET16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9383,15 +9533,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB16" t="n">
+      <c r="FB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FC16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD16" t="inlineStr">
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9827,76 +9987,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ17" t="n">
+      <c r="DZ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EA17" t="n">
+      <c r="EC17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="ED17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="EE17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EF17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EG17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EH17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EI17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EJ17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EK17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EL17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EM17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EN17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EO17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EP17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EQ17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="ER17" t="n">
         <v>45</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ES17" t="n">
         <v>20.62</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ET17" t="n">
         <v>7.67</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="EU17" t="n">
         <v>0.28</v>
       </c>
-      <c r="ET17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV17" t="inlineStr">
         <is>
           <t>-</t>
@@ -9927,15 +10087,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB17" t="n">
+      <c r="FB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FC17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD17" t="inlineStr">
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10371,76 +10541,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ18" t="n">
+      <c r="DZ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EA18" t="n">
+      <c r="EC18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="ED18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="EE18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EF18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EG18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EH18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EI18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EJ18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EK18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EL18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EM18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EN18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EO18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EP18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EQ18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="ER18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ES18" t="n">
         <v>30.05</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ET18" t="n">
         <v>10.64</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="EU18" t="n">
         <v>6.06</v>
       </c>
-      <c r="ET18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10471,15 +10641,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB18" t="n">
+      <c r="FB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FC18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD18" t="inlineStr">
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10915,76 +11095,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ19" t="n">
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EA19" t="n">
+      <c r="EC19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="ED19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="EE19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EF19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EG19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EH19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EI19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EJ19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EK19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EL19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EM19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EN19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EO19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EP19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EQ19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="ER19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ES19" t="n">
         <v>68.13</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ET19" t="n">
         <v>12.85</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="EU19" t="n">
         <v>11.77</v>
       </c>
-      <c r="ET19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11015,15 +11195,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB19" t="n">
+      <c r="FB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FC19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD19" t="inlineStr">
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11459,76 +11649,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ20" t="n">
+      <c r="DZ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EC20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="ED20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="EE20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EF20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EG20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EH20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EI20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EJ20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EK20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EL20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EM20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EN20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EO20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EP20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EQ20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="ER20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ES20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ET20" t="n">
         <v>38.52</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="EU20" t="n">
         <v>40.14</v>
       </c>
-      <c r="ET20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11559,15 +11749,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB20" t="n">
+      <c r="FB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FC20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD20" t="inlineStr">
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12003,76 +12203,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ21" t="n">
+      <c r="DZ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EA21" t="n">
+      <c r="EC21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="ED21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="EE21" t="n">
         <v>0</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EF21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EG21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EH21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EI21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EJ21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EK21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EL21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EM21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EN21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EO21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EP21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EQ21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="ER21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ES21" t="n">
         <v>117.97</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ET21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="EU21" t="n">
         <v>79.05</v>
       </c>
-      <c r="ET21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12103,15 +12303,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB21" t="n">
+      <c r="FB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FC21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD21" t="inlineStr">
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12547,76 +12757,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ22" t="n">
+      <c r="DZ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EA22" t="n">
+      <c r="EC22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="ED22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="EE22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EF22" t="n">
         <v>0</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EG22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EH22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EI22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EJ22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EK22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EL22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EM22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EN22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EO22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EP22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EQ22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="ER22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ES22" t="n">
         <v>102.6</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ET22" t="n">
         <v>72.14</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="EU22" t="n">
         <v>64.13</v>
       </c>
-      <c r="ET22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12647,15 +12857,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB22" t="n">
+      <c r="FB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FC22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD22" t="inlineStr">
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13091,76 +13311,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ23" t="n">
+      <c r="DZ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EA23" t="n">
+      <c r="EC23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="ED23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="EE23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EF23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EG23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EH23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EI23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EJ23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EK23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EL23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EM23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EN23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EO23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EP23" t="n">
         <v>95</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EQ23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="ER23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ES23" t="n">
         <v>93.59</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ET23" t="n">
         <v>49</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="EU23" t="n">
         <v>28.75</v>
       </c>
-      <c r="ET23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13191,15 +13411,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB23" t="n">
+      <c r="FB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FC23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD23" t="inlineStr">
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13635,76 +13865,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ24" t="n">
+      <c r="DZ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EC24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="ED24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="EE24" t="n">
         <v>1.64</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EF24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EG24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EH24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EI24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EJ24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EK24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EL24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EM24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EN24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EO24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EP24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EQ24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="ER24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ES24" t="n">
         <v>95.98</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ET24" t="n">
         <v>43.88</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="EU24" t="n">
         <v>46.08</v>
       </c>
-      <c r="ET24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13735,15 +13965,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB24" t="n">
+      <c r="FB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FC24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD24" t="inlineStr">
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14179,76 +14419,76 @@
           <t>-</t>
         </is>
       </c>
-      <c r="DZ25" t="n">
+      <c r="DZ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EA25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EB25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EA25" t="n">
+      <c r="EC25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="ED25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="EE25" t="n">
         <v>16.57</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EF25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EG25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EH25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EI25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EJ25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EK25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EL25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EM25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EN25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EO25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EP25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EQ25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="ER25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ES25" t="n">
         <v>94.38</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ET25" t="n">
         <v>32.41</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="EU25" t="n">
         <v>46.64</v>
       </c>
-      <c r="ET25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="EU25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EV25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14279,15 +14519,25 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FB25" t="n">
+      <c r="FB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FD25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FC25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="FD25" t="inlineStr">
+      <c r="FE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14304,7 +14554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15902,6 +16152,26 @@
       </c>
       <c r="B159" t="n">
         <v>29.2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>28.105</v>
       </c>
     </row>
   </sheetData>
@@ -15915,7 +16185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17499,6 +17769,26 @@
         <v>80.28</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF25"/>
+  <dimension ref="A1:FG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,155 +1093,160 @@
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
+          <t>29-nov</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1687,71 +1692,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB2" t="n">
+      <c r="EB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="ED2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>87.22</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>20</v>
       </c>
-      <c r="EV2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1787,15 +1792,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD2" t="n">
+      <c r="FD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2241,71 +2251,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB3" t="n">
+      <c r="EB3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="ED3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>68.39</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>74.13</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>91.59</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EV3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2341,15 +2351,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD3" t="n">
+      <c r="FD3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2795,71 +2810,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB4" t="n">
+      <c r="EB4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="ED4" t="n">
         <v>68.91</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>72.61</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>90.23</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EV4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2895,15 +2910,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD4" t="n">
+      <c r="FD4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FE4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3349,71 +3369,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB5" t="n">
+      <c r="EB5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="ED5" t="n">
         <v>42.07</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>30</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>60.65</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>80.75</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>82.64</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EV5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3449,15 +3469,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD5" t="n">
+      <c r="FD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3903,71 +3928,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB6" t="n">
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="ED6" t="n">
         <v>25.05</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>0</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>55.2</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>75.38</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>74.88</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EV6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4003,15 +4028,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD6" t="n">
+      <c r="FD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FE6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4457,71 +4487,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB7" t="n">
+      <c r="EB7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="ED7" t="n">
         <v>39.44</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>0</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>78</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EV7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4557,15 +4587,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD7" t="n">
+      <c r="FD7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FE7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5011,71 +5046,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB8" t="n">
+      <c r="EB8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="ED8" t="n">
         <v>55.25</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>0</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>86.61</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>91.91</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>80.84</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EV8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5111,15 +5146,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD8" t="n">
+      <c r="FD8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FE8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5565,71 +5605,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB9" t="n">
+      <c r="EB9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="ED9" t="n">
         <v>70.3</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>107.23</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>117.17</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>98.08</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EV9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5665,15 +5705,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD9" t="n">
+      <c r="FD9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FE9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6119,71 +6164,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB10" t="n">
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="ED10" t="n">
         <v>75.23</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>133.02</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>140.25</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>112.47</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EV10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6219,15 +6264,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD10" t="n">
+      <c r="FD10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FE10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6673,71 +6723,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB11" t="n">
+      <c r="EB11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="ED11" t="n">
         <v>110.24</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>112.33</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>129.02</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>99.89</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EV11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6773,15 +6823,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD11" t="n">
+      <c r="FD11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FE11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7227,71 +7282,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB12" t="n">
+      <c r="EB12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EC12" t="n">
+      <c r="ED12" t="n">
         <v>122.97</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>103</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>99.38</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>75.37</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EV12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7327,15 +7382,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD12" t="n">
+      <c r="FD12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FE12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7781,71 +7841,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB13" t="n">
+      <c r="EB13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EC13" t="n">
+      <c r="ED13" t="n">
         <v>109.62</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>80.31</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>84.42</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>39.52</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EV13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7881,15 +7941,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD13" t="n">
+      <c r="FD13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FE13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8335,71 +8400,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB14" t="n">
+      <c r="EB14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EC14" t="n">
+      <c r="ED14" t="n">
         <v>73.89</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>69.84</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>76.58</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>39.27</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EV14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8435,15 +8500,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD14" t="n">
+      <c r="FD14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FE14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8889,71 +8959,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB15" t="n">
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EC15" t="n">
+      <c r="ED15" t="n">
         <v>48.64</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>56.4</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>59.14</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>24.24</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EV15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW15" t="inlineStr">
         <is>
           <t>-</t>
@@ -8989,15 +9059,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD15" t="n">
+      <c r="FD15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FE15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9443,71 +9518,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB16" t="n">
+      <c r="EB16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EC16" t="n">
+      <c r="ED16" t="n">
         <v>31.83</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>17</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>63.8</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>48.39</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>20</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EV16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9543,15 +9618,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD16" t="n">
+      <c r="FD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FE16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9997,71 +10077,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB17" t="n">
+      <c r="EB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EC17" t="n">
+      <c r="ED17" t="n">
         <v>22.1</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>45</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>20.62</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EV17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10097,15 +10177,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD17" t="n">
+      <c r="FD17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FE17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10551,71 +10636,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB18" t="n">
+      <c r="EB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EC18" t="n">
+      <c r="ED18" t="n">
         <v>19.43</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>73.69</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>57.8</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>30.05</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EV18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10651,15 +10736,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD18" t="n">
+      <c r="FD18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FE18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11105,71 +11195,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB19" t="n">
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EC19" t="n">
+      <c r="ED19" t="n">
         <v>16.2</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>84.5</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>68.13</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EV19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11205,15 +11295,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD19" t="n">
+      <c r="FD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FE19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11659,71 +11754,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB20" t="n">
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EC20" t="n">
+      <c r="ED20" t="n">
         <v>16.25</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>116.71</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>120.75</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EV20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11759,15 +11854,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD20" t="n">
+      <c r="FD20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FE20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12213,71 +12313,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB21" t="n">
+      <c r="EB21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EC21" t="n">
+      <c r="ED21" t="n">
         <v>16.99</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>0</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>142.33</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>133.47</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>117.97</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EV21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12313,15 +12413,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD21" t="n">
+      <c r="FD21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FE21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12767,71 +12872,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB22" t="n">
+      <c r="EB22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EC22" t="n">
+      <c r="ED22" t="n">
         <v>31.89</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>0</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>117.2</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>116.57</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>102.6</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EV22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12867,15 +12972,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD22" t="n">
+      <c r="FD22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FE22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13321,71 +13431,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB23" t="n">
+      <c r="EB23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EC23" t="n">
+      <c r="ED23" t="n">
         <v>38.28</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>95</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>96.52</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>105.43</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>93.59</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>49</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EV23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13421,15 +13531,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD23" t="n">
+      <c r="FD23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FE23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13875,71 +13990,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB24" t="n">
+      <c r="EB24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EC24" t="n">
+      <c r="ED24" t="n">
         <v>55.38</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>103.33</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>95.98</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EV24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW24" t="inlineStr">
         <is>
           <t>-</t>
@@ -13975,15 +14090,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD24" t="n">
+      <c r="FD24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FE24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14429,71 +14549,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EB25" t="n">
+      <c r="EB25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EC25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EC25" t="n">
+      <c r="ED25" t="n">
         <v>94.09</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>94.38</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EV25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EW25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14529,15 +14649,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FD25" t="n">
+      <c r="FD25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FE25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FE25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14554,7 +14679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16172,6 +16297,16 @@
       </c>
       <c r="B161" t="n">
         <v>28.105</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>27.875</v>
       </c>
     </row>
   </sheetData>
@@ -16185,7 +16320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17789,6 +17924,16 @@
         <v>81.40000000000001</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>82.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG25"/>
+  <dimension ref="A1:FH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,155 +1098,160 @@
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
+          <t>30-nov</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1697,71 +1702,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC2" t="n">
+      <c r="EC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED2" t="n">
         <v>79.53</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="EE2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>87.22</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>20</v>
       </c>
-      <c r="EW2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1797,15 +1802,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE2" t="n">
+      <c r="FE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2256,71 +2266,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC3" t="n">
+      <c r="EC3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED3" t="n">
         <v>79.98</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="EE3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>76.81</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>68.39</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>74.13</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EW3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2356,15 +2366,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE3" t="n">
+      <c r="FE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2815,71 +2830,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC4" t="n">
+      <c r="EC4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED4" t="n">
         <v>66.95</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="EE4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>72.61</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EW4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2915,15 +2930,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE4" t="n">
+      <c r="FE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FF4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3374,71 +3394,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC5" t="n">
+      <c r="EC5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED5" t="n">
         <v>37.05</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="EE5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>30</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>60.65</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>80.75</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EW5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3474,15 +3494,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE5" t="n">
+      <c r="FE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FF5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3933,71 +3958,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC6" t="n">
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED6" t="n">
         <v>28.49</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="EE6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>0</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>64.86</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>55.2</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>75.38</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EW6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4033,15 +4058,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE6" t="n">
+      <c r="FE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FF6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4492,71 +4522,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC7" t="n">
+      <c r="EC7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED7" t="n">
         <v>44.03</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="EE7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>0</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>78</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EW7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4592,15 +4622,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE7" t="n">
+      <c r="FE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FF7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5051,71 +5086,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC8" t="n">
+      <c r="EC8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED8" t="n">
         <v>31.72</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="EE8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>0</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>86.61</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>91.91</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EW8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5151,15 +5186,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE8" t="n">
+      <c r="FE8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FF8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5610,71 +5650,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC9" t="n">
+      <c r="EC9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED9" t="n">
         <v>40.07</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="EE9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>109.77</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>107.23</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>117.17</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EW9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5710,15 +5750,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE9" t="n">
+      <c r="FE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FF9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6169,71 +6214,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC10" t="n">
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED10" t="n">
         <v>73.56</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="EE10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>143.1</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>133.02</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>140.25</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EW10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6269,15 +6314,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE10" t="n">
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FF10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6728,71 +6778,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC11" t="n">
+      <c r="EC11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED11" t="n">
         <v>106.73</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="EE11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>120.53</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>112.33</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>129.02</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EW11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6828,15 +6878,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE11" t="n">
+      <c r="FE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FF11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7287,71 +7342,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC12" t="n">
+      <c r="EC12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED12" t="n">
         <v>120.44</v>
       </c>
-      <c r="ED12" t="n">
+      <c r="EE12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>103</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>99.66</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>99.38</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EW12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7387,15 +7442,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE12" t="n">
+      <c r="FE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FF12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7846,71 +7906,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC13" t="n">
+      <c r="EC13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED13" t="n">
         <v>110.8</v>
       </c>
-      <c r="ED13" t="n">
+      <c r="EE13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>84.62</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>80.31</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>84.42</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EW13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX13" t="inlineStr">
         <is>
           <t>-</t>
@@ -7946,15 +8006,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE13" t="n">
+      <c r="FE13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FF13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8405,71 +8470,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC14" t="n">
+      <c r="EC14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED14" t="n">
         <v>80.23</v>
       </c>
-      <c r="ED14" t="n">
+      <c r="EE14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>73.02</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>69.84</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>76.58</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EW14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8505,15 +8570,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE14" t="n">
+      <c r="FE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FF14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8964,71 +9034,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC15" t="n">
+      <c r="EC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED15" t="n">
         <v>57.53</v>
       </c>
-      <c r="ED15" t="n">
+      <c r="EE15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>61.75</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>56.4</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>59.14</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EW15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9064,15 +9134,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE15" t="n">
+      <c r="FE15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FF15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9523,71 +9598,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC16" t="n">
+      <c r="EC16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED16" t="n">
         <v>36.52</v>
       </c>
-      <c r="ED16" t="n">
+      <c r="EE16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>17</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>45.72</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>63.8</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>48.39</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>20</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EW16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9623,15 +9698,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE16" t="n">
+      <c r="FE16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FF16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10082,71 +10162,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC17" t="n">
+      <c r="EC17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED17" t="n">
         <v>23.92</v>
       </c>
-      <c r="ED17" t="n">
+      <c r="EE17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>59.64</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>45</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EW17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10182,15 +10262,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE17" t="n">
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FF17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10641,71 +10726,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC18" t="n">
+      <c r="EC18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED18" t="n">
         <v>18.39</v>
       </c>
-      <c r="ED18" t="n">
+      <c r="EE18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>73.42</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>73.69</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>57.8</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EW18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10741,15 +10826,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE18" t="n">
+      <c r="FE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FF18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11200,71 +11290,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC19" t="n">
+      <c r="EC19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED19" t="n">
         <v>13.43</v>
       </c>
-      <c r="ED19" t="n">
+      <c r="EE19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>84.5</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EW19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11300,15 +11390,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE19" t="n">
+      <c r="FE19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FF19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11759,71 +11854,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC20" t="n">
+      <c r="EC20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED20" t="n">
         <v>16.2</v>
       </c>
-      <c r="ED20" t="n">
+      <c r="EE20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>116.88</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>116.71</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>120.75</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EW20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11859,15 +11954,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE20" t="n">
+      <c r="FE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FF20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12318,71 +12418,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC21" t="n">
+      <c r="EC21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED21" t="n">
         <v>19.89</v>
       </c>
-      <c r="ED21" t="n">
+      <c r="EE21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>0</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>156.52</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>142.33</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>133.47</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EW21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12418,15 +12518,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE21" t="n">
+      <c r="FE21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FF21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12877,71 +12982,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC22" t="n">
+      <c r="EC22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED22" t="n">
         <v>36.97</v>
       </c>
-      <c r="ED22" t="n">
+      <c r="EE22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>0</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>127.41</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>117.2</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>116.57</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EW22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX22" t="inlineStr">
         <is>
           <t>-</t>
@@ -12977,15 +13082,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE22" t="n">
+      <c r="FE22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FF22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13436,71 +13546,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC23" t="n">
+      <c r="EC23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED23" t="n">
         <v>43.02</v>
       </c>
-      <c r="ED23" t="n">
+      <c r="EE23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>95</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>96.52</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>105.43</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>49</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EW23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13536,15 +13646,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE23" t="n">
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FF23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13995,71 +14110,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC24" t="n">
+      <c r="EC24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED24" t="n">
         <v>66.23</v>
       </c>
-      <c r="ED24" t="n">
+      <c r="EE24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>93.13</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>103.33</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EW24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14095,15 +14210,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE24" t="n">
+      <c r="FE24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FF24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14554,71 +14674,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EC25" t="n">
+      <c r="EC25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="ED25" t="n">
         <v>101.11</v>
       </c>
-      <c r="ED25" t="n">
+      <c r="EE25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>88.28</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EW25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EX25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14654,15 +14774,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FE25" t="n">
+      <c r="FE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FF25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FF25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14679,7 +14804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16307,6 +16432,16 @@
       </c>
       <c r="B162" t="n">
         <v>27.875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
@@ -16320,7 +16455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17934,6 +18069,14 @@
         <v>82.3</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH25"/>
+  <dimension ref="A1:FI25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,155 +1103,160 @@
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
+          <t>01-dec</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1707,71 +1712,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED2" t="n">
+      <c r="ED2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EF2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>97.44</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>20</v>
       </c>
-      <c r="EX2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1807,15 +1812,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF2" t="n">
+      <c r="FF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FG2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2271,71 +2281,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED3" t="n">
+      <c r="ED3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EF3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>89.62</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>76.81</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>68.39</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EX3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2371,15 +2381,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF3" t="n">
+      <c r="FF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FG3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2835,71 +2850,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED4" t="n">
+      <c r="ED4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EF4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>84.27</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>72.61</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EX4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2935,15 +2950,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF4" t="n">
+      <c r="FF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FG4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3399,71 +3419,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED5" t="n">
+      <c r="ED5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EF5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>30</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>73.38</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>60.65</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EX5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3499,15 +3519,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF5" t="n">
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FG5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3963,71 +3988,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED6" t="n">
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EF6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>0</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>69.58</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>64.86</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>55.2</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EX6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4063,15 +4088,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF6" t="n">
+      <c r="FF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FG6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4527,71 +4557,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED7" t="n">
+      <c r="ED7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EF7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>0</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>78</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>75.73</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EX7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4627,15 +4657,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF7" t="n">
+      <c r="FF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FG7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5091,71 +5126,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED8" t="n">
+      <c r="ED8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EF8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>0</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>86.61</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EX8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5191,15 +5226,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF8" t="n">
+      <c r="FF8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FG8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5655,71 +5695,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED9" t="n">
+      <c r="ED9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EF9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>114.95</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>109.77</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>107.23</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EX9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5755,15 +5795,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF9" t="n">
+      <c r="FF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FG9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6219,71 +6264,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED10" t="n">
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EF10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>141.93</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>143.1</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>133.02</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EX10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6319,15 +6364,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF10" t="n">
+      <c r="FF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FG10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6783,71 +6833,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED11" t="n">
+      <c r="ED11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EF11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>122.51</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>120.53</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>112.33</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EX11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6883,15 +6933,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF11" t="n">
+      <c r="FF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FG11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7347,71 +7402,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED12" t="n">
+      <c r="ED12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EE12" t="n">
+      <c r="EF12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>103</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>105.43</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>99.66</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EX12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7447,15 +7502,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF12" t="n">
+      <c r="FF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FG12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7911,71 +7971,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED13" t="n">
+      <c r="ED13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EE13" t="n">
+      <c r="EF13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>84.62</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>80.31</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EX13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8011,15 +8071,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF13" t="n">
+      <c r="FF13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FG13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8475,71 +8540,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED14" t="n">
+      <c r="ED14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EE14" t="n">
+      <c r="EF14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>76.86</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>73.02</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>69.84</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EX14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8575,15 +8640,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF14" t="n">
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FG14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9039,71 +9109,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED15" t="n">
+      <c r="ED15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EE15" t="n">
+      <c r="EF15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>61.75</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>56.4</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EX15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9139,15 +9209,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF15" t="n">
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FG15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9603,71 +9678,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED16" t="n">
+      <c r="ED16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EE16" t="n">
+      <c r="EF16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>17</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>63.5</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>45.72</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>63.8</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>20</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EX16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9703,15 +9778,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF16" t="n">
+      <c r="FF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FG16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10167,71 +10247,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED17" t="n">
+      <c r="ED17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EE17" t="n">
+      <c r="EF17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>61.72</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>59.64</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>45</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EX17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10267,15 +10347,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF17" t="n">
+      <c r="FF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FG17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10731,71 +10816,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED18" t="n">
+      <c r="ED18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EE18" t="n">
+      <c r="EF18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>73.42</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>73.69</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EX18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10831,15 +10916,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF18" t="n">
+      <c r="FF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FG18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11295,71 +11385,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED19" t="n">
+      <c r="ED19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EE19" t="n">
+      <c r="EF19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>86.95</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>84.5</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EX19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11395,15 +11485,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF19" t="n">
+      <c r="FF19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FG19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11859,71 +11954,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED20" t="n">
+      <c r="ED20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EE20" t="n">
+      <c r="EF20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>110.61</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>116.88</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>116.71</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EX20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY20" t="inlineStr">
         <is>
           <t>-</t>
@@ -11959,15 +12054,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF20" t="n">
+      <c r="FF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FG20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12423,71 +12523,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED21" t="n">
+      <c r="ED21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EE21" t="n">
+      <c r="EF21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>0</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>145.16</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>156.52</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>142.33</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EX21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12523,15 +12623,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF21" t="n">
+      <c r="FF21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FG21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12987,71 +13092,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED22" t="n">
+      <c r="ED22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EE22" t="n">
+      <c r="EF22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>0</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>116.65</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>127.41</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>117.2</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EX22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13087,15 +13192,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF22" t="n">
+      <c r="FF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FG22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13551,71 +13661,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED23" t="n">
+      <c r="ED23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EE23" t="n">
+      <c r="EF23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>102.79</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>95</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>96.52</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>49</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EX23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13651,15 +13761,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF23" t="n">
+      <c r="FF23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FG23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14115,71 +14230,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED24" t="n">
+      <c r="ED24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EE24" t="n">
+      <c r="EF24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>119.59</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>93.13</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EX24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14215,15 +14330,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF24" t="n">
+      <c r="FF24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FG24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14679,71 +14799,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="ED25" t="n">
+      <c r="ED25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EE25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EE25" t="n">
+      <c r="EF25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>103.18</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>88.28</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EX25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EY25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14779,15 +14899,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FF25" t="n">
+      <c r="FF25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FG25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FG25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14804,7 +14929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16442,6 +16567,26 @@
       </c>
       <c r="B163" t="n">
         <v>27.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>27.525</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>27.525</v>
       </c>
     </row>
   </sheetData>
@@ -16455,7 +16600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18077,6 +18222,22 @@
       </c>
       <c r="B163" t="inlineStr"/>
     </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI25"/>
+  <dimension ref="A1:FJ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,155 +1108,160 @@
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
+          <t>02-dec</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1717,71 +1722,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE2" t="n">
+      <c r="EE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EG2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>72.25</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>97.44</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>20</v>
       </c>
-      <c r="EY2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1817,15 +1822,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG2" t="n">
+      <c r="FG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FH2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2286,71 +2296,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE3" t="n">
+      <c r="EE3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EG3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>63.56</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>89.62</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>76.81</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EY3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2386,15 +2396,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG3" t="n">
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FH3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2855,71 +2870,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE4" t="n">
+      <c r="EE4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EG4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>60.17</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>84.27</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EY4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2955,15 +2970,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG4" t="n">
+      <c r="FG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FH4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3424,71 +3444,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE5" t="n">
+      <c r="EE5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EG5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>30</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>73.38</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EY5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3524,15 +3544,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG5" t="n">
+      <c r="FG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FH5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3993,71 +4018,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE6" t="n">
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EG6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>0</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>23.19</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>69.58</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>64.86</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EY6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4093,15 +4118,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG6" t="n">
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FH6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4562,71 +4592,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE7" t="n">
+      <c r="EE7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EG7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>0</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>78</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>44.47</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>75.73</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EY7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4662,15 +4692,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG7" t="n">
+      <c r="FG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FH7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5131,71 +5166,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE8" t="n">
+      <c r="EE8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EG8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>0</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>87.55</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EY8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5231,15 +5266,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG8" t="n">
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FH8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5700,71 +5740,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE9" t="n">
+      <c r="EE9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EG9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>107.55</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>114.95</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>109.77</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EY9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5800,15 +5840,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG9" t="n">
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FH9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6269,71 +6314,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE10" t="n">
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EG10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>127.41</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>141.93</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>143.1</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EY10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6369,15 +6414,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG10" t="n">
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FH10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6838,71 +6888,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE11" t="n">
+      <c r="EE11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EG11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>111.22</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>122.51</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>120.53</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EY11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6938,15 +6988,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG11" t="n">
+      <c r="FG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FH11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7407,71 +7462,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE12" t="n">
+      <c r="EE12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EF12" t="n">
+      <c r="EG12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>103</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>105.43</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>99.66</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EY12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7507,15 +7562,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG12" t="n">
+      <c r="FG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FH12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7976,71 +8036,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE13" t="n">
+      <c r="EE13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EF13" t="n">
+      <c r="EG13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>88.36</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>84.62</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EY13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8076,15 +8136,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG13" t="n">
+      <c r="FG13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FH13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8545,71 +8610,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE14" t="n">
+      <c r="EE14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EF14" t="n">
+      <c r="EG14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>76.86</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>73.02</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EY14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8645,15 +8710,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG14" t="n">
+      <c r="FG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FH14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9114,71 +9184,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE15" t="n">
+      <c r="EE15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EF15" t="n">
+      <c r="EG15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>60.03</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>61.75</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EY15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9214,15 +9284,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG15" t="n">
+      <c r="FG15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FH15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9683,71 +9758,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE16" t="n">
+      <c r="EE16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EF16" t="n">
+      <c r="EG16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>17</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>47.33</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>63.5</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>45.72</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>20</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EY16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9783,15 +9858,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG16" t="n">
+      <c r="FG16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FH16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10252,71 +10332,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE17" t="n">
+      <c r="EE17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EF17" t="n">
+      <c r="EG17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>45.1</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>61.72</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>59.64</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>45</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EY17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10352,15 +10432,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG17" t="n">
+      <c r="FG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FH17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10821,71 +10906,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE18" t="n">
+      <c r="EE18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EF18" t="n">
+      <c r="EG18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>45.81</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>73.42</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EY18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ18" t="inlineStr">
         <is>
           <t>-</t>
@@ -10921,15 +11006,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG18" t="n">
+      <c r="FG18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FH18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11390,71 +11480,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE19" t="n">
+      <c r="EE19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EF19" t="n">
+      <c r="EG19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>86.95</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EY19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11490,15 +11580,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG19" t="n">
+      <c r="FG19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FH19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11959,71 +12054,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE20" t="n">
+      <c r="EE20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EF20" t="n">
+      <c r="EG20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>99.91</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>110.61</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>116.88</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EY20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12059,15 +12154,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG20" t="n">
+      <c r="FG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FH20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12528,71 +12628,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE21" t="n">
+      <c r="EE21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EF21" t="n">
+      <c r="EG21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>0</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>132.08</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>145.16</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>156.52</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EY21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12628,15 +12728,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG21" t="n">
+      <c r="FG21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FH21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13097,71 +13202,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE22" t="n">
+      <c r="EE22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EF22" t="n">
+      <c r="EG22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>0</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>106.19</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>116.65</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>127.41</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EY22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13197,15 +13302,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG22" t="n">
+      <c r="FG22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FH22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13666,71 +13776,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE23" t="n">
+      <c r="EE23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EF23" t="n">
+      <c r="EG23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>95.19</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>102.79</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>95</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>49</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EY23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13766,15 +13876,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG23" t="n">
+      <c r="FG23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FH23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14235,71 +14350,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE24" t="n">
+      <c r="EE24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EF24" t="n">
+      <c r="EG24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>90.52</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>119.59</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>93.13</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EY24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14335,15 +14450,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG24" t="n">
+      <c r="FG24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FH24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14804,71 +14924,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EE25" t="n">
+      <c r="EE25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EF25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EF25" t="n">
+      <c r="EG25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>87.41</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>103.18</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>88.28</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EY25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="EZ25" t="inlineStr">
         <is>
           <t>-</t>
@@ -14904,15 +15024,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FG25" t="n">
+      <c r="FG25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FH25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FH25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ25" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FJ25"/>
+  <dimension ref="A1:FK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,155 +1113,160 @@
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
+          <t>03-dec</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1727,71 +1732,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF2" t="n">
+      <c r="EF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EH2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>72.25</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>97.44</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>20</v>
       </c>
-      <c r="EZ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1827,15 +1832,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH2" t="n">
+      <c r="FH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FI2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2301,71 +2311,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF3" t="n">
+      <c r="EF3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EH3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>77.78</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>63.56</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>89.62</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>11.59</v>
       </c>
-      <c r="EZ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2401,15 +2411,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH3" t="n">
+      <c r="FH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FI3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2875,71 +2890,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF4" t="n">
+      <c r="EF4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EH4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>71.77</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>60.17</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>84.27</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>14.17</v>
       </c>
-      <c r="EZ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2975,15 +2990,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH4" t="n">
+      <c r="FH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FI4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3449,71 +3469,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF5" t="n">
+      <c r="EF5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EH5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>59.19</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>30</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>73.38</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>8.43</v>
       </c>
-      <c r="EZ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3549,15 +3569,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH5" t="n">
+      <c r="FH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FI5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4023,71 +4048,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF6" t="n">
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EH6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>0</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>62.88</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>23.19</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>69.58</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="EZ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4123,15 +4148,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH6" t="n">
+      <c r="FH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FI6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4597,71 +4627,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF7" t="n">
+      <c r="EF7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EH7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>0</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>78</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>57.02</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>44.47</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>75.73</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>11.89</v>
       </c>
-      <c r="EZ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4697,15 +4727,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH7" t="n">
+      <c r="FH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FI7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5171,71 +5206,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF8" t="n">
+      <c r="EF8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EH8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>0</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>74.91</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>87.55</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>51.1</v>
       </c>
-      <c r="EZ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5271,15 +5306,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH8" t="n">
+      <c r="FH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FI8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5745,71 +5785,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF9" t="n">
+      <c r="EF9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EH9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>81.06</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>107.55</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>114.95</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="EZ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5845,15 +5885,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH9" t="n">
+      <c r="FH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FI9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6319,71 +6364,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF10" t="n">
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EH10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>127.41</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>141.93</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="EZ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6419,15 +6464,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH10" t="n">
+      <c r="FH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FI10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6893,71 +6943,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF11" t="n">
+      <c r="EF11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EH11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>65.58</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>111.22</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>122.51</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>84.16</v>
       </c>
-      <c r="EZ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA11" t="inlineStr">
         <is>
           <t>-</t>
@@ -6993,15 +7043,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH11" t="n">
+      <c r="FH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FI11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7467,71 +7522,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF12" t="n">
+      <c r="EF12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EG12" t="n">
+      <c r="EH12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>29.04</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>103</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>105.43</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>38.46</v>
       </c>
-      <c r="EZ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7567,15 +7622,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH12" t="n">
+      <c r="FH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FI12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8041,71 +8101,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF13" t="n">
+      <c r="EF13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EG13" t="n">
+      <c r="EH13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>20.33</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>88.36</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>16.68</v>
       </c>
-      <c r="EZ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8141,15 +8201,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH13" t="n">
+      <c r="FH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FI13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8615,71 +8680,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF14" t="n">
+      <c r="EF14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EG14" t="n">
+      <c r="EH14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>24.03</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>76.86</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>20.75</v>
       </c>
-      <c r="EZ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8715,15 +8780,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH14" t="n">
+      <c r="FH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FI14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9189,71 +9259,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF15" t="n">
+      <c r="EF15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EG15" t="n">
+      <c r="EH15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>16.5</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>60.03</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>7.88</v>
       </c>
-      <c r="EZ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9289,15 +9359,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH15" t="n">
+      <c r="FH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FI15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9763,71 +9838,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF16" t="n">
+      <c r="EF16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EG16" t="n">
+      <c r="EH16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>17</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>6.2</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>47.33</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>63.5</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>20</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>1.34</v>
       </c>
-      <c r="EZ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9863,15 +9938,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH16" t="n">
+      <c r="FH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FI16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10337,71 +10417,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF17" t="n">
+      <c r="EF17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EG17" t="n">
+      <c r="EH17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>1.72</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>45.1</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>61.72</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>45</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>0.28</v>
       </c>
-      <c r="EZ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10437,15 +10517,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH17" t="n">
+      <c r="FH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FI17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10911,71 +10996,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF18" t="n">
+      <c r="EF18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EG18" t="n">
+      <c r="EH18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>7.24</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>45.81</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>6.06</v>
       </c>
-      <c r="EZ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11011,15 +11096,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH18" t="n">
+      <c r="FH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FI18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11485,71 +11575,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF19" t="n">
+      <c r="EF19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EG19" t="n">
+      <c r="EH19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>34.42</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>86.95</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>11.77</v>
       </c>
-      <c r="EZ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11585,15 +11675,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH19" t="n">
+      <c r="FH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FI19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12059,71 +12154,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF20" t="n">
+      <c r="EF20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EG20" t="n">
+      <c r="EH20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>99.91</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>110.61</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>40.14</v>
       </c>
-      <c r="EZ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12159,15 +12254,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH20" t="n">
+      <c r="FH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FI20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12633,71 +12733,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF21" t="n">
+      <c r="EF21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EG21" t="n">
+      <c r="EH21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>0</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>109.4</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>132.08</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>145.16</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>79.05</v>
       </c>
-      <c r="EZ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12733,15 +12833,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH21" t="n">
+      <c r="FH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FI21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13207,71 +13312,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF22" t="n">
+      <c r="EF22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EG22" t="n">
+      <c r="EH22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>0</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>110.18</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>106.19</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>116.65</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>64.13</v>
       </c>
-      <c r="EZ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13307,15 +13412,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH22" t="n">
+      <c r="FH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FI22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13781,71 +13891,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF23" t="n">
+      <c r="EF23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EG23" t="n">
+      <c r="EH23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>102.95</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>95.19</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>102.79</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>95</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>49</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>28.75</v>
       </c>
-      <c r="EZ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13881,15 +13991,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH23" t="n">
+      <c r="FH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FI23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14355,71 +14470,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF24" t="n">
+      <c r="EF24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EG24" t="n">
+      <c r="EH24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>84.64</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>90.52</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>119.59</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>46.08</v>
       </c>
-      <c r="EZ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14455,15 +14570,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH24" t="n">
+      <c r="FH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FI24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14929,71 +15049,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EF25" t="n">
+      <c r="EF25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EG25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EG25" t="n">
+      <c r="EH25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>80.88</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>87.41</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>103.18</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>46.64</v>
       </c>
-      <c r="EZ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FA25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15029,15 +15149,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FH25" t="n">
+      <c r="FH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FI25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FI25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15054,7 +15179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16712,6 +16837,16 @@
       </c>
       <c r="B165" t="n">
         <v>27.525</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>27.2</v>
       </c>
     </row>
   </sheetData>
@@ -16725,7 +16860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18363,6 +18498,16 @@
       </c>
       <c r="B165" t="inlineStr"/>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>82.68000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK25"/>
+  <dimension ref="A1:FL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,155 +1118,160 @@
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
+          <t>04-dec</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1737,71 +1742,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG2" t="n">
+      <c r="EG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EI2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>95.12</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>72.25</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>20</v>
       </c>
-      <c r="FA2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1837,15 +1842,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI2" t="n">
+      <c r="FI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FJ2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2316,71 +2326,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG3" t="n">
+      <c r="EG3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EI3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>88.84</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>77.78</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>63.56</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>71.36</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FA3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2416,15 +2426,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI3" t="n">
+      <c r="FI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FJ3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2895,71 +2910,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG4" t="n">
+      <c r="EG4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EI4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>71.77</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>60.17</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>56.27</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FA4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB4" t="inlineStr">
         <is>
           <t>-</t>
@@ -2995,15 +3010,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI4" t="n">
+      <c r="FI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FJ4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3474,71 +3494,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG5" t="n">
+      <c r="EG5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EI5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>72.53</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>59.19</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>30</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>34.13</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FA5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3574,15 +3594,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI5" t="n">
+      <c r="FI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FJ5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4053,71 +4078,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG6" t="n">
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EI6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>0</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>62.88</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>23.19</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>30.47</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FA6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4153,15 +4178,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI6" t="n">
+      <c r="FI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FJ6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4632,71 +4662,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG7" t="n">
+      <c r="EG7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EI7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>0</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>78</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>76.92</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>57.02</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>44.47</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>23.79</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FA7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4732,15 +4762,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI7" t="n">
+      <c r="FI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FJ7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5211,71 +5246,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG8" t="n">
+      <c r="EG8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EI8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>0</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>90.27</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>74.91</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>87.55</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>27.92</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FA8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5311,15 +5346,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI8" t="n">
+      <c r="FI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FJ8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5790,71 +5830,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG9" t="n">
+      <c r="EG9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EI9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>96.75</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>81.06</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>107.55</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>29.71</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FA9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5890,15 +5930,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI9" t="n">
+      <c r="FI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FJ9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6369,71 +6414,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG10" t="n">
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EI10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>100.07</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>127.41</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>31.35</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FA10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6469,15 +6514,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI10" t="n">
+      <c r="FI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FJ10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6948,71 +6998,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG11" t="n">
+      <c r="EG11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EI11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>85.69</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>65.58</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>111.22</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>24.8</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FA11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7048,15 +7098,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI11" t="n">
+      <c r="FI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FJ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7527,71 +7582,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG12" t="n">
+      <c r="EG12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EH12" t="n">
+      <c r="EI12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>55.75</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>29.04</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>103</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FA12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7627,15 +7682,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI12" t="n">
+      <c r="FI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FJ12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8106,71 +8166,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG13" t="n">
+      <c r="EG13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EH13" t="n">
+      <c r="EI13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>30.52</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>20.33</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>88.36</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>12.06</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FA13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8206,15 +8266,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI13" t="n">
+      <c r="FI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FJ13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8685,71 +8750,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG14" t="n">
+      <c r="EG14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EH14" t="n">
+      <c r="EI14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>30.25</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>24.03</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>26.6</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FA14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8785,15 +8850,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI14" t="n">
+      <c r="FI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FJ14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9264,71 +9334,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG15" t="n">
+      <c r="EG15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EH15" t="n">
+      <c r="EI15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>17.08</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>16.5</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>60.03</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>12.04</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FA15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9364,15 +9434,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI15" t="n">
+      <c r="FI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FJ15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9843,71 +9918,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG16" t="n">
+      <c r="EG16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EH16" t="n">
+      <c r="EI16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>17</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>6.2</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>47.33</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>20</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>13.34</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FA16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB16" t="inlineStr">
         <is>
           <t>-</t>
@@ -9943,15 +10018,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI16" t="n">
+      <c r="FI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FJ16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10422,71 +10502,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG17" t="n">
+      <c r="EG17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EH17" t="n">
+      <c r="EI17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>15.49</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>1.72</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>45.1</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>45</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>7.67</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FA17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10522,15 +10602,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI17" t="n">
+      <c r="FI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FJ17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11001,71 +11086,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG18" t="n">
+      <c r="EG18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EH18" t="n">
+      <c r="EI18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>7.24</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>45.81</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>10.64</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FA18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11101,15 +11186,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI18" t="n">
+      <c r="FI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FJ18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11580,71 +11670,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG19" t="n">
+      <c r="EG19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EH19" t="n">
+      <c r="EI19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>42.56</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>34.42</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>12.85</v>
       </c>
-      <c r="EZ19" t="n">
+      <c r="FA19" t="n">
         <v>11.77</v>
       </c>
-      <c r="FA19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11680,15 +11770,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI19" t="n">
+      <c r="FI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FJ19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12159,71 +12254,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG20" t="n">
+      <c r="EG20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EH20" t="n">
+      <c r="EI20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>83.06</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>99.91</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>38.52</v>
       </c>
-      <c r="EZ20" t="n">
+      <c r="FA20" t="n">
         <v>40.14</v>
       </c>
-      <c r="FA20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12259,15 +12354,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI20" t="n">
+      <c r="FI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FJ20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12738,71 +12838,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG21" t="n">
+      <c r="EG21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EH21" t="n">
+      <c r="EI21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>0</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>106.6</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>109.4</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>132.08</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="EZ21" t="n">
+      <c r="FA21" t="n">
         <v>79.05</v>
       </c>
-      <c r="FA21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12838,15 +12938,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI21" t="n">
+      <c r="FI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FJ21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13317,71 +13422,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG22" t="n">
+      <c r="EG22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EH22" t="n">
+      <c r="EI22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>0</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>105.62</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>110.18</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>106.19</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>72.14</v>
       </c>
-      <c r="EZ22" t="n">
+      <c r="FA22" t="n">
         <v>64.13</v>
       </c>
-      <c r="FA22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13417,15 +13522,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI22" t="n">
+      <c r="FI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FJ22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13896,71 +14006,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG23" t="n">
+      <c r="EG23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EH23" t="n">
+      <c r="EI23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>91.72</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>102.95</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>95.19</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>95</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>49</v>
       </c>
-      <c r="EZ23" t="n">
+      <c r="FA23" t="n">
         <v>28.75</v>
       </c>
-      <c r="FA23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB23" t="inlineStr">
         <is>
           <t>-</t>
@@ -13996,15 +14106,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI23" t="n">
+      <c r="FI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FJ23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14475,71 +14590,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG24" t="n">
+      <c r="EG24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EH24" t="n">
+      <c r="EI24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>89.77</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>84.64</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>90.52</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>43.88</v>
       </c>
-      <c r="EZ24" t="n">
+      <c r="FA24" t="n">
         <v>46.08</v>
       </c>
-      <c r="FA24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14575,15 +14690,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI24" t="n">
+      <c r="FI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FJ24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15054,71 +15174,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EG25" t="n">
+      <c r="EG25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EH25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EH25" t="n">
+      <c r="EI25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>93.5</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>80.88</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>87.41</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>32.41</v>
       </c>
-      <c r="EZ25" t="n">
+      <c r="FA25" t="n">
         <v>46.64</v>
       </c>
-      <c r="FA25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FB25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15154,15 +15274,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FI25" t="n">
+      <c r="FI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FJ25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FJ25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FK25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15179,7 +15304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16847,6 +16972,16 @@
       </c>
       <c r="B166" t="n">
         <v>27.2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>26.895</v>
       </c>
     </row>
   </sheetData>
@@ -16860,7 +16995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18508,6 +18643,16 @@
         <v>82.68000000000001</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>81.65000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FL25"/>
+  <dimension ref="A1:FM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,155 +1123,160 @@
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
+          <t>05-dec</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1747,71 +1752,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH2" t="n">
+      <c r="EH2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EJ2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>89.02</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>95.12</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>20</v>
       </c>
-      <c r="FB2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1847,15 +1852,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FK2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2331,71 +2341,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH3" t="n">
+      <c r="EH3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EJ3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>88.84</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>77.78</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>91.59</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>71.36</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FB3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2431,15 +2441,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FK3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2915,71 +2930,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH4" t="n">
+      <c r="EH4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EJ4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>71.77</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>90.23</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>56.27</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FB4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC4" t="inlineStr">
         <is>
           <t>-</t>
@@ -3015,15 +3030,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FK4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3499,71 +3519,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH5" t="n">
+      <c r="EH5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EJ5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>72.95</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>72.53</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>59.19</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>30</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>82.64</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>34.13</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FB5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3599,15 +3619,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FK5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4083,71 +4108,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH6" t="n">
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EJ6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>0</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>69.75</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>62.88</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>74.88</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>30.47</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FB6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4183,15 +4208,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FK6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4667,71 +4697,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH7" t="n">
+      <c r="EH7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EJ7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>0</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>78</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>76.92</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>57.02</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>23.79</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FB7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4767,15 +4797,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FK7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5251,71 +5286,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH8" t="n">
+      <c r="EH8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EJ8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>0</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>94.98</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>90.27</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>74.91</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>80.84</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>27.92</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FB8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5351,15 +5386,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FK8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5835,71 +5875,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH9" t="n">
+      <c r="EH9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EJ9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>107.06</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>96.75</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>81.06</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>98.08</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>29.71</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FB9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5935,15 +5975,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ9" t="n">
+      <c r="FJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FK9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6419,71 +6464,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH10" t="n">
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EJ10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>121.48</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>100.07</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>112.47</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>31.35</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FB10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FB10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6519,15 +6564,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ10" t="n">
+      <c r="FJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FK10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7003,71 +7053,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH11" t="n">
+      <c r="EH11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EJ11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>104.96</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>85.69</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>65.58</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>99.89</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>24.8</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FB11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FB11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7103,15 +7153,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ11" t="n">
+      <c r="FJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FK11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7587,71 +7642,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH12" t="n">
+      <c r="EH12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EI12" t="n">
+      <c r="EJ12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>55.75</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>29.04</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>103</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>75.37</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FB12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FB12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7687,15 +7742,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ12" t="n">
+      <c r="FJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FK12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8171,71 +8231,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH13" t="n">
+      <c r="EH13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EI13" t="n">
+      <c r="EJ13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>70.25</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>30.52</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>20.33</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>39.52</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>12.06</v>
       </c>
-      <c r="FA13" t="n">
+      <c r="FB13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FB13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8271,15 +8331,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ13" t="n">
+      <c r="FJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FK13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8755,71 +8820,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH14" t="n">
+      <c r="EH14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EI14" t="n">
+      <c r="EJ14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>73.55</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>30.25</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>24.03</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>39.27</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>26.6</v>
       </c>
-      <c r="FA14" t="n">
+      <c r="FB14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FB14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8855,15 +8920,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ14" t="n">
+      <c r="FJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FK14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9339,71 +9409,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH15" t="n">
+      <c r="EH15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EI15" t="n">
+      <c r="EJ15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>43.57</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>17.08</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>16.5</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>24.24</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>12.04</v>
       </c>
-      <c r="FA15" t="n">
+      <c r="FB15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9439,15 +9509,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ15" t="n">
+      <c r="FJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FK15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9923,71 +9998,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH16" t="n">
+      <c r="EH16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EI16" t="n">
+      <c r="EJ16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>33.23</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>17</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>6.2</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>20</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>13.34</v>
       </c>
-      <c r="FA16" t="n">
+      <c r="FB16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FB16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC16" t="inlineStr">
         <is>
           <t>-</t>
@@ -10023,15 +10098,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ16" t="n">
+      <c r="FJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FK16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10507,71 +10587,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH17" t="n">
+      <c r="EH17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EI17" t="n">
+      <c r="EJ17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>45.71</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>15.49</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>1.72</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>45</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>20.62</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>7.67</v>
       </c>
-      <c r="FA17" t="n">
+      <c r="FB17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FB17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10607,15 +10687,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ17" t="n">
+      <c r="FJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FK17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11091,71 +11176,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH18" t="n">
+      <c r="EH18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EI18" t="n">
+      <c r="EJ18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>52.19</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>7.24</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>30.05</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>10.64</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FB18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FB18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11191,15 +11276,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ18" t="n">
+      <c r="FJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FK18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11675,71 +11765,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH19" t="n">
+      <c r="EH19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EI19" t="n">
+      <c r="EJ19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>67.14</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>79.98</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>42.56</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>34.42</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>68.13</v>
       </c>
-      <c r="EZ19" t="n">
+      <c r="FA19" t="n">
         <v>12.85</v>
       </c>
-      <c r="FA19" t="n">
+      <c r="FB19" t="n">
         <v>11.77</v>
       </c>
-      <c r="FB19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11775,15 +11865,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ19" t="n">
+      <c r="FJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FK19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12259,71 +12354,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH20" t="n">
+      <c r="EH20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EI20" t="n">
+      <c r="EJ20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>101.1</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>96.13</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>83.06</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="EZ20" t="n">
+      <c r="FA20" t="n">
         <v>38.52</v>
       </c>
-      <c r="FA20" t="n">
+      <c r="FB20" t="n">
         <v>40.14</v>
       </c>
-      <c r="FB20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12359,15 +12454,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ20" t="n">
+      <c r="FJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FK20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12843,71 +12943,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH21" t="n">
+      <c r="EH21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EI21" t="n">
+      <c r="EJ21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>0</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>124.8</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>115.01</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>106.6</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>109.4</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>117.97</v>
       </c>
-      <c r="EZ21" t="n">
+      <c r="FA21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="FA21" t="n">
+      <c r="FB21" t="n">
         <v>79.05</v>
       </c>
-      <c r="FB21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC21" t="inlineStr">
         <is>
           <t>-</t>
@@ -12943,15 +13043,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ21" t="n">
+      <c r="FJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FK21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13427,71 +13532,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH22" t="n">
+      <c r="EH22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EI22" t="n">
+      <c r="EJ22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>0</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>114.46</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>113.06</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>105.62</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>110.18</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>102.6</v>
       </c>
-      <c r="EZ22" t="n">
+      <c r="FA22" t="n">
         <v>72.14</v>
       </c>
-      <c r="FA22" t="n">
+      <c r="FB22" t="n">
         <v>64.13</v>
       </c>
-      <c r="FB22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13527,15 +13632,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ22" t="n">
+      <c r="FJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FK22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14011,71 +14121,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH23" t="n">
+      <c r="EH23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EI23" t="n">
+      <c r="EJ23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>101.06</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>93.08</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>91.72</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>102.95</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>95</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>93.59</v>
       </c>
-      <c r="EZ23" t="n">
+      <c r="FA23" t="n">
         <v>49</v>
       </c>
-      <c r="FA23" t="n">
+      <c r="FB23" t="n">
         <v>28.75</v>
       </c>
-      <c r="FB23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC23" t="inlineStr">
         <is>
           <t>-</t>
@@ -14111,15 +14221,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ23" t="n">
+      <c r="FJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FK23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14595,71 +14710,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH24" t="n">
+      <c r="EH24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EI24" t="n">
+      <c r="EJ24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>91.94</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>89.77</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>84.64</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>95.98</v>
       </c>
-      <c r="EZ24" t="n">
+      <c r="FA24" t="n">
         <v>43.88</v>
       </c>
-      <c r="FA24" t="n">
+      <c r="FB24" t="n">
         <v>46.08</v>
       </c>
-      <c r="FB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14695,15 +14810,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ24" t="n">
+      <c r="FJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FK24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15179,71 +15299,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EH25" t="n">
+      <c r="EH25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EI25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EI25" t="n">
+      <c r="EJ25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>93.87</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>93.5</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>80.88</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>94.38</v>
       </c>
-      <c r="EZ25" t="n">
+      <c r="FA25" t="n">
         <v>32.41</v>
       </c>
-      <c r="FA25" t="n">
+      <c r="FB25" t="n">
         <v>46.64</v>
       </c>
-      <c r="FB25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FC25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15279,15 +15399,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FJ25" t="n">
+      <c r="FJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FK25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FK25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FL25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15304,7 +15429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16982,6 +17107,16 @@
       </c>
       <c r="B167" t="n">
         <v>26.895</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>27.05</v>
       </c>
     </row>
   </sheetData>
@@ -16995,7 +17130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18653,6 +18788,16 @@
         <v>81.65000000000001</v>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>81.34999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FM25"/>
+  <dimension ref="A1:FN25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,155 +1128,160 @@
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
+          <t>06-dec</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1757,71 +1762,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI2" t="n">
+      <c r="EI2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EK2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>93.45</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>92.37</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>89.02</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>95.12</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>87.22</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>20</v>
       </c>
-      <c r="FC2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1857,15 +1862,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK2" t="n">
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FL2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2346,71 +2356,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI3" t="n">
+      <c r="EI3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EK3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>88.44</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>88.84</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>74.13</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>91.59</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>71.36</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FC3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2446,15 +2456,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK3" t="n">
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FL3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2935,71 +2950,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI4" t="n">
+      <c r="EI4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EK4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>87.56</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>78.95</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>90.23</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>56.27</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FC4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD4" t="inlineStr">
         <is>
           <t>-</t>
@@ -3035,15 +3050,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK4" t="n">
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FL4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3524,71 +3544,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI5" t="n">
+      <c r="EI5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EK5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>81.16</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>72.95</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>72.53</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>30</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>80.75</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>82.64</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>34.13</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FC5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3624,15 +3644,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK5" t="n">
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FL5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4113,71 +4138,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI6" t="n">
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EK6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>0</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>74.89</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>65.58</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>69.75</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>75.38</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>74.88</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>30.47</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FC6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4213,15 +4238,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK6" t="n">
+      <c r="FK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FL6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4702,71 +4732,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI7" t="n">
+      <c r="EI7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EK7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>0</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>78</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>68.47</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>76.92</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>78.87</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>23.79</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FC7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4802,15 +4832,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK7" t="n">
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FL7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5291,71 +5326,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI8" t="n">
+      <c r="EI8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EK8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>0</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>85.78</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>94.98</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>90.27</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>91.91</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>80.84</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>27.92</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FC8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5391,15 +5426,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK8" t="n">
+      <c r="FK8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FL8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5880,71 +5920,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI9" t="n">
+      <c r="EI9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EK9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>125.5</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>101.88</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>107.06</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>96.75</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>117.17</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>98.08</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>29.71</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FC9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FC9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD9" t="inlineStr">
         <is>
           <t>-</t>
@@ -5980,15 +6020,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK9" t="n">
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FL9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6469,71 +6514,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI10" t="n">
+      <c r="EI10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EK10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>154.27</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>119.07</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>121.48</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>100.07</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>140.25</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>112.47</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FB10" t="n">
         <v>31.35</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FC10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FC10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6569,15 +6614,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK10" t="n">
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FL10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7058,71 +7108,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI11" t="n">
+      <c r="EI11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EK11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>109.85</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>111.04</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>104.96</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>85.69</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>129.02</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>99.89</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FB11" t="n">
         <v>24.8</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FC11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FC11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7158,15 +7208,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK11" t="n">
+      <c r="FK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FL11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7647,71 +7702,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI12" t="n">
+      <c r="EI12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EK12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>98.03</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>89.81</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>55.75</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>103</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>99.38</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>75.37</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FB12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="FB12" t="n">
+      <c r="FC12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7747,15 +7802,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK12" t="n">
+      <c r="FK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FL12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8236,71 +8296,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI13" t="n">
+      <c r="EI13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EK13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>70.25</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>30.52</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>84.42</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>39.52</v>
       </c>
-      <c r="FA13" t="n">
+      <c r="FB13" t="n">
         <v>12.06</v>
       </c>
-      <c r="FB13" t="n">
+      <c r="FC13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8336,15 +8396,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK13" t="n">
+      <c r="FK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FL13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8825,71 +8890,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI14" t="n">
+      <c r="EI14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EK14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>76.19</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>73.55</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>30.25</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>76.58</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>39.27</v>
       </c>
-      <c r="FA14" t="n">
+      <c r="FB14" t="n">
         <v>26.6</v>
       </c>
-      <c r="FB14" t="n">
+      <c r="FC14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FC14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8925,15 +8990,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK14" t="n">
+      <c r="FK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FL14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9414,71 +9484,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI15" t="n">
+      <c r="EI15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EK15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>68.2</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>48.38</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>43.57</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>17.08</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>59.14</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>24.24</v>
       </c>
-      <c r="FA15" t="n">
+      <c r="FB15" t="n">
         <v>12.04</v>
       </c>
-      <c r="FB15" t="n">
+      <c r="FC15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FC15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9514,15 +9584,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK15" t="n">
+      <c r="FK15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FL15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10003,71 +10078,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI16" t="n">
+      <c r="EI16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EK16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>47.12</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>33.23</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>17</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>48.39</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>20</v>
       </c>
-      <c r="FA16" t="n">
+      <c r="FB16" t="n">
         <v>13.34</v>
       </c>
-      <c r="FB16" t="n">
+      <c r="FC16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FC16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD16" t="inlineStr">
         <is>
           <t>-</t>
@@ -10103,15 +10178,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK16" t="n">
+      <c r="FK16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FL16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10592,71 +10672,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI17" t="n">
+      <c r="EI17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EK17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>41.3</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>45.71</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>15.49</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>45</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>20.62</v>
       </c>
-      <c r="FA17" t="n">
+      <c r="FB17" t="n">
         <v>7.67</v>
       </c>
-      <c r="FB17" t="n">
+      <c r="FC17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FC17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10692,15 +10772,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK17" t="n">
+      <c r="FK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FL17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11181,71 +11266,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI18" t="n">
+      <c r="EI18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EK18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>66.84</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>47.75</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>52.19</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>57.8</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>30.05</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FB18" t="n">
         <v>10.64</v>
       </c>
-      <c r="FB18" t="n">
+      <c r="FC18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FC18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11281,15 +11366,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK18" t="n">
+      <c r="FK18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FL18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11770,71 +11860,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI19" t="n">
+      <c r="EI19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EK19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>67.14</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>79.98</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>42.56</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="EZ19" t="n">
+      <c r="FA19" t="n">
         <v>68.13</v>
       </c>
-      <c r="FA19" t="n">
+      <c r="FB19" t="n">
         <v>12.85</v>
       </c>
-      <c r="FB19" t="n">
+      <c r="FC19" t="n">
         <v>11.77</v>
       </c>
-      <c r="FC19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11870,15 +11960,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK19" t="n">
+      <c r="FK19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FL19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12359,71 +12454,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI20" t="n">
+      <c r="EI20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EK20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>105.48</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>101.1</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>96.13</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>83.06</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>120.75</v>
       </c>
-      <c r="EZ20" t="n">
+      <c r="FA20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="FA20" t="n">
+      <c r="FB20" t="n">
         <v>38.52</v>
       </c>
-      <c r="FB20" t="n">
+      <c r="FC20" t="n">
         <v>40.14</v>
       </c>
-      <c r="FC20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12459,15 +12554,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK20" t="n">
+      <c r="FK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FL20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12948,71 +13048,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI21" t="n">
+      <c r="EI21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EK21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>0</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>155.14</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>124.8</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>115.01</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>106.6</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>133.47</v>
       </c>
-      <c r="EZ21" t="n">
+      <c r="FA21" t="n">
         <v>117.97</v>
       </c>
-      <c r="FA21" t="n">
+      <c r="FB21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="FB21" t="n">
+      <c r="FC21" t="n">
         <v>79.05</v>
       </c>
-      <c r="FC21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD21" t="inlineStr">
         <is>
           <t>-</t>
@@ -13048,15 +13148,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK21" t="n">
+      <c r="FK21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FL21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13537,71 +13642,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI22" t="n">
+      <c r="EI22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EK22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>0</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>139.05</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>114.46</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>113.06</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>105.62</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>116.57</v>
       </c>
-      <c r="EZ22" t="n">
+      <c r="FA22" t="n">
         <v>102.6</v>
       </c>
-      <c r="FA22" t="n">
+      <c r="FB22" t="n">
         <v>72.14</v>
       </c>
-      <c r="FB22" t="n">
+      <c r="FC22" t="n">
         <v>64.13</v>
       </c>
-      <c r="FC22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13637,15 +13742,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK22" t="n">
+      <c r="FK22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FL22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14126,71 +14236,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI23" t="n">
+      <c r="EI23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EK23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>103.07</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>101.06</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>93.08</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>91.72</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>95</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>105.43</v>
       </c>
-      <c r="EZ23" t="n">
+      <c r="FA23" t="n">
         <v>93.59</v>
       </c>
-      <c r="FA23" t="n">
+      <c r="FB23" t="n">
         <v>49</v>
       </c>
-      <c r="FB23" t="n">
+      <c r="FC23" t="n">
         <v>28.75</v>
       </c>
-      <c r="FC23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD23" t="inlineStr">
         <is>
           <t>-</t>
@@ -14226,15 +14336,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK23" t="n">
+      <c r="FK23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FL23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14715,71 +14830,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI24" t="n">
+      <c r="EI24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EK24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>93.7</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>91.94</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>89.77</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>103.33</v>
       </c>
-      <c r="EZ24" t="n">
+      <c r="FA24" t="n">
         <v>95.98</v>
       </c>
-      <c r="FA24" t="n">
+      <c r="FB24" t="n">
         <v>43.88</v>
       </c>
-      <c r="FB24" t="n">
+      <c r="FC24" t="n">
         <v>46.08</v>
       </c>
-      <c r="FC24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14815,15 +14930,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK24" t="n">
+      <c r="FK24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FL24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15304,71 +15424,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EI25" t="n">
+      <c r="EI25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EJ25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EK25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>93.87</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>93.5</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="EZ25" t="n">
+      <c r="FA25" t="n">
         <v>94.38</v>
       </c>
-      <c r="FA25" t="n">
+      <c r="FB25" t="n">
         <v>32.41</v>
       </c>
-      <c r="FB25" t="n">
+      <c r="FC25" t="n">
         <v>46.64</v>
       </c>
-      <c r="FC25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FD25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15404,15 +15524,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FK25" t="n">
+      <c r="FK25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FL25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FL25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FM25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15429,7 +15554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17117,6 +17242,16 @@
       </c>
       <c r="B168" t="n">
         <v>27.05</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>25.95</v>
       </c>
     </row>
   </sheetData>
@@ -17130,7 +17265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18798,6 +18933,16 @@
         <v>81.34999999999999</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>82.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FN25"/>
+  <dimension ref="A1:FO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1133,155 +1133,160 @@
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
+          <t>07-dec</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1767,71 +1772,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EJ2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EL2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>88.77</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>93.45</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>92.37</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>89.02</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>87.22</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>20</v>
       </c>
-      <c r="FD2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1867,15 +1872,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL2" t="n">
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FM2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2361,71 +2371,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EJ3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EL3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>89.47</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>88.44</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>68.39</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>74.13</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>91.59</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>71.36</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FD3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2461,15 +2471,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL3" t="n">
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FM3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2955,71 +2970,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EJ4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EL4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>75.66</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>87.56</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>78.95</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>72.61</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>90.23</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>56.27</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE4" t="inlineStr">
         <is>
           <t>-</t>
@@ -3055,15 +3070,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL4" t="n">
+      <c r="FL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FM4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3549,71 +3569,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EJ5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EL5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>81.16</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>72.95</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>30</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>60.65</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>80.75</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>82.64</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>34.13</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FD5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3649,15 +3669,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL5" t="n">
+      <c r="FL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FM5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4143,71 +4168,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EL6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>0</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>74.47</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>74.89</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>65.58</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>69.75</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>55.2</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>75.38</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>74.88</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>30.47</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FD6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4243,15 +4268,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL6" t="n">
+      <c r="FL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FM6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4737,71 +4767,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EJ7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EL7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>0</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>78</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>68.47</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>78.87</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>78.87</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>23.79</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FD7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4837,15 +4867,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL7" t="n">
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FM7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5331,71 +5366,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EJ8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EL8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>0</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>98.48</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>85.78</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>94.98</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>86.61</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>91.91</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>80.84</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>27.92</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FD8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FD8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5431,15 +5466,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL8" t="n">
+      <c r="FL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FM8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5925,71 +5965,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EJ9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EL9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>121.01</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>125.5</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>101.88</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>107.06</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>107.23</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>117.17</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>98.08</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FC9" t="n">
         <v>29.71</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FD9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FD9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE9" t="inlineStr">
         <is>
           <t>-</t>
@@ -6025,15 +6065,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL9" t="n">
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FM9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6519,71 +6564,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EL10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>132.31</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>154.27</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>119.07</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>121.48</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>133.02</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>140.25</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FB10" t="n">
         <v>112.47</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FC10" t="n">
         <v>31.35</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FD10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FD10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6619,15 +6664,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL10" t="n">
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FM10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7113,71 +7163,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EJ11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EL11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>118.1</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>109.85</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>111.04</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>104.96</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>112.33</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>129.02</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FB11" t="n">
         <v>99.89</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FC11" t="n">
         <v>24.8</v>
       </c>
-      <c r="FC11" t="n">
+      <c r="FD11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FD11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7213,15 +7263,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL11" t="n">
+      <c r="FL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FM11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7707,71 +7762,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ12" t="n">
+      <c r="EJ12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EK12" t="n">
+      <c r="EL12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>75.89</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>98.03</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>89.81</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>103</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>99.38</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FB12" t="n">
         <v>75.37</v>
       </c>
-      <c r="FB12" t="n">
+      <c r="FC12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="FC12" t="n">
+      <c r="FD12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FD12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7807,15 +7862,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL12" t="n">
+      <c r="FL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FM12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8301,71 +8361,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ13" t="n">
+      <c r="EJ13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EK13" t="n">
+      <c r="EL13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>51.76</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>70.25</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>80.31</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>84.42</v>
       </c>
-      <c r="FA13" t="n">
+      <c r="FB13" t="n">
         <v>39.52</v>
       </c>
-      <c r="FB13" t="n">
+      <c r="FC13" t="n">
         <v>12.06</v>
       </c>
-      <c r="FC13" t="n">
+      <c r="FD13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FD13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8401,15 +8461,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL13" t="n">
+      <c r="FL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FM13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8895,71 +8960,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ14" t="n">
+      <c r="EJ14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EK14" t="n">
+      <c r="EL14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>50.88</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>76.19</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>73.55</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>69.84</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>76.58</v>
       </c>
-      <c r="FA14" t="n">
+      <c r="FB14" t="n">
         <v>39.27</v>
       </c>
-      <c r="FB14" t="n">
+      <c r="FC14" t="n">
         <v>26.6</v>
       </c>
-      <c r="FC14" t="n">
+      <c r="FD14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FD14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE14" t="inlineStr">
         <is>
           <t>-</t>
@@ -8995,15 +9060,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL14" t="n">
+      <c r="FL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FM14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9489,71 +9559,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ15" t="n">
+      <c r="EJ15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EK15" t="n">
+      <c r="EL15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>41.4</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>68.2</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>48.38</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>43.57</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>56.4</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>59.14</v>
       </c>
-      <c r="FA15" t="n">
+      <c r="FB15" t="n">
         <v>24.24</v>
       </c>
-      <c r="FB15" t="n">
+      <c r="FC15" t="n">
         <v>12.04</v>
       </c>
-      <c r="FC15" t="n">
+      <c r="FD15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FD15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9589,15 +9659,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL15" t="n">
+      <c r="FL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FM15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10083,71 +10158,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ16" t="n">
+      <c r="EJ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EK16" t="n">
+      <c r="EL16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>37.34</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>47.12</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>33.23</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>17</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>63.8</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>48.39</v>
       </c>
-      <c r="FA16" t="n">
+      <c r="FB16" t="n">
         <v>20</v>
       </c>
-      <c r="FB16" t="n">
+      <c r="FC16" t="n">
         <v>13.34</v>
       </c>
-      <c r="FC16" t="n">
+      <c r="FD16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FD16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE16" t="inlineStr">
         <is>
           <t>-</t>
@@ -10183,15 +10258,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL16" t="n">
+      <c r="FL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FM16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10677,71 +10757,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ17" t="n">
+      <c r="EJ17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EK17" t="n">
+      <c r="EL17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>42.81</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>41.3</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>45.71</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>45</v>
       </c>
-      <c r="FA17" t="n">
+      <c r="FB17" t="n">
         <v>20.62</v>
       </c>
-      <c r="FB17" t="n">
+      <c r="FC17" t="n">
         <v>7.67</v>
       </c>
-      <c r="FC17" t="n">
+      <c r="FD17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FD17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10777,15 +10857,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL17" t="n">
+      <c r="FL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FM17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11271,71 +11356,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ18" t="n">
+      <c r="EJ18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EK18" t="n">
+      <c r="EL18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>54.95</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>66.84</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>47.75</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>52.19</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>73.69</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>57.8</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FB18" t="n">
         <v>30.05</v>
       </c>
-      <c r="FB18" t="n">
+      <c r="FC18" t="n">
         <v>10.64</v>
       </c>
-      <c r="FC18" t="n">
+      <c r="FD18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FD18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11371,15 +11456,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL18" t="n">
+      <c r="FL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FM18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11865,71 +11955,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ19" t="n">
+      <c r="EJ19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EK19" t="n">
+      <c r="EL19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>77.72</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>67.14</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>79.98</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>84.5</v>
       </c>
-      <c r="EZ19" t="n">
+      <c r="FA19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="FA19" t="n">
+      <c r="FB19" t="n">
         <v>68.13</v>
       </c>
-      <c r="FB19" t="n">
+      <c r="FC19" t="n">
         <v>12.85</v>
       </c>
-      <c r="FC19" t="n">
+      <c r="FD19" t="n">
         <v>11.77</v>
       </c>
-      <c r="FD19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE19" t="inlineStr">
         <is>
           <t>-</t>
@@ -11965,15 +12055,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL19" t="n">
+      <c r="FL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FM19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12459,71 +12554,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ20" t="n">
+      <c r="EJ20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EK20" t="n">
+      <c r="EL20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>114.86</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>105.48</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>101.1</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>96.13</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>116.71</v>
       </c>
-      <c r="EZ20" t="n">
+      <c r="FA20" t="n">
         <v>120.75</v>
       </c>
-      <c r="FA20" t="n">
+      <c r="FB20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="FB20" t="n">
+      <c r="FC20" t="n">
         <v>38.52</v>
       </c>
-      <c r="FC20" t="n">
+      <c r="FD20" t="n">
         <v>40.14</v>
       </c>
-      <c r="FD20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12559,15 +12654,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL20" t="n">
+      <c r="FL20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FM20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13053,71 +13153,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ21" t="n">
+      <c r="EJ21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EK21" t="n">
+      <c r="EL21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>0</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>154.52</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>155.14</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>124.8</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>115.01</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>142.33</v>
       </c>
-      <c r="EZ21" t="n">
+      <c r="FA21" t="n">
         <v>133.47</v>
       </c>
-      <c r="FA21" t="n">
+      <c r="FB21" t="n">
         <v>117.97</v>
       </c>
-      <c r="FB21" t="n">
+      <c r="FC21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="FC21" t="n">
+      <c r="FD21" t="n">
         <v>79.05</v>
       </c>
-      <c r="FD21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE21" t="inlineStr">
         <is>
           <t>-</t>
@@ -13153,15 +13253,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL21" t="n">
+      <c r="FL21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FM21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13647,71 +13752,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ22" t="n">
+      <c r="EJ22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EK22" t="n">
+      <c r="EL22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>0</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>145.48</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>139.05</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>114.46</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>113.06</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>117.2</v>
       </c>
-      <c r="EZ22" t="n">
+      <c r="FA22" t="n">
         <v>116.57</v>
       </c>
-      <c r="FA22" t="n">
+      <c r="FB22" t="n">
         <v>102.6</v>
       </c>
-      <c r="FB22" t="n">
+      <c r="FC22" t="n">
         <v>72.14</v>
       </c>
-      <c r="FC22" t="n">
+      <c r="FD22" t="n">
         <v>64.13</v>
       </c>
-      <c r="FD22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13747,15 +13852,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL22" t="n">
+      <c r="FL22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FM22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14241,71 +14351,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ23" t="n">
+      <c r="EJ23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EK23" t="n">
+      <c r="EL23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>123.24</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>103.07</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>101.06</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>93.08</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>95</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>96.52</v>
       </c>
-      <c r="EZ23" t="n">
+      <c r="FA23" t="n">
         <v>105.43</v>
       </c>
-      <c r="FA23" t="n">
+      <c r="FB23" t="n">
         <v>93.59</v>
       </c>
-      <c r="FB23" t="n">
+      <c r="FC23" t="n">
         <v>49</v>
       </c>
-      <c r="FC23" t="n">
+      <c r="FD23" t="n">
         <v>28.75</v>
       </c>
-      <c r="FD23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE23" t="inlineStr">
         <is>
           <t>-</t>
@@ -14341,15 +14451,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL23" t="n">
+      <c r="FL23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FM23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14835,71 +14950,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ24" t="n">
+      <c r="EJ24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EK24" t="n">
+      <c r="EL24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>107.42</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>93.7</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>91.94</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="EZ24" t="n">
+      <c r="FA24" t="n">
         <v>103.33</v>
       </c>
-      <c r="FA24" t="n">
+      <c r="FB24" t="n">
         <v>95.98</v>
       </c>
-      <c r="FB24" t="n">
+      <c r="FC24" t="n">
         <v>43.88</v>
       </c>
-      <c r="FC24" t="n">
+      <c r="FD24" t="n">
         <v>46.08</v>
       </c>
-      <c r="FD24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE24" t="inlineStr">
         <is>
           <t>-</t>
@@ -14935,15 +15050,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL24" t="n">
+      <c r="FL24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FM24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15429,71 +15549,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EJ25" t="n">
+      <c r="EJ25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EK25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EK25" t="n">
+      <c r="EL25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>97.48</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>93.87</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="EZ25" t="n">
+      <c r="FA25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="FA25" t="n">
+      <c r="FB25" t="n">
         <v>94.38</v>
       </c>
-      <c r="FB25" t="n">
+      <c r="FC25" t="n">
         <v>32.41</v>
       </c>
-      <c r="FC25" t="n">
+      <c r="FD25" t="n">
         <v>46.64</v>
       </c>
-      <c r="FD25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FE25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15529,15 +15649,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FL25" t="n">
+      <c r="FL25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FM25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FM25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FN25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15554,7 +15679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17252,6 +17377,16 @@
       </c>
       <c r="B169" t="n">
         <v>25.95</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>25.965</v>
       </c>
     </row>
   </sheetData>
@@ -17265,7 +17400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18943,6 +19078,16 @@
         <v>82.5</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>81.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FO25"/>
+  <dimension ref="A1:FP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,155 +1138,160 @@
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
+          <t>08-dec</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1777,71 +1782,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK2" t="n">
+      <c r="EK2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EM2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>26.96</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>88.77</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>93.45</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>92.37</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>87.22</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>20</v>
       </c>
-      <c r="FE2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1877,15 +1882,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM2" t="n">
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FN2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2376,71 +2386,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK3" t="n">
+      <c r="EK3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EM3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>21.61</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>89.47</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>88.44</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>76.81</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>68.39</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>74.13</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>91.59</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>71.36</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FE3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2476,15 +2486,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM3" t="n">
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FN3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2975,71 +2990,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK4" t="n">
+      <c r="EK4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EM4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>16.38</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>75.66</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>87.56</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>78.95</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>72.61</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>90.23</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>56.27</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FE4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF4" t="inlineStr">
         <is>
           <t>-</t>
@@ -3075,15 +3090,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM4" t="n">
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FN4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3574,71 +3594,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK5" t="n">
+      <c r="EK5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EM5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>15.9</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>81.16</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>30</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>60.65</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>80.75</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>82.64</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>34.13</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FE5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3674,15 +3694,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM5" t="n">
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FN5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4173,71 +4198,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK6" t="n">
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EM6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>0</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>15.92</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>74.47</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>74.89</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>65.58</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>64.86</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>55.2</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>75.38</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>74.88</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>30.47</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FE6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FE6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4273,15 +4298,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM6" t="n">
+      <c r="FM6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FN6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4772,71 +4802,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK7" t="n">
+      <c r="EK7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EM7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>0</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>20.9</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>78</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>68.47</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>78.87</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>23.79</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FE7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FE7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4872,15 +4902,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM7" t="n">
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FN7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5371,71 +5406,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK8" t="n">
+      <c r="EK8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EM8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>0</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>18.28</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>98.48</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>85.78</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>86.61</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>91.91</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>80.84</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FD8" t="n">
         <v>27.92</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FE8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FE8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5471,15 +5506,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM8" t="n">
+      <c r="FM8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FN8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5970,71 +6010,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK9" t="n">
+      <c r="EK9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EM9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>46.92</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>121.01</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>125.5</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>101.88</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>109.77</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>107.23</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>117.17</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FC9" t="n">
         <v>98.08</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FD9" t="n">
         <v>29.71</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="FE9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FE9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF9" t="inlineStr">
         <is>
           <t>-</t>
@@ -6070,15 +6110,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM9" t="n">
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FN9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6569,71 +6614,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK10" t="n">
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EM10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>91.58</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>132.31</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>154.27</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>119.07</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>143.1</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>133.02</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FB10" t="n">
         <v>140.25</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FC10" t="n">
         <v>112.47</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FD10" t="n">
         <v>31.35</v>
       </c>
-      <c r="FD10" t="n">
+      <c r="FE10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FE10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6669,15 +6714,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM10" t="n">
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FN10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7168,71 +7218,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK11" t="n">
+      <c r="EK11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EM11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>115.81</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>118.1</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>109.85</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>111.04</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>120.53</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>112.33</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FB11" t="n">
         <v>129.02</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FC11" t="n">
         <v>99.89</v>
       </c>
-      <c r="FC11" t="n">
+      <c r="FD11" t="n">
         <v>24.8</v>
       </c>
-      <c r="FD11" t="n">
+      <c r="FE11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FE11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7268,15 +7318,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM11" t="n">
+      <c r="FM11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FN11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7767,71 +7822,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK12" t="n">
+      <c r="EK12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EL12" t="n">
+      <c r="EM12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>124.76</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>75.89</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>98.03</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>89.81</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>103</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>99.66</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FB12" t="n">
         <v>99.38</v>
       </c>
-      <c r="FB12" t="n">
+      <c r="FC12" t="n">
         <v>75.37</v>
       </c>
-      <c r="FC12" t="n">
+      <c r="FD12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="FD12" t="n">
+      <c r="FE12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FE12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7867,15 +7922,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM12" t="n">
+      <c r="FM12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FN12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8366,71 +8426,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK13" t="n">
+      <c r="EK13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EL13" t="n">
+      <c r="EM13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>118.02</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>51.76</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>84.62</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>80.31</v>
       </c>
-      <c r="FA13" t="n">
+      <c r="FB13" t="n">
         <v>84.42</v>
       </c>
-      <c r="FB13" t="n">
+      <c r="FC13" t="n">
         <v>39.52</v>
       </c>
-      <c r="FC13" t="n">
+      <c r="FD13" t="n">
         <v>12.06</v>
       </c>
-      <c r="FD13" t="n">
+      <c r="FE13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FE13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8466,15 +8526,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM13" t="n">
+      <c r="FM13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FN13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8965,71 +9030,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK14" t="n">
+      <c r="EK14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EL14" t="n">
+      <c r="EM14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>97.73</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>50.88</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>76.19</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>73.02</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>69.84</v>
       </c>
-      <c r="FA14" t="n">
+      <c r="FB14" t="n">
         <v>76.58</v>
       </c>
-      <c r="FB14" t="n">
+      <c r="FC14" t="n">
         <v>39.27</v>
       </c>
-      <c r="FC14" t="n">
+      <c r="FD14" t="n">
         <v>26.6</v>
       </c>
-      <c r="FD14" t="n">
+      <c r="FE14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FE14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF14" t="inlineStr">
         <is>
           <t>-</t>
@@ -9065,15 +9130,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM14" t="n">
+      <c r="FM14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FN14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9564,71 +9634,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK15" t="n">
+      <c r="EK15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EL15" t="n">
+      <c r="EM15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>62.72</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>41.4</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>68.2</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>48.38</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>61.75</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>56.4</v>
       </c>
-      <c r="FA15" t="n">
+      <c r="FB15" t="n">
         <v>59.14</v>
       </c>
-      <c r="FB15" t="n">
+      <c r="FC15" t="n">
         <v>24.24</v>
       </c>
-      <c r="FC15" t="n">
+      <c r="FD15" t="n">
         <v>12.04</v>
       </c>
-      <c r="FD15" t="n">
+      <c r="FE15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FE15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9664,15 +9734,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM15" t="n">
+      <c r="FM15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FN15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10163,71 +10238,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK16" t="n">
+      <c r="EK16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EL16" t="n">
+      <c r="EM16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>59.93</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>37.34</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>47.12</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>17</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>45.72</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>63.8</v>
       </c>
-      <c r="FA16" t="n">
+      <c r="FB16" t="n">
         <v>48.39</v>
       </c>
-      <c r="FB16" t="n">
+      <c r="FC16" t="n">
         <v>20</v>
       </c>
-      <c r="FC16" t="n">
+      <c r="FD16" t="n">
         <v>13.34</v>
       </c>
-      <c r="FD16" t="n">
+      <c r="FE16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FE16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF16" t="inlineStr">
         <is>
           <t>-</t>
@@ -10263,15 +10338,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM16" t="n">
+      <c r="FM16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FN16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10762,71 +10842,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK17" t="n">
+      <c r="EK17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EL17" t="n">
+      <c r="EM17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>58.24</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>42.81</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>41.3</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>59.64</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="FA17" t="n">
+      <c r="FB17" t="n">
         <v>45</v>
       </c>
-      <c r="FB17" t="n">
+      <c r="FC17" t="n">
         <v>20.62</v>
       </c>
-      <c r="FC17" t="n">
+      <c r="FD17" t="n">
         <v>7.67</v>
       </c>
-      <c r="FD17" t="n">
+      <c r="FE17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FE17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10862,15 +10942,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM17" t="n">
+      <c r="FM17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FN17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11361,71 +11446,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK18" t="n">
+      <c r="EK18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EL18" t="n">
+      <c r="EM18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>46.95</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>54.95</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>66.84</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>47.75</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>73.42</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>73.69</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FB18" t="n">
         <v>57.8</v>
       </c>
-      <c r="FB18" t="n">
+      <c r="FC18" t="n">
         <v>30.05</v>
       </c>
-      <c r="FC18" t="n">
+      <c r="FD18" t="n">
         <v>10.64</v>
       </c>
-      <c r="FD18" t="n">
+      <c r="FE18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FE18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11461,15 +11546,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM18" t="n">
+      <c r="FM18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FN18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11960,71 +12050,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK19" t="n">
+      <c r="EK19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL19" t="n">
         <v>13.43</v>
       </c>
-      <c r="EL19" t="n">
+      <c r="EM19" t="n">
         <v>16.2</v>
       </c>
-      <c r="EM19" t="n">
+      <c r="EN19" t="n">
         <v>36.8</v>
       </c>
-      <c r="EN19" t="n">
+      <c r="EO19" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EO19" t="n">
+      <c r="EP19" t="n">
         <v>-2.48</v>
       </c>
-      <c r="EP19" t="n">
+      <c r="EQ19" t="n">
         <v>37.62</v>
       </c>
-      <c r="EQ19" t="n">
+      <c r="ER19" t="n">
         <v>77.72</v>
       </c>
-      <c r="ER19" t="n">
+      <c r="ES19" t="n">
         <v>90.93000000000001</v>
       </c>
-      <c r="ES19" t="n">
+      <c r="ET19" t="n">
         <v>67.14</v>
       </c>
-      <c r="ET19" t="n">
+      <c r="EU19" t="n">
         <v>79.98</v>
       </c>
-      <c r="EU19" t="n">
+      <c r="EV19" t="n">
         <v>42.56</v>
       </c>
-      <c r="EV19" t="n">
+      <c r="EW19" t="n">
         <v>34.42</v>
       </c>
-      <c r="EW19" t="n">
+      <c r="EX19" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="EX19" t="n">
+      <c r="EY19" t="n">
         <v>86.95</v>
       </c>
-      <c r="EY19" t="n">
+      <c r="EZ19" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="EZ19" t="n">
+      <c r="FA19" t="n">
         <v>84.5</v>
       </c>
-      <c r="FA19" t="n">
+      <c r="FB19" t="n">
         <v>94.70999999999999</v>
       </c>
-      <c r="FB19" t="n">
+      <c r="FC19" t="n">
         <v>68.13</v>
       </c>
-      <c r="FC19" t="n">
+      <c r="FD19" t="n">
         <v>12.85</v>
       </c>
-      <c r="FD19" t="n">
+      <c r="FE19" t="n">
         <v>11.77</v>
       </c>
-      <c r="FE19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF19" t="inlineStr">
         <is>
           <t>-</t>
@@ -12060,15 +12150,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM19" t="n">
+      <c r="FM19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN19" t="n">
         <v>111.12</v>
       </c>
-      <c r="FN19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12559,71 +12654,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK20" t="n">
+      <c r="EK20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL20" t="n">
         <v>16.2</v>
       </c>
-      <c r="EL20" t="n">
+      <c r="EM20" t="n">
         <v>16.25</v>
       </c>
-      <c r="EM20" t="n">
+      <c r="EN20" t="n">
         <v>38.24</v>
       </c>
-      <c r="EN20" t="n">
+      <c r="EO20" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO20" t="n">
+      <c r="EP20" t="n">
         <v>-2.29</v>
       </c>
-      <c r="EP20" t="n">
+      <c r="EQ20" t="n">
         <v>36.23</v>
       </c>
-      <c r="EQ20" t="n">
+      <c r="ER20" t="n">
         <v>114.86</v>
       </c>
-      <c r="ER20" t="n">
+      <c r="ES20" t="n">
         <v>105.48</v>
       </c>
-      <c r="ES20" t="n">
+      <c r="ET20" t="n">
         <v>101.1</v>
       </c>
-      <c r="ET20" t="n">
+      <c r="EU20" t="n">
         <v>96.13</v>
       </c>
-      <c r="EU20" t="n">
+      <c r="EV20" t="n">
         <v>83.06</v>
       </c>
-      <c r="EV20" t="n">
+      <c r="EW20" t="n">
         <v>86.31999999999999</v>
       </c>
-      <c r="EW20" t="n">
+      <c r="EX20" t="n">
         <v>99.91</v>
       </c>
-      <c r="EX20" t="n">
+      <c r="EY20" t="n">
         <v>110.61</v>
       </c>
-      <c r="EY20" t="n">
+      <c r="EZ20" t="n">
         <v>116.88</v>
       </c>
-      <c r="EZ20" t="n">
+      <c r="FA20" t="n">
         <v>116.71</v>
       </c>
-      <c r="FA20" t="n">
+      <c r="FB20" t="n">
         <v>120.75</v>
       </c>
-      <c r="FB20" t="n">
+      <c r="FC20" t="n">
         <v>96.20999999999999</v>
       </c>
-      <c r="FC20" t="n">
+      <c r="FD20" t="n">
         <v>38.52</v>
       </c>
-      <c r="FD20" t="n">
+      <c r="FE20" t="n">
         <v>40.14</v>
       </c>
-      <c r="FE20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF20" t="inlineStr">
         <is>
           <t>-</t>
@@ -12659,15 +12754,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM20" t="n">
+      <c r="FM20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN20" t="n">
         <v>129.93</v>
       </c>
-      <c r="FN20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13158,71 +13258,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK21" t="n">
+      <c r="EK21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL21" t="n">
         <v>19.89</v>
       </c>
-      <c r="EL21" t="n">
+      <c r="EM21" t="n">
         <v>16.99</v>
       </c>
-      <c r="EM21" t="n">
+      <c r="EN21" t="n">
         <v>39.56</v>
       </c>
-      <c r="EN21" t="n">
+      <c r="EO21" t="n">
         <v>0</v>
       </c>
-      <c r="EO21" t="n">
+      <c r="EP21" t="n">
         <v>-0.78</v>
       </c>
-      <c r="EP21" t="n">
+      <c r="EQ21" t="n">
         <v>41.36</v>
       </c>
-      <c r="EQ21" t="n">
+      <c r="ER21" t="n">
         <v>154.52</v>
       </c>
-      <c r="ER21" t="n">
+      <c r="ES21" t="n">
         <v>155.14</v>
       </c>
-      <c r="ES21" t="n">
+      <c r="ET21" t="n">
         <v>124.8</v>
       </c>
-      <c r="ET21" t="n">
+      <c r="EU21" t="n">
         <v>115.01</v>
       </c>
-      <c r="EU21" t="n">
+      <c r="EV21" t="n">
         <v>106.6</v>
       </c>
-      <c r="EV21" t="n">
+      <c r="EW21" t="n">
         <v>109.4</v>
       </c>
-      <c r="EW21" t="n">
+      <c r="EX21" t="n">
         <v>132.08</v>
       </c>
-      <c r="EX21" t="n">
+      <c r="EY21" t="n">
         <v>145.16</v>
       </c>
-      <c r="EY21" t="n">
+      <c r="EZ21" t="n">
         <v>156.52</v>
       </c>
-      <c r="EZ21" t="n">
+      <c r="FA21" t="n">
         <v>142.33</v>
       </c>
-      <c r="FA21" t="n">
+      <c r="FB21" t="n">
         <v>133.47</v>
       </c>
-      <c r="FB21" t="n">
+      <c r="FC21" t="n">
         <v>117.97</v>
       </c>
-      <c r="FC21" t="n">
+      <c r="FD21" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="FD21" t="n">
+      <c r="FE21" t="n">
         <v>79.05</v>
       </c>
-      <c r="FE21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF21" t="inlineStr">
         <is>
           <t>-</t>
@@ -13258,15 +13358,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM21" t="n">
+      <c r="FM21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN21" t="n">
         <v>115.82</v>
       </c>
-      <c r="FN21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13757,71 +13862,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK22" t="n">
+      <c r="EK22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL22" t="n">
         <v>36.97</v>
       </c>
-      <c r="EL22" t="n">
+      <c r="EM22" t="n">
         <v>31.89</v>
       </c>
-      <c r="EM22" t="n">
+      <c r="EN22" t="n">
         <v>44.1</v>
       </c>
-      <c r="EN22" t="n">
+      <c r="EO22" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EO22" t="n">
+      <c r="EP22" t="n">
         <v>0</v>
       </c>
-      <c r="EP22" t="n">
+      <c r="EQ22" t="n">
         <v>49.19</v>
       </c>
-      <c r="EQ22" t="n">
+      <c r="ER22" t="n">
         <v>145.48</v>
       </c>
-      <c r="ER22" t="n">
+      <c r="ES22" t="n">
         <v>139.05</v>
       </c>
-      <c r="ES22" t="n">
+      <c r="ET22" t="n">
         <v>114.46</v>
       </c>
-      <c r="ET22" t="n">
+      <c r="EU22" t="n">
         <v>113.06</v>
       </c>
-      <c r="EU22" t="n">
+      <c r="EV22" t="n">
         <v>105.62</v>
       </c>
-      <c r="EV22" t="n">
+      <c r="EW22" t="n">
         <v>110.18</v>
       </c>
-      <c r="EW22" t="n">
+      <c r="EX22" t="n">
         <v>106.19</v>
       </c>
-      <c r="EX22" t="n">
+      <c r="EY22" t="n">
         <v>116.65</v>
       </c>
-      <c r="EY22" t="n">
+      <c r="EZ22" t="n">
         <v>127.41</v>
       </c>
-      <c r="EZ22" t="n">
+      <c r="FA22" t="n">
         <v>117.2</v>
       </c>
-      <c r="FA22" t="n">
+      <c r="FB22" t="n">
         <v>116.57</v>
       </c>
-      <c r="FB22" t="n">
+      <c r="FC22" t="n">
         <v>102.6</v>
       </c>
-      <c r="FC22" t="n">
+      <c r="FD22" t="n">
         <v>72.14</v>
       </c>
-      <c r="FD22" t="n">
+      <c r="FE22" t="n">
         <v>64.13</v>
       </c>
-      <c r="FE22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF22" t="inlineStr">
         <is>
           <t>-</t>
@@ -13857,15 +13962,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM22" t="n">
+      <c r="FM22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN22" t="n">
         <v>99.05</v>
       </c>
-      <c r="FN22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14356,71 +14466,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK23" t="n">
+      <c r="EK23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL23" t="n">
         <v>43.02</v>
       </c>
-      <c r="EL23" t="n">
+      <c r="EM23" t="n">
         <v>38.28</v>
       </c>
-      <c r="EM23" t="n">
+      <c r="EN23" t="n">
         <v>49.54</v>
       </c>
-      <c r="EN23" t="n">
+      <c r="EO23" t="n">
         <v>-0.02</v>
       </c>
-      <c r="EO23" t="n">
+      <c r="EP23" t="n">
         <v>3.03</v>
       </c>
-      <c r="EP23" t="n">
+      <c r="EQ23" t="n">
         <v>63.01</v>
       </c>
-      <c r="EQ23" t="n">
+      <c r="ER23" t="n">
         <v>123.24</v>
       </c>
-      <c r="ER23" t="n">
+      <c r="ES23" t="n">
         <v>103.07</v>
       </c>
-      <c r="ES23" t="n">
+      <c r="ET23" t="n">
         <v>101.06</v>
       </c>
-      <c r="ET23" t="n">
+      <c r="EU23" t="n">
         <v>93.08</v>
       </c>
-      <c r="EU23" t="n">
+      <c r="EV23" t="n">
         <v>91.72</v>
       </c>
-      <c r="EV23" t="n">
+      <c r="EW23" t="n">
         <v>102.95</v>
       </c>
-      <c r="EW23" t="n">
+      <c r="EX23" t="n">
         <v>95.19</v>
       </c>
-      <c r="EX23" t="n">
+      <c r="EY23" t="n">
         <v>102.79</v>
       </c>
-      <c r="EY23" t="n">
+      <c r="EZ23" t="n">
         <v>95</v>
       </c>
-      <c r="EZ23" t="n">
+      <c r="FA23" t="n">
         <v>96.52</v>
       </c>
-      <c r="FA23" t="n">
+      <c r="FB23" t="n">
         <v>105.43</v>
       </c>
-      <c r="FB23" t="n">
+      <c r="FC23" t="n">
         <v>93.59</v>
       </c>
-      <c r="FC23" t="n">
+      <c r="FD23" t="n">
         <v>49</v>
       </c>
-      <c r="FD23" t="n">
+      <c r="FE23" t="n">
         <v>28.75</v>
       </c>
-      <c r="FE23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF23" t="inlineStr">
         <is>
           <t>-</t>
@@ -14456,15 +14566,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM23" t="n">
+      <c r="FM23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN23" t="n">
         <v>86.53</v>
       </c>
-      <c r="FN23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14955,71 +15070,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK24" t="n">
+      <c r="EK24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL24" t="n">
         <v>66.23</v>
       </c>
-      <c r="EL24" t="n">
+      <c r="EM24" t="n">
         <v>55.38</v>
       </c>
-      <c r="EM24" t="n">
+      <c r="EN24" t="n">
         <v>52.51</v>
       </c>
-      <c r="EN24" t="n">
+      <c r="EO24" t="n">
         <v>1.64</v>
       </c>
-      <c r="EO24" t="n">
+      <c r="EP24" t="n">
         <v>16.58</v>
       </c>
-      <c r="EP24" t="n">
+      <c r="EQ24" t="n">
         <v>82.58</v>
       </c>
-      <c r="EQ24" t="n">
+      <c r="ER24" t="n">
         <v>107.42</v>
       </c>
-      <c r="ER24" t="n">
+      <c r="ES24" t="n">
         <v>93.7</v>
       </c>
-      <c r="ES24" t="n">
+      <c r="ET24" t="n">
         <v>95.06999999999999</v>
       </c>
-      <c r="ET24" t="n">
+      <c r="EU24" t="n">
         <v>91.94</v>
       </c>
-      <c r="EU24" t="n">
+      <c r="EV24" t="n">
         <v>89.77</v>
       </c>
-      <c r="EV24" t="n">
+      <c r="EW24" t="n">
         <v>84.64</v>
       </c>
-      <c r="EW24" t="n">
+      <c r="EX24" t="n">
         <v>90.52</v>
       </c>
-      <c r="EX24" t="n">
+      <c r="EY24" t="n">
         <v>119.59</v>
       </c>
-      <c r="EY24" t="n">
+      <c r="EZ24" t="n">
         <v>93.13</v>
       </c>
-      <c r="EZ24" t="n">
+      <c r="FA24" t="n">
         <v>86.95999999999999</v>
       </c>
-      <c r="FA24" t="n">
+      <c r="FB24" t="n">
         <v>103.33</v>
       </c>
-      <c r="FB24" t="n">
+      <c r="FC24" t="n">
         <v>95.98</v>
       </c>
-      <c r="FC24" t="n">
+      <c r="FD24" t="n">
         <v>43.88</v>
       </c>
-      <c r="FD24" t="n">
+      <c r="FE24" t="n">
         <v>46.08</v>
       </c>
-      <c r="FE24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF24" t="inlineStr">
         <is>
           <t>-</t>
@@ -15055,15 +15170,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM24" t="n">
+      <c r="FM24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN24" t="n">
         <v>82.34</v>
       </c>
-      <c r="FN24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15554,71 +15674,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EK25" t="n">
+      <c r="EK25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EL25" t="n">
         <v>101.11</v>
       </c>
-      <c r="EL25" t="n">
+      <c r="EM25" t="n">
         <v>94.09</v>
       </c>
-      <c r="EM25" t="n">
+      <c r="EN25" t="n">
         <v>57.36</v>
       </c>
-      <c r="EN25" t="n">
+      <c r="EO25" t="n">
         <v>16.57</v>
       </c>
-      <c r="EO25" t="n">
+      <c r="EP25" t="n">
         <v>34.34</v>
       </c>
-      <c r="EP25" t="n">
+      <c r="EQ25" t="n">
         <v>117.46</v>
       </c>
-      <c r="EQ25" t="n">
+      <c r="ER25" t="n">
         <v>97.48</v>
       </c>
-      <c r="ER25" t="n">
+      <c r="ES25" t="n">
         <v>90.26000000000001</v>
       </c>
-      <c r="ES25" t="n">
+      <c r="ET25" t="n">
         <v>92.73999999999999</v>
       </c>
-      <c r="ET25" t="n">
+      <c r="EU25" t="n">
         <v>93.87</v>
       </c>
-      <c r="EU25" t="n">
+      <c r="EV25" t="n">
         <v>93.5</v>
       </c>
-      <c r="EV25" t="n">
+      <c r="EW25" t="n">
         <v>80.88</v>
       </c>
-      <c r="EW25" t="n">
+      <c r="EX25" t="n">
         <v>87.41</v>
       </c>
-      <c r="EX25" t="n">
+      <c r="EY25" t="n">
         <v>103.18</v>
       </c>
-      <c r="EY25" t="n">
+      <c r="EZ25" t="n">
         <v>88.28</v>
       </c>
-      <c r="EZ25" t="n">
+      <c r="FA25" t="n">
         <v>90.20999999999999</v>
       </c>
-      <c r="FA25" t="n">
+      <c r="FB25" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="FB25" t="n">
+      <c r="FC25" t="n">
         <v>94.38</v>
       </c>
-      <c r="FC25" t="n">
+      <c r="FD25" t="n">
         <v>32.41</v>
       </c>
-      <c r="FD25" t="n">
+      <c r="FE25" t="n">
         <v>46.64</v>
       </c>
-      <c r="FE25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FF25" t="inlineStr">
         <is>
           <t>-</t>
@@ -15654,15 +15774,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FM25" t="n">
+      <c r="FM25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FN25" t="n">
         <v>76.01000000000001</v>
       </c>
-      <c r="FN25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FO25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FP25" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15679,7 +15804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17387,6 +17512,26 @@
       </c>
       <c r="B170" t="n">
         <v>25.965</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>25.905</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>25.905</v>
       </c>
     </row>
   </sheetData>
@@ -17400,7 +17545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19088,6 +19233,26 @@
         <v>81.78</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>81.78</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>81.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/epexspot_prices.xlsx
+++ b/data/epexspot_prices.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FP25"/>
+  <dimension ref="A1:FQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1143,155 +1143,160 @@
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
+          <t>09-dec</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>01-oct.</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>02-oct.</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>03-oct.</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>04-oct.</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>05-oct.</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>06-oct.</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>07-oct.</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>08-oct.</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>09-oct.</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>10-oct.</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>11-oct.</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>12-oct.</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>13-oct.</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>14-oct.</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>15-oct.</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>16-oct.</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>17-oct.</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>18-oct.</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>19-oct.</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>20-oct.</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>21-oct.</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>22-oct.</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>23-oct.</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>24-oct.</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>25-oct.</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>26-oct.</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>27-oct.</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>28-oct.</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>29-oct.</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>30-oct.</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>31-oct.</t>
         </is>
@@ -1787,71 +1792,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL2" t="n">
+      <c r="EL2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM2" t="n">
         <v>79.53</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EN2" t="n">
         <v>69.26000000000001</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>32.65</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>9.85</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>4.31</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>26.96</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>88.77</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>93.45</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>92.37</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>89.02</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>95.12</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>92.70999999999999</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>72.25</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>97.44</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>83.31999999999999</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FB2" t="n">
         <v>76.73999999999999</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FC2" t="n">
         <v>87.22</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FD2" t="n">
         <v>93.84999999999999</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FE2" t="n">
         <v>84.51000000000001</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FF2" t="n">
         <v>20</v>
       </c>
-      <c r="FF2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG2" t="inlineStr">
         <is>
           <t>-</t>
@@ -1887,15 +1892,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN2" t="n">
+      <c r="FN2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO2" t="n">
         <v>60.08</v>
       </c>
-      <c r="FO2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2391,71 +2401,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL3" t="n">
+      <c r="EL3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM3" t="n">
         <v>79.98</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EN3" t="n">
         <v>66.84999999999999</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>36.09</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>7.23</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>1.63</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>21.61</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>89.47</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>88.44</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>80.95999999999999</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>88.84</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>77.78</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>63.56</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>89.62</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>76.81</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FB3" t="n">
         <v>68.39</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FC3" t="n">
         <v>74.13</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FD3" t="n">
         <v>91.59</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FE3" t="n">
         <v>71.36</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FF3" t="n">
         <v>11.59</v>
       </c>
-      <c r="FF3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG3" t="inlineStr">
         <is>
           <t>-</t>
@@ -2491,15 +2501,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN3" t="n">
+      <c r="FN3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO3" t="n">
         <v>54.76</v>
       </c>
-      <c r="FO3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2995,71 +3010,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL4" t="n">
+      <c r="EL4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM4" t="n">
         <v>66.95</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EN4" t="n">
         <v>68.91</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>34.49</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>2.9</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>0.58</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>16.38</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>75.66</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>87.56</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>78.95</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>71.77</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>60.17</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>84.27</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>76.70999999999999</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FB4" t="n">
         <v>72.61</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FC4" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FD4" t="n">
         <v>90.23</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FE4" t="n">
         <v>56.27</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FF4" t="n">
         <v>14.17</v>
       </c>
-      <c r="FF4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG4" t="inlineStr">
         <is>
           <t>-</t>
@@ -3095,15 +3110,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN4" t="n">
+      <c r="FN4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO4" t="n">
         <v>53.29</v>
       </c>
-      <c r="FO4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3599,71 +3619,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL5" t="n">
+      <c r="EL5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM5" t="n">
         <v>37.05</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EN5" t="n">
         <v>42.07</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>25.68</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>0.79</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>0.11</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>15.9</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>81.16</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>72.95</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>72.53</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>59.19</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>30</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>73.38</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>69.04000000000001</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FB5" t="n">
         <v>60.65</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FC5" t="n">
         <v>80.75</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FD5" t="n">
         <v>82.64</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FE5" t="n">
         <v>34.13</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FF5" t="n">
         <v>8.43</v>
       </c>
-      <c r="FF5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG5" t="inlineStr">
         <is>
           <t>-</t>
@@ -3699,15 +3719,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN5" t="n">
+      <c r="FN5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO5" t="n">
         <v>56.28</v>
       </c>
-      <c r="FO5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4203,71 +4228,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL6" t="n">
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM6" t="n">
         <v>28.49</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EN6" t="n">
         <v>25.05</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>21.94</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>0</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>15.92</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>74.47</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>74.89</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>65.58</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>69.75</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>62.88</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>23.19</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>69.58</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>64.86</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FB6" t="n">
         <v>55.2</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FC6" t="n">
         <v>75.38</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FD6" t="n">
         <v>74.88</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FE6" t="n">
         <v>30.47</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FF6" t="n">
         <v>9.890000000000001</v>
       </c>
-      <c r="FF6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG6" t="inlineStr">
         <is>
           <t>-</t>
@@ -4303,15 +4328,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN6" t="n">
+      <c r="FN6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO6" t="n">
         <v>51.63</v>
       </c>
-      <c r="FO6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ6" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4807,71 +4837,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL7" t="n">
+      <c r="EL7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM7" t="n">
         <v>44.03</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EN7" t="n">
         <v>39.44</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EO7" t="n">
         <v>19.01</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>0</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>20.9</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>84.34999999999999</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>78</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>68.47</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>78.87</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>76.92</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>57.02</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>44.47</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>75.73</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FB7" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FC7" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FD7" t="n">
         <v>78.87</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FE7" t="n">
         <v>23.79</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FF7" t="n">
         <v>11.89</v>
       </c>
-      <c r="FF7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG7" t="inlineStr">
         <is>
           <t>-</t>
@@ -4907,15 +4937,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN7" t="n">
+      <c r="FN7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO7" t="n">
         <v>57.36</v>
       </c>
-      <c r="FO7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5411,71 +5446,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL8" t="n">
+      <c r="EL8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM8" t="n">
         <v>31.72</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EN8" t="n">
         <v>55.25</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EO8" t="n">
         <v>28.41</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EP8" t="n">
         <v>0</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EQ8" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="ER8" t="n">
         <v>18.28</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ES8" t="n">
         <v>98.48</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ET8" t="n">
         <v>99.79000000000001</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="EU8" t="n">
         <v>85.78</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EV8" t="n">
         <v>94.98</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EW8" t="n">
         <v>90.27</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EX8" t="n">
         <v>74.91</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EY8" t="n">
         <v>87.55</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EZ8" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="FA8" t="n">
         <v>83.98999999999999</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FB8" t="n">
         <v>86.61</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FC8" t="n">
         <v>91.91</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FD8" t="n">
         <v>80.84</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FE8" t="n">
         <v>27.92</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="FF8" t="n">
         <v>51.1</v>
       </c>
-      <c r="FF8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG8" t="inlineStr">
         <is>
           <t>-</t>
@@ -5511,15 +5546,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN8" t="n">
+      <c r="FN8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO8" t="n">
         <v>84.92</v>
       </c>
-      <c r="FO8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ8" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6015,71 +6055,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL9" t="n">
+      <c r="EL9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM9" t="n">
         <v>40.07</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EN9" t="n">
         <v>70.3</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EO9" t="n">
         <v>28.13</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EP9" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EQ9" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="ER9" t="n">
         <v>46.92</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ES9" t="n">
         <v>121.01</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ET9" t="n">
         <v>125.5</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="EU9" t="n">
         <v>101.88</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EV9" t="n">
         <v>107.06</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EW9" t="n">
         <v>96.75</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EX9" t="n">
         <v>81.06</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EY9" t="n">
         <v>107.55</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EZ9" t="n">
         <v>114.95</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="FA9" t="n">
         <v>109.77</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FB9" t="n">
         <v>107.23</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FC9" t="n">
         <v>117.17</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FD9" t="n">
         <v>98.08</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="FE9" t="n">
         <v>29.71</v>
       </c>
-      <c r="FE9" t="n">
+      <c r="FF9" t="n">
         <v>75.31999999999999</v>
       </c>
-      <c r="FF9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG9" t="inlineStr">
         <is>
           <t>-</t>
@@ -6115,15 +6155,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN9" t="n">
+      <c r="FN9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO9" t="n">
         <v>103.69</v>
       </c>
-      <c r="FO9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ9" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6619,71 +6664,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL10" t="n">
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM10" t="n">
         <v>73.56</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EN10" t="n">
         <v>75.23</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EO10" t="n">
         <v>65.41</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EP10" t="n">
         <v>0.14</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EQ10" t="n">
         <v>1.36</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="ER10" t="n">
         <v>91.58</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ES10" t="n">
         <v>132.31</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ET10" t="n">
         <v>154.27</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="EU10" t="n">
         <v>119.07</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EV10" t="n">
         <v>121.48</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EW10" t="n">
         <v>100.07</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EX10" t="n">
         <v>85.20999999999999</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EY10" t="n">
         <v>127.41</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EZ10" t="n">
         <v>141.93</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="FA10" t="n">
         <v>143.1</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FB10" t="n">
         <v>133.02</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FC10" t="n">
         <v>140.25</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FD10" t="n">
         <v>112.47</v>
       </c>
-      <c r="FD10" t="n">
+      <c r="FE10" t="n">
         <v>31.35</v>
       </c>
-      <c r="FE10" t="n">
+      <c r="FF10" t="n">
         <v>92.84999999999999</v>
       </c>
-      <c r="FF10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG10" t="inlineStr">
         <is>
           <t>-</t>
@@ -6719,15 +6764,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN10" t="n">
+      <c r="FN10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO10" t="n">
         <v>99.3</v>
       </c>
-      <c r="FO10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7223,71 +7273,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL11" t="n">
+      <c r="EL11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM11" t="n">
         <v>106.73</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EN11" t="n">
         <v>110.24</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EO11" t="n">
         <v>90.14</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EP11" t="n">
         <v>1.85</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EQ11" t="n">
         <v>3.78</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="ER11" t="n">
         <v>115.81</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ES11" t="n">
         <v>118.1</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ET11" t="n">
         <v>109.85</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="EU11" t="n">
         <v>111.04</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EV11" t="n">
         <v>104.96</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EW11" t="n">
         <v>85.69</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EX11" t="n">
         <v>65.58</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EY11" t="n">
         <v>111.22</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EZ11" t="n">
         <v>122.51</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="FA11" t="n">
         <v>120.53</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FB11" t="n">
         <v>112.33</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FC11" t="n">
         <v>129.02</v>
       </c>
-      <c r="FC11" t="n">
+      <c r="FD11" t="n">
         <v>99.89</v>
       </c>
-      <c r="FD11" t="n">
+      <c r="FE11" t="n">
         <v>24.8</v>
       </c>
-      <c r="FE11" t="n">
+      <c r="FF11" t="n">
         <v>84.16</v>
       </c>
-      <c r="FF11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG11" t="inlineStr">
         <is>
           <t>-</t>
@@ -7323,15 +7373,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN11" t="n">
+      <c r="FN11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO11" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="FO11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7827,71 +7882,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL12" t="n">
+      <c r="EL12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM12" t="n">
         <v>120.44</v>
       </c>
-      <c r="EM12" t="n">
+      <c r="EN12" t="n">
         <v>122.97</v>
       </c>
-      <c r="EN12" t="n">
+      <c r="EO12" t="n">
         <v>103.28</v>
       </c>
-      <c r="EO12" t="n">
+      <c r="EP12" t="n">
         <v>6.6</v>
       </c>
-      <c r="EP12" t="n">
+      <c r="EQ12" t="n">
         <v>2.22</v>
       </c>
-      <c r="EQ12" t="n">
+      <c r="ER12" t="n">
         <v>124.76</v>
       </c>
-      <c r="ER12" t="n">
+      <c r="ES12" t="n">
         <v>75.89</v>
       </c>
-      <c r="ES12" t="n">
+      <c r="ET12" t="n">
         <v>98.03</v>
       </c>
-      <c r="ET12" t="n">
+      <c r="EU12" t="n">
         <v>89.81</v>
       </c>
-      <c r="EU12" t="n">
+      <c r="EV12" t="n">
         <v>87.54000000000001</v>
       </c>
-      <c r="EV12" t="n">
+      <c r="EW12" t="n">
         <v>55.75</v>
       </c>
-      <c r="EW12" t="n">
+      <c r="EX12" t="n">
         <v>29.04</v>
       </c>
-      <c r="EX12" t="n">
+      <c r="EY12" t="n">
         <v>103</v>
       </c>
-      <c r="EY12" t="n">
+      <c r="EZ12" t="n">
         <v>105.43</v>
       </c>
-      <c r="EZ12" t="n">
+      <c r="FA12" t="n">
         <v>99.66</v>
       </c>
-      <c r="FA12" t="n">
+      <c r="FB12" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="FB12" t="n">
+      <c r="FC12" t="n">
         <v>99.38</v>
       </c>
-      <c r="FC12" t="n">
+      <c r="FD12" t="n">
         <v>75.37</v>
       </c>
-      <c r="FD12" t="n">
+      <c r="FE12" t="n">
         <v>8.380000000000001</v>
       </c>
-      <c r="FE12" t="n">
+      <c r="FF12" t="n">
         <v>38.46</v>
       </c>
-      <c r="FF12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG12" t="inlineStr">
         <is>
           <t>-</t>
@@ -7927,15 +7982,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN12" t="n">
+      <c r="FN12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO12" t="n">
         <v>74.28</v>
       </c>
-      <c r="FO12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8431,71 +8491,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL13" t="n">
+      <c r="EL13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM13" t="n">
         <v>110.8</v>
       </c>
-      <c r="EM13" t="n">
+      <c r="EN13" t="n">
         <v>109.62</v>
       </c>
-      <c r="EN13" t="n">
+      <c r="EO13" t="n">
         <v>99.3</v>
       </c>
-      <c r="EO13" t="n">
+      <c r="EP13" t="n">
         <v>11.46</v>
       </c>
-      <c r="EP13" t="n">
+      <c r="EQ13" t="n">
         <v>3.14</v>
       </c>
-      <c r="EQ13" t="n">
+      <c r="ER13" t="n">
         <v>118.02</v>
       </c>
-      <c r="ER13" t="n">
+      <c r="ES13" t="n">
         <v>51.76</v>
       </c>
-      <c r="ES13" t="n">
+      <c r="ET13" t="n">
         <v>79.73999999999999</v>
       </c>
-      <c r="ET13" t="n">
+      <c r="EU13" t="n">
         <v>83.70999999999999</v>
       </c>
-      <c r="EU13" t="n">
+      <c r="EV13" t="n">
         <v>70.25</v>
       </c>
-      <c r="EV13" t="n">
+      <c r="EW13" t="n">
         <v>30.52</v>
       </c>
-      <c r="EW13" t="n">
+      <c r="EX13" t="n">
         <v>20.33</v>
       </c>
-      <c r="EX13" t="n">
+      <c r="EY13" t="n">
         <v>88.36</v>
       </c>
-      <c r="EY13" t="n">
+      <c r="EZ13" t="n">
         <v>88.04000000000001</v>
       </c>
-      <c r="EZ13" t="n">
+      <c r="FA13" t="n">
         <v>84.62</v>
       </c>
-      <c r="FA13" t="n">
+      <c r="FB13" t="n">
         <v>80.31</v>
       </c>
-      <c r="FB13" t="n">
+      <c r="FC13" t="n">
         <v>84.42</v>
       </c>
-      <c r="FC13" t="n">
+      <c r="FD13" t="n">
         <v>39.52</v>
       </c>
-      <c r="FD13" t="n">
+      <c r="FE13" t="n">
         <v>12.06</v>
       </c>
-      <c r="FE13" t="n">
+      <c r="FF13" t="n">
         <v>16.68</v>
       </c>
-      <c r="FF13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG13" t="inlineStr">
         <is>
           <t>-</t>
@@ -8531,15 +8591,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN13" t="n">
+      <c r="FN13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO13" t="n">
         <v>72.84999999999999</v>
       </c>
-      <c r="FO13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9035,71 +9100,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL14" t="n">
+      <c r="EL14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM14" t="n">
         <v>80.23</v>
       </c>
-      <c r="EM14" t="n">
+      <c r="EN14" t="n">
         <v>73.89</v>
       </c>
-      <c r="EN14" t="n">
+      <c r="EO14" t="n">
         <v>76.89</v>
       </c>
-      <c r="EO14" t="n">
+      <c r="EP14" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="EP14" t="n">
+      <c r="EQ14" t="n">
         <v>0.67</v>
       </c>
-      <c r="EQ14" t="n">
+      <c r="ER14" t="n">
         <v>97.73</v>
       </c>
-      <c r="ER14" t="n">
+      <c r="ES14" t="n">
         <v>50.88</v>
       </c>
-      <c r="ES14" t="n">
+      <c r="ET14" t="n">
         <v>76.19</v>
       </c>
-      <c r="ET14" t="n">
+      <c r="EU14" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="EU14" t="n">
+      <c r="EV14" t="n">
         <v>73.55</v>
       </c>
-      <c r="EV14" t="n">
+      <c r="EW14" t="n">
         <v>30.25</v>
       </c>
-      <c r="EW14" t="n">
+      <c r="EX14" t="n">
         <v>24.03</v>
       </c>
-      <c r="EX14" t="n">
+      <c r="EY14" t="n">
         <v>77.29000000000001</v>
       </c>
-      <c r="EY14" t="n">
+      <c r="EZ14" t="n">
         <v>76.86</v>
       </c>
-      <c r="EZ14" t="n">
+      <c r="FA14" t="n">
         <v>73.02</v>
       </c>
-      <c r="FA14" t="n">
+      <c r="FB14" t="n">
         <v>69.84</v>
       </c>
-      <c r="FB14" t="n">
+      <c r="FC14" t="n">
         <v>76.58</v>
       </c>
-      <c r="FC14" t="n">
+      <c r="FD14" t="n">
         <v>39.27</v>
       </c>
-      <c r="FD14" t="n">
+      <c r="FE14" t="n">
         <v>26.6</v>
       </c>
-      <c r="FE14" t="n">
+      <c r="FF14" t="n">
         <v>20.75</v>
       </c>
-      <c r="FF14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG14" t="inlineStr">
         <is>
           <t>-</t>
@@ -9135,15 +9200,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN14" t="n">
+      <c r="FN14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO14" t="n">
         <v>75.78</v>
       </c>
-      <c r="FO14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9639,71 +9709,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL15" t="n">
+      <c r="EL15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM15" t="n">
         <v>57.53</v>
       </c>
-      <c r="EM15" t="n">
+      <c r="EN15" t="n">
         <v>48.64</v>
       </c>
-      <c r="EN15" t="n">
+      <c r="EO15" t="n">
         <v>58.94</v>
       </c>
-      <c r="EO15" t="n">
+      <c r="EP15" t="n">
         <v>2.21</v>
       </c>
-      <c r="EP15" t="n">
+      <c r="EQ15" t="n">
         <v>-0.03</v>
       </c>
-      <c r="EQ15" t="n">
+      <c r="ER15" t="n">
         <v>62.72</v>
       </c>
-      <c r="ER15" t="n">
+      <c r="ES15" t="n">
         <v>41.4</v>
       </c>
-      <c r="ES15" t="n">
+      <c r="ET15" t="n">
         <v>68.2</v>
       </c>
-      <c r="ET15" t="n">
+      <c r="EU15" t="n">
         <v>48.38</v>
       </c>
-      <c r="EU15" t="n">
+      <c r="EV15" t="n">
         <v>43.57</v>
       </c>
-      <c r="EV15" t="n">
+      <c r="EW15" t="n">
         <v>17.08</v>
       </c>
-      <c r="EW15" t="n">
+      <c r="EX15" t="n">
         <v>16.5</v>
       </c>
-      <c r="EX15" t="n">
+      <c r="EY15" t="n">
         <v>60.03</v>
       </c>
-      <c r="EY15" t="n">
+      <c r="EZ15" t="n">
         <v>66.76000000000001</v>
       </c>
-      <c r="EZ15" t="n">
+      <c r="FA15" t="n">
         <v>61.75</v>
       </c>
-      <c r="FA15" t="n">
+      <c r="FB15" t="n">
         <v>56.4</v>
       </c>
-      <c r="FB15" t="n">
+      <c r="FC15" t="n">
         <v>59.14</v>
       </c>
-      <c r="FC15" t="n">
+      <c r="FD15" t="n">
         <v>24.24</v>
       </c>
-      <c r="FD15" t="n">
+      <c r="FE15" t="n">
         <v>12.04</v>
       </c>
-      <c r="FE15" t="n">
+      <c r="FF15" t="n">
         <v>7.88</v>
       </c>
-      <c r="FF15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG15" t="inlineStr">
         <is>
           <t>-</t>
@@ -9739,15 +9809,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN15" t="n">
+      <c r="FN15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO15" t="n">
         <v>78.55</v>
       </c>
-      <c r="FO15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ15" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10243,71 +10318,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL16" t="n">
+      <c r="EL16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM16" t="n">
         <v>36.52</v>
       </c>
-      <c r="EM16" t="n">
+      <c r="EN16" t="n">
         <v>31.83</v>
       </c>
-      <c r="EN16" t="n">
+      <c r="EO16" t="n">
         <v>47.38</v>
       </c>
-      <c r="EO16" t="n">
+      <c r="EP16" t="n">
         <v>0.04</v>
       </c>
-      <c r="EP16" t="n">
+      <c r="EQ16" t="n">
         <v>-0.49</v>
       </c>
-      <c r="EQ16" t="n">
+      <c r="ER16" t="n">
         <v>59.93</v>
       </c>
-      <c r="ER16" t="n">
+      <c r="ES16" t="n">
         <v>37.34</v>
       </c>
-      <c r="ES16" t="n">
+      <c r="ET16" t="n">
         <v>64.56999999999999</v>
       </c>
-      <c r="ET16" t="n">
+      <c r="EU16" t="n">
         <v>47.12</v>
       </c>
-      <c r="EU16" t="n">
+      <c r="EV16" t="n">
         <v>33.23</v>
       </c>
-      <c r="EV16" t="n">
+      <c r="EW16" t="n">
         <v>17</v>
       </c>
-      <c r="EW16" t="n">
+      <c r="EX16" t="n">
         <v>6.2</v>
       </c>
-      <c r="EX16" t="n">
+      <c r="EY16" t="n">
         <v>47.33</v>
       </c>
-      <c r="EY16" t="n">
+      <c r="EZ16" t="n">
         <v>63.5</v>
       </c>
-      <c r="EZ16" t="n">
+      <c r="FA16" t="n">
         <v>45.72</v>
       </c>
-      <c r="FA16" t="n">
+      <c r="FB16" t="n">
         <v>63.8</v>
       </c>
-      <c r="FB16" t="n">
+      <c r="FC16" t="n">
         <v>48.39</v>
       </c>
-      <c r="FC16" t="n">
+      <c r="FD16" t="n">
         <v>20</v>
       </c>
-      <c r="FD16" t="n">
+      <c r="FE16" t="n">
         <v>13.34</v>
       </c>
-      <c r="FE16" t="n">
+      <c r="FF16" t="n">
         <v>1.34</v>
       </c>
-      <c r="FF16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG16" t="inlineStr">
         <is>
           <t>-</t>
@@ -10343,15 +10418,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN16" t="n">
+      <c r="FN16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO16" t="n">
         <v>86.59</v>
       </c>
-      <c r="FO16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10847,71 +10927,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL17" t="n">
+      <c r="EL17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM17" t="n">
         <v>23.92</v>
       </c>
-      <c r="EM17" t="n">
+      <c r="EN17" t="n">
         <v>22.1</v>
       </c>
-      <c r="EN17" t="n">
+      <c r="EO17" t="n">
         <v>41.79</v>
       </c>
-      <c r="EO17" t="n">
+      <c r="EP17" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP17" t="n">
+      <c r="EQ17" t="n">
         <v>-0.99</v>
       </c>
-      <c r="EQ17" t="n">
+      <c r="ER17" t="n">
         <v>58.24</v>
       </c>
-      <c r="ER17" t="n">
+      <c r="ES17" t="n">
         <v>42.81</v>
       </c>
-      <c r="ES17" t="n">
+      <c r="ET17" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="ET17" t="n">
+      <c r="EU17" t="n">
         <v>41.3</v>
       </c>
-      <c r="EU17" t="n">
+      <c r="EV17" t="n">
         <v>45.71</v>
       </c>
-      <c r="EV17" t="n">
+      <c r="EW17" t="n">
         <v>15.49</v>
       </c>
-      <c r="EW17" t="n">
+      <c r="EX17" t="n">
         <v>1.72</v>
       </c>
-      <c r="EX17" t="n">
+      <c r="EY17" t="n">
         <v>45.1</v>
       </c>
-      <c r="EY17" t="n">
+      <c r="EZ17" t="n">
         <v>61.72</v>
       </c>
-      <c r="EZ17" t="n">
+      <c r="FA17" t="n">
         <v>59.64</v>
       </c>
-      <c r="FA17" t="n">
+      <c r="FB17" t="n">
         <v>64.70999999999999</v>
       </c>
-      <c r="FB17" t="n">
+      <c r="FC17" t="n">
         <v>45</v>
       </c>
-      <c r="FC17" t="n">
+      <c r="FD17" t="n">
         <v>20.62</v>
       </c>
-      <c r="FD17" t="n">
+      <c r="FE17" t="n">
         <v>7.67</v>
       </c>
-      <c r="FE17" t="n">
+      <c r="FF17" t="n">
         <v>0.28</v>
       </c>
-      <c r="FF17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG17" t="inlineStr">
         <is>
           <t>-</t>
@@ -10947,15 +11027,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN17" t="n">
+      <c r="FN17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO17" t="n">
         <v>103.02</v>
       </c>
-      <c r="FO17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11451,71 +11536,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL18" t="n">
+      <c r="EL18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM18" t="n">
         <v>18.39</v>
       </c>
-      <c r="EM18" t="n">
+      <c r="EN18" t="n">
         <v>19.43</v>
       </c>
-      <c r="EN18" t="n">
+      <c r="EO18" t="n">
         <v>41.44</v>
       </c>
-      <c r="EO18" t="n">
+      <c r="EP18" t="n">
         <v>-0.01</v>
       </c>
-      <c r="EP18" t="n">
+      <c r="EQ18" t="n">
         <v>-1.84</v>
       </c>
-      <c r="EQ18" t="n">
+      <c r="ER18" t="n">
         <v>46.95</v>
       </c>
-      <c r="ER18" t="n">
+      <c r="ES18" t="n">
         <v>54.95</v>
       </c>
-      <c r="ES18" t="n">
+      <c r="ET18" t="n">
         <v>66.84</v>
       </c>
-      <c r="ET18" t="n">
+      <c r="EU18" t="n">
         <v>47.75</v>
       </c>
-      <c r="EU18" t="n">
+      <c r="EV18" t="n">
         <v>52.19</v>
       </c>
-      <c r="EV18" t="n">
+      <c r="EW18" t="n">
         <v>9.869999999999999</v>
       </c>
-      <c r="EW18" t="n">
+      <c r="EX18" t="n">
         <v>7.24</v>
       </c>
-      <c r="EX18" t="n">
+      <c r="EY18" t="n">
         <v>45.81</v>
       </c>
-      <c r="EY18" t="n">
+      <c r="EZ18" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="EZ18" t="n">
+      <c r="FA18" t="n">
         <v>73.42</v>
       </c>
-      <c r="FA18" t="n">
+      <c r="FB18" t="n">
         <v>73.69</v>
       </c>
-      <c r="FB18" t="n">
+      <c r="FC18" t="n">
         <v>57.8</v>
       </c>
-      <c r="FC18" t="n">
+      <c r="FD18" t="n">
         <v>30.05</v>
       </c>
-      <c r="FD18" t="n">
+      <c r="FE18" t="n">
         <v>10.64</v>
       </c>
-      <c r="FE18" t="n">
+      <c r="FF18" t="n">
         <v>6.06</v>
       </c>
-      <c r="FF18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FG18" t="inlineStr">
         <is>
           <t>-</t>
@@ -11551,15 +11636,20 @@
           <t>-</t>
         </is>
       </c>
-      <c r="FN18" t="n">
+      <c r="FN18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FO18" t="n">
         <v>101.8</v>
       </c>
-      <c r="FO18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="FP18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="FQ18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12055,71 +12145,71 @@
           <t>-</t>
         </is>
       </c>
-      <c r="EL19" t="n">
+      <c r="EL19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="EM19" t="